--- a/PS-VRP/Dati_output/sequenza.xlsx
+++ b/PS-VRP/Dati_output/sequenza.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251284</v>
+        <v>251547</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40.5</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>297.0909090909091</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>16340</v>
+        <v>13129</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,17 +558,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>70</v>
       </c>
       <c r="N2" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -576,75 +576,73 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-1.443691314548611</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251706</v>
+        <v>250759</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>50.79365079365079</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>3200</v>
+        <v>8398</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N3" t="n">
+        <v>39747</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -652,54 +650,54 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39764</v>
+        <v>39747</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>0</v>
+        <v>-0.5466647104861111</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251455</v>
+        <v>250894</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>82.765625</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5297</v>
+        <v>44262</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -708,72 +706,70 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N4" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251391</v>
+        <v>251742</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>91.640625</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>5865</v>
+        <v>8226</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -786,7 +782,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
@@ -804,50 +800,50 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-1.406147540983796</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251395</v>
+        <v>251840</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>35.34375</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2262</v>
+        <v>5714</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -860,13 +856,13 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -874,54 +870,54 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-0.4885587431712963</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251371</v>
+        <v>251229</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>18739</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -930,18 +926,18 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>39666 (esterno)</t>
+          <t>39723 (esterno)</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -950,54 +946,54 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39666</v>
+        <v>39723</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251453</v>
+        <v>251225</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>78.125</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-07 11:58:45</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-07 11:58:45</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-07 13:16:52</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1006,19 +1002,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>39742 (non in estrazione)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N8" t="n">
+        <v>39747</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1026,54 +1020,54 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39742</v>
+        <v>39747</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-9.553385416666666</v>
+        <v>-0.5131944444444444</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251396</v>
+        <v>251227</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>35.34375</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-07 13:16:52</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-07 13:37:52</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-07 13:37:52</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-07 14:13:13</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>2262</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1082,17 +1076,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N9" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1100,54 +1094,54 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.5925130208333333</v>
+        <v>-2.523611111111111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251548</v>
+        <v>251782</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>206.90625</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-07 14:13:13</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-07 14:32:13</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-07 14:32:13</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-08 09:59:07</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>13242</v>
+        <v>12073</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1156,17 +1150,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N10" t="n">
-        <v>39749</v>
+        <v>39754</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1174,54 +1168,54 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39749</v>
+        <v>39754</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-1.416059027777778</v>
+        <v>-0.3201682316087963</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>250923</v>
+        <v>251164</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D11" t="n">
-        <v>109.46875</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 09:59:07</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 10:31:07</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 10:31:07</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:20:35</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>7006</v>
+        <v>10000</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1230,14 +1224,14 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N11" t="n">
         <v>39749</v>
@@ -1252,50 +1246,50 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-1.514301215277778</v>
+        <v>-1.471584467118056</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251225</v>
+        <v>251456</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:20:35</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>8999</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1304,17 +1298,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N12" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1322,128 +1316,126 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.5261067708333333</v>
+        <v>-3.300510204085648</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251227</v>
+        <v>251416</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D13" t="n">
+        <v>229.0204081632653</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:12:44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:52:44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:52:44</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:41:45</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>11222</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M13" t="n">
+        <v>70</v>
+      </c>
+      <c r="N13" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O13" t="n">
         <v>0</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:37:35</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:52:35</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:52:35</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:52:35</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="P13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>4</v>
-      </c>
-      <c r="M13" t="n">
-        <v>76</v>
-      </c>
-      <c r="N13" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P13" t="n">
-        <v>39746</v>
-      </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-2.5365234375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251421</v>
+        <v>251651</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D14" t="n">
-        <v>81.9375</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 13:09:35</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 13:09:35</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-08 14:31:31</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>5244</v>
+        <v>46830</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1452,40 +1444,36 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
         <v>76</v>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>39762 (non in estrazione)</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N14" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>39762</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.6052300347222223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251782</v>
+        <v>251455</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1493,33 +1481,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>188.640625</v>
+        <v>82.765625</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 14:31:31</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-08 14:46:31</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-08 14:46:31</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-09 09:55:10</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>12073</v>
+        <v>5297</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1528,17 +1516,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39754</v>
+        <v>39749</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1546,54 +1534,54 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39754</v>
+        <v>39749</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.4133138020833333</v>
+        <v>-0.3623372395833334</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251050</v>
+        <v>251391</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>217</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>91.640625</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>5865</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1602,17 +1590,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1620,54 +1608,54 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-0.4377821180555556</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251054</v>
+        <v>251395</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1676,17 +1664,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
       </c>
       <c r="N17" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1694,54 +1682,54 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-0.4741319444444445</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251081</v>
+        <v>251371</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>42.42253521126761</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>3012</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1750,18 +1738,18 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>39750 (esterno)</t>
+          <t>39666 (esterno)</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1770,54 +1758,54 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39750</v>
+        <v>39666</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-13.48732638888889</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251547</v>
+        <v>251396</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>184.9154929577465</v>
+        <v>35.34375</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>13129</v>
+        <v>2262</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1830,7 +1818,7 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
@@ -1848,50 +1836,50 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-0.5250651041666666</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>250759</v>
+        <v>251548</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>118.2816901408451</v>
+        <v>206.90625</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>8398</v>
+        <v>13242</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1900,17 +1888,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
         <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N20" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1918,54 +1906,54 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-1.348611111111111</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251229</v>
+        <v>250923</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D21" t="n">
-        <v>263.9295774647887</v>
+        <v>109.46875</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:41:11</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:41:11</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-09 10:05:07</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>18739</v>
+        <v>7006</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1974,19 +1962,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N21" t="n">
+        <v>39749</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1994,54 +1980,54 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39723</v>
+        <v>39749</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>0</v>
+        <v>-1.446853298611111</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251742</v>
+        <v>251477</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D22" t="n">
-        <v>134.8524590163935</v>
+        <v>468.734375</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>8226</v>
+        <v>29999</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2050,17 +2036,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N22" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2068,73 +2054,75 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-2.452224392361111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251840</v>
+        <v>251706</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>93.67213114754098</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>5714</v>
+        <v>3200</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>70</v>
-      </c>
-      <c r="N23" t="n">
-        <v>39758</v>
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2142,54 +2130,54 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>39758</v>
+        <v>39764</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251456</v>
+        <v>251050</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="D24" t="n">
-        <v>147.5245901639344</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-08 14:41:02</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>8999</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2198,17 +2186,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
       </c>
       <c r="N24" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2216,54 +2204,54 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-2.611839708564815</v>
+        <v>-1.442361111111111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251416</v>
+        <v>251054</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D25" t="n">
-        <v>183.9672131147541</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 14:41:02</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-09 07:06:02</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-09 07:06:02</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-09 10:10:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>11222</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2272,70 +2260,72 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
       </c>
       <c r="N25" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251651</v>
+        <v>251081</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="D26" t="n">
-        <v>767.7049180327868</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>46830</v>
+        <v>3012</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2344,70 +2334,74 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M26" t="n">
-        <v>76</v>
-      </c>
-      <c r="N26" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>39750</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>0</v>
+        <v>-16.58293231612268</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251477</v>
+        <v>251284</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>17</v>
+        <v>40.5</v>
       </c>
       <c r="D27" t="n">
-        <v>422.5211267605634</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:31</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>29999</v>
+        <v>16340</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2416,17 +2410,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M27" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N27" t="n">
-        <v>39760</v>
+        <v>39747</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2434,237 +2428,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>39760</v>
+        <v>39747</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-2.471889671365741</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>251268</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>47</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:00:00</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:47:00</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:47:00</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:47:00</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>4</v>
-      </c>
-      <c r="M28" t="n">
-        <v>76</v>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>39666 (non in estrazione)</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P28" t="n">
-        <v>39666</v>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>2025-04-14 00:00:00</t>
-        </is>
-      </c>
-      <c r="R28" s="1" t="n">
-        <v>-24.32430555555555</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>251164</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>47</v>
-      </c>
-      <c r="D29" t="n">
-        <v>204.0816326530612</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:47:00</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2025-05-08 08:34:00</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>2025-05-08 08:34:00</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2025-05-08 11:58:04</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>6</v>
-      </c>
-      <c r="M29" t="n">
-        <v>70</v>
-      </c>
-      <c r="N29" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P29" t="n">
-        <v>39749</v>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>2025-04-22 00:00:00</t>
-        </is>
-      </c>
-      <c r="R29" s="1" t="n">
-        <v>-1.498667800451389</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>250894</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>42</v>
-      </c>
-      <c r="D30" t="n">
-        <v>903.3061224489796</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>2025-05-08 11:58:04</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:40:04</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:40:04</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2025-05-12 11:43:23</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>44262</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>5</v>
-      </c>
-      <c r="M30" t="n">
-        <v>76</v>
-      </c>
-      <c r="N30" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>2025-05-05 00:00:00</t>
-        </is>
-      </c>
-      <c r="R30" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/sequenza.xlsx
+++ b/PS-VRP/Dati_output/sequenza.xlsx
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251547</v>
+        <v>251651</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>184.9154929577465</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>13129</v>
+        <v>46830</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,72 +558,70 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N2" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>250759</v>
+        <v>251742</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>118.2816901408451</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>8398</v>
+        <v>8226</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -632,17 +630,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -650,54 +648,54 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-1.406147540983796</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>250894</v>
+        <v>251840</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>623.4084507042254</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>44262</v>
+        <v>5714</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -706,36 +704,38 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
+        <v>39758</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>39758</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>-0.4885587431712963</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251742</v>
+        <v>251229</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -743,33 +743,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>134.8524590163935</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>8226</v>
+        <v>18739</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -778,17 +778,19 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="N5" t="n">
-        <v>39749</v>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -796,7 +798,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39749</v>
+        <v>39723</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -804,46 +806,46 @@
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251840</v>
+        <v>251225</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>93.67213114754098</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>5714</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -852,17 +854,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N6" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -870,54 +872,54 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.5131944444444444</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251229</v>
+        <v>251227</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>307.1967213114754</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>18739</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -926,19 +928,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N7" t="n">
+        <v>39746</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -946,20 +946,20 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39723</v>
+        <v>39746</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0</v>
+        <v>-2.523611111111111</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251225</v>
+        <v>251782</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -967,33 +967,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>12073</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1002,17 +1002,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
         <v>76</v>
       </c>
       <c r="N8" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1020,50 +1020,50 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-0.3201682316087963</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251227</v>
+        <v>251050</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1076,17 +1076,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M9" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1094,54 +1094,54 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>-1.442361111111111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251782</v>
+        <v>251054</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D10" t="n">
-        <v>170.0422535211268</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>12073</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1150,17 +1150,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="M10" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1168,54 +1168,54 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-1.466666666666667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251164</v>
+        <v>251081</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="D11" t="n">
-        <v>204.0816326530612</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>10000</v>
+        <v>3012</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1224,17 +1224,19 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
-      <c r="N11" t="n">
-        <v>39749</v>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1242,54 +1244,54 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39749</v>
+        <v>39750</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-16.58293231612268</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251456</v>
+        <v>251284</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>50</v>
+        <v>40.5</v>
       </c>
       <c r="D12" t="n">
-        <v>183.6530612244898</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>8999</v>
+        <v>16340</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1298,17 +1300,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
       <c r="N12" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1316,54 +1318,54 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-1.526104797974537</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251416</v>
+        <v>251547</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D13" t="n">
-        <v>229.0204081632653</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-09 11:41:45</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>11222</v>
+        <v>13129</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1376,66 +1378,68 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
+        <v>-1.443691314548611</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251651</v>
+        <v>250759</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>767.7049180327868</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>46830</v>
+        <v>8398</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1444,70 +1448,72 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>76</v>
       </c>
       <c r="N14" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
+        <v>-0.5466647104861111</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251455</v>
+        <v>250894</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" t="n">
-        <v>82.765625</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>5297</v>
+        <v>44262</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1516,38 +1522,36 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N15" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251391</v>
+        <v>251455</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1555,33 +1559,33 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D16" t="n">
-        <v>91.640625</v>
+        <v>82.765625</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>2025-05-07 07:00:00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-05-07 07:19:00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2025-05-07 07:19:00</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>2025-05-07 08:41:45</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2025-05-07 08:58:45</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>2025-05-07 08:58:45</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2025-05-07 10:30:24</t>
-        </is>
-      </c>
       <c r="I16" t="n">
-        <v>5865</v>
+        <v>5297</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1594,7 +1598,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
@@ -1612,16 +1616,16 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-0.3623372395833334</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251395</v>
+        <v>251391</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1632,30 +1636,30 @@
         <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>35.34375</v>
+        <v>91.640625</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>2025-05-07 08:41:45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-05-07 08:58:45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2025-05-07 08:58:45</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
           <t>2025-05-07 10:30:24</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2025-05-07 10:47:24</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>2025-05-07 10:47:24</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2025-05-07 11:22:45</t>
-        </is>
-      </c>
       <c r="I17" t="n">
-        <v>2262</v>
+        <v>5865</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1668,7 +1672,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
@@ -1690,12 +1694,12 @@
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-0.4377821180555556</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251371</v>
+        <v>251395</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1703,33 +1707,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>2025-05-07 10:30:24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-05-07 10:47:24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2025-05-07 10:47:24</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
           <t>2025-05-07 11:22:45</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2025-05-07 11:41:45</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>2025-05-07 11:41:45</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2025-05-07 11:41:45</t>
-        </is>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1742,15 +1746,13 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N18" t="n">
+        <v>39749</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1758,20 +1760,20 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39666</v>
+        <v>39749</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-0.4741319444444445</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251396</v>
+        <v>251371</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1782,30 +1784,30 @@
         <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>35.34375</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>2025-05-07 11:22:45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>2025-05-07 11:41:45</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2025-05-07 12:00:45</t>
-        </is>
-      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2262</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1818,13 +1820,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="N19" t="n">
-        <v>39749</v>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1832,20 +1836,20 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39749</v>
+        <v>39666</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-13.48732638888889</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251548</v>
+        <v>251396</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1856,30 +1860,30 @@
         <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>206.90625</v>
+        <v>35.34375</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>2025-05-07 11:41:45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-05-07 12:00:45</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2025-05-07 12:00:45</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t>2025-05-07 12:36:05</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2025-05-07 12:55:05</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>2025-05-07 12:55:05</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2025-05-08 08:22:00</t>
-        </is>
-      </c>
       <c r="I20" t="n">
-        <v>13242</v>
+        <v>2262</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1892,7 +1896,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
@@ -1910,16 +1914,16 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-0.5250651041666666</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>250923</v>
+        <v>251548</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1927,33 +1931,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D21" t="n">
-        <v>109.46875</v>
+        <v>206.90625</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>2025-05-07 12:36:05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-05-07 12:55:05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2025-05-07 12:55:05</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
           <t>2025-05-08 08:22:00</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2025-05-08 08:54:00</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>2025-05-08 08:54:00</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2025-05-08 10:43:28</t>
-        </is>
-      </c>
       <c r="I21" t="n">
-        <v>7006</v>
+        <v>13242</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1962,14 +1966,14 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N21" t="n">
         <v>39749</v>
@@ -1984,16 +1988,16 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-1.348611111111111</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251477</v>
+        <v>250923</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2001,33 +2005,33 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D22" t="n">
-        <v>468.734375</v>
+        <v>109.46875</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>2025-05-08 08:22:00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-05-08 08:54:00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2025-05-08 08:54:00</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
           <t>2025-05-08 10:43:28</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2025-05-08 11:02:28</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2025-05-08 11:02:28</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:51:12</t>
-        </is>
-      </c>
       <c r="I22" t="n">
-        <v>29999</v>
+        <v>7006</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2036,17 +2040,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M22" t="n">
         <v>76</v>
       </c>
       <c r="N22" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2054,75 +2058,73 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>-1.446853298611111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251706</v>
+        <v>251477</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D23" t="n">
-        <v>50.79365079365079</v>
+        <v>468.734375</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>3200</v>
+        <v>29999</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N23" t="n">
+        <v>39760</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2130,73 +2132,75 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>39764</v>
+        <v>39760</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>0</v>
+        <v>-2.452224392361111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251050</v>
+        <v>251706</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
+        <v>50.79365079365079</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:50:47</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>3200</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>foglio</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
         <v>0</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:00:00</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:37:00</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:37:00</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:37:00</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="M24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>38</v>
-      </c>
-      <c r="M24" t="n">
-        <v>70</v>
-      </c>
-      <c r="N24" t="n">
-        <v>39747</v>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2204,54 +2208,54 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>39747</v>
+        <v>39764</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251054</v>
+        <v>251164</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2260,17 +2264,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
       </c>
       <c r="N25" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2278,54 +2282,54 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-1.471584467118056</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251081</v>
+        <v>251456</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="D26" t="n">
-        <v>42.42253521126761</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>3012</v>
+        <v>8999</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2334,19 +2338,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
       </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+      <c r="N26" t="n">
+        <v>39746</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2354,54 +2356,54 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>39750</v>
+        <v>39746</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-3.300510204085648</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251284</v>
+        <v>251416</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="D27" t="n">
-        <v>297.0909090909091</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-09 07:52:44</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-09 07:52:44</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-09 11:41:45</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>16340</v>
+        <v>11222</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2410,33 +2412,31 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
       </c>
       <c r="N27" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/sequenza.xlsx
+++ b/PS-VRP/Dati_output/sequenza.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251651</v>
+        <v>251742</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>767.7049180327868</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>46830</v>
+        <v>8226</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,36 +558,41 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N2" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>0</v>
+        <v>-1.406147540983796</v>
+      </c>
+      <c r="S2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251742</v>
+        <v>251840</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -595,33 +600,33 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>134.8524590163935</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>8226</v>
+        <v>5714</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -634,13 +639,13 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -648,20 +653,23 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-0.4885587431712963</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251840</v>
+        <v>251229</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -672,30 +680,30 @@
         <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>93.67213114754098</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5714</v>
+        <v>18739</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -704,17 +712,19 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
-      <c r="N4" t="n">
-        <v>39758</v>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -722,54 +732,57 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39758</v>
+        <v>39723</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251229</v>
+        <v>251455</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>307.1967213114754</v>
+        <v>82.765625</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>18739</v>
+        <v>5297</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -778,19 +791,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+      <c r="N5" t="n">
+        <v>39749</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -798,54 +809,57 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39723</v>
+        <v>39749</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
+      </c>
+      <c r="S5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251225</v>
+        <v>251391</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>91.640625</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>5865</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -854,17 +868,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -872,54 +886,57 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-0.4377821180555556</v>
+      </c>
+      <c r="S6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251227</v>
+        <v>251395</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -928,17 +945,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -946,54 +963,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>-0.4741319444444445</v>
+      </c>
+      <c r="S7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251782</v>
+        <v>251371</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>170.0422535211268</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>12073</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1002,17 +1022,19 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>76</v>
-      </c>
-      <c r="N8" t="n">
-        <v>39754</v>
+        <v>70</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1020,54 +1042,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39754</v>
+        <v>39666</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-13.48732638888889</v>
+      </c>
+      <c r="S8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251050</v>
+        <v>251396</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1076,17 +1101,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1094,54 +1119,57 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-0.5250651041666666</v>
+      </c>
+      <c r="S9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251054</v>
+        <v>251548</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>206.90625</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>13242</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1150,17 +1178,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1168,54 +1196,57 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-1.348611111111111</v>
+      </c>
+      <c r="S10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251081</v>
+        <v>250923</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="D11" t="n">
-        <v>42.42253521126761</v>
+        <v>109.46875</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>3012</v>
+        <v>7006</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1224,19 +1255,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>70</v>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N11" t="n">
+        <v>39749</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1244,54 +1273,57 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39750</v>
+        <v>39749</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-1.446853298611111</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251284</v>
+        <v>251477</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>40.5</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>297.0909090909091</v>
+        <v>468.734375</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>16340</v>
+        <v>29999</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1300,17 +1332,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N12" t="n">
-        <v>39747</v>
+        <v>39760</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1318,54 +1350,57 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39747</v>
+        <v>39760</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-2.452224392361111</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251547</v>
+        <v>251050</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>34</v>
+        <v>217</v>
       </c>
       <c r="D13" t="n">
-        <v>184.9154929577465</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>13129</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1374,17 +1409,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1392,54 +1427,57 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-1.442361111111111</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>250759</v>
+        <v>251054</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D14" t="n">
-        <v>118.2816901408451</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>8398</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1448,14 +1486,14 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M14" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N14" t="n">
         <v>39747</v>
@@ -1470,50 +1508,53 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-1.466666666666667</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>250894</v>
+        <v>251081</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="D15" t="n">
-        <v>623.4084507042254</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>44262</v>
+        <v>3012</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1522,70 +1563,77 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M15" t="n">
-        <v>76</v>
-      </c>
-      <c r="N15" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>39750</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0</v>
+        <v>-16.58293231612268</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251455</v>
+        <v>251651</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D16" t="n">
-        <v>82.765625</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>5297</v>
+        <v>46830</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1594,72 +1642,73 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
+        <v>5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>76</v>
+      </c>
+      <c r="N16" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>2025-05-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="R16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
         <v>4</v>
-      </c>
-      <c r="M16" t="n">
-        <v>70</v>
-      </c>
-      <c r="N16" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P16" t="n">
-        <v>39749</v>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>2025-04-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="R16" s="1" t="n">
-        <v>-0.3623372395833334</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251391</v>
+        <v>251284</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>40.5</v>
       </c>
       <c r="D17" t="n">
-        <v>91.640625</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>5865</v>
+        <v>16340</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1668,17 +1717,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
       </c>
       <c r="N17" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1686,73 +1735,78 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-1.526104797974537</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251395</v>
+        <v>251706</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>35.34375</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2262</v>
+        <v>3200</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
-      </c>
-      <c r="N18" t="n">
-        <v>39749</v>
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1760,54 +1814,57 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39749</v>
+        <v>39764</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251371</v>
+        <v>251547</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>13129</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1825,10 +1882,8 @@
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N19" t="n">
+        <v>39749</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1836,54 +1891,57 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39666</v>
+        <v>39749</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-1.443691314548611</v>
+      </c>
+      <c r="S19" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251396</v>
+        <v>250759</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>35.34375</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2262</v>
+        <v>8398</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1892,17 +1950,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N20" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1910,54 +1968,57 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-0.5466647104861111</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251548</v>
+        <v>250894</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>206.90625</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>13242</v>
+        <v>44262</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1966,72 +2027,73 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
+        <v>5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>76</v>
+      </c>
+      <c r="N21" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>2025-05-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="R21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
         <v>4</v>
-      </c>
-      <c r="M21" t="n">
-        <v>70</v>
-      </c>
-      <c r="N21" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P21" t="n">
-        <v>39749</v>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>2025-05-06 00:00:00</t>
-        </is>
-      </c>
-      <c r="R21" s="1" t="n">
-        <v>-1.348611111111111</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>250923</v>
+        <v>251164</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D22" t="n">
-        <v>109.46875</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>7006</v>
+        <v>10000</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2040,14 +2102,14 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M22" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N22" t="n">
         <v>39749</v>
@@ -2062,50 +2124,53 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-1.471584467118056</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251477</v>
+        <v>251456</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D23" t="n">
-        <v>468.734375</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>29999</v>
+        <v>8999</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2114,17 +2179,17 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
         <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N23" t="n">
-        <v>39760</v>
+        <v>39746</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2132,130 +2197,132 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>39760</v>
+        <v>39746</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>-3.300510204085648</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251706</v>
+        <v>251416</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C24" t="n">
+        <v>40</v>
+      </c>
+      <c r="D24" t="n">
+        <v>229.0204081632653</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:12:44</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:52:44</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:52:44</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:41:45</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>11222</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>2</v>
+      </c>
+      <c r="M24" t="n">
+        <v>70</v>
+      </c>
+      <c r="N24" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O24" t="n">
         <v>0</v>
       </c>
-      <c r="D24" t="n">
-        <v>50.79365079365079</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:50:47</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>3200</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>foglio</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
+      <c r="P24" t="n">
         <v>0</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P24" t="n">
-        <v>39764</v>
-      </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251164</v>
+        <v>251225</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D25" t="n">
-        <v>204.0816326530612</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2264,17 +2331,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N25" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2282,54 +2349,57 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-0.5131944444444444</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251456</v>
+        <v>251227</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D26" t="n">
-        <v>183.6530612244898</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>8999</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2338,14 +2408,14 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N26" t="n">
         <v>39746</v>
@@ -2360,50 +2430,53 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-2.523611111111111</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251416</v>
+        <v>251782</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D27" t="n">
-        <v>229.0204081632653</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 11:41:45</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>11222</v>
+        <v>12073</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2412,31 +2485,36 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N27" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
+        <v>39754</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0</v>
+        <v>-0.3201682316087963</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/sequenza.xlsx
+++ b/PS-VRP/Dati_output/sequenza.xlsx
@@ -748,41 +748,41 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251455</v>
+        <v>251164</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D5" t="n">
-        <v>82.765625</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>5297</v>
+        <v>10000</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
@@ -813,53 +813,53 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251391</v>
+        <v>251456</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>91.640625</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>5865</v>
+        <v>8999</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -872,13 +872,13 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -886,57 +886,57 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251395</v>
+        <v>251416</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D7" t="n">
-        <v>35.34375</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-09 07:52:44</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-09 07:52:44</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-09 11:41:45</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2262</v>
+        <v>11222</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -949,21 +949,19 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -971,45 +969,45 @@
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251371</v>
+        <v>251050</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>217</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1022,19 +1020,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N8" t="n">
+        <v>39747</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1042,57 +1038,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39666</v>
+        <v>39747</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251396</v>
+        <v>251054</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D9" t="n">
-        <v>35.34375</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>2262</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1101,17 +1097,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1119,57 +1115,57 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251548</v>
+        <v>251081</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="D10" t="n">
-        <v>206.90625</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>13242</v>
+        <v>3012</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1178,17 +1174,19 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
-      <c r="N10" t="n">
-        <v>39749</v>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1196,57 +1194,57 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39749</v>
+        <v>39750</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>250923</v>
+        <v>251225</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>109.46875</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>7006</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1259,13 +1257,13 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>76</v>
       </c>
       <c r="N11" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1273,57 +1271,57 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251477</v>
+        <v>251227</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>468.734375</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>29999</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1332,17 +1330,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>76</v>
       </c>
       <c r="N12" t="n">
-        <v>39760</v>
+        <v>39746</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1350,15 +1348,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39760</v>
+        <v>39746</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1366,41 +1364,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251050</v>
+        <v>251782</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>217</v>
+        <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>12073</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1409,17 +1407,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N13" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1427,57 +1425,57 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251054</v>
+        <v>251284</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>35</v>
+        <v>40.5</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>16340</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1486,11 +1484,11 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
@@ -1508,53 +1506,53 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251081</v>
+        <v>251651</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="D15" t="n">
-        <v>42.42253521126761</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>3012</v>
+        <v>46830</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1563,77 +1561,73 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>70</v>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N15" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251651</v>
+        <v>251547</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D16" t="n">
-        <v>767.7049180327868</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>46830</v>
+        <v>13129</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1642,73 +1636,75 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251284</v>
+        <v>250759</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>40.5</v>
+        <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>297.0909090909091</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>16340</v>
+        <v>8398</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1717,14 +1713,14 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N17" t="n">
         <v>39747</v>
@@ -1739,11 +1735,11 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -1751,139 +1747,137 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251706</v>
+        <v>250894</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C18" t="n">
+        <v>17</v>
+      </c>
+      <c r="D18" t="n">
+        <v>623.4084507042254</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2025-05-08 13:07:11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-05-08 13:24:11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2025-05-08 13:24:11</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:47:36</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>44262</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>76</v>
+      </c>
+      <c r="N18" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O18" t="n">
         <v>0</v>
       </c>
-      <c r="D18" t="n">
-        <v>50.79365079365079</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:50:47</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>3200</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>foglio</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
+      <c r="P18" t="n">
         <v>0</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P18" t="n">
-        <v>39764</v>
-      </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251547</v>
+        <v>251706</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>184.9154929577465</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>13129</v>
+        <v>3200</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
-      </c>
-      <c r="N19" t="n">
-        <v>39749</v>
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1891,15 +1885,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39749</v>
+        <v>39764</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>7</v>
@@ -1907,41 +1901,41 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>250759</v>
+        <v>251455</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>118.2816901408451</v>
+        <v>82.765625</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>8398</v>
+        <v>5297</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1950,17 +1944,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
         <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N20" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1968,57 +1962,57 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>250894</v>
+        <v>251391</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>623.4084507042254</v>
+        <v>91.640625</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>44262</v>
+        <v>5865</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2027,73 +2021,75 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
         <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N21" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251164</v>
+        <v>251395</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D22" t="n">
-        <v>204.0816326530612</v>
+        <v>35.34375</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>10000</v>
+        <v>2262</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2124,53 +2120,53 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251456</v>
+        <v>251371</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D23" t="n">
-        <v>183.6530612244898</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>8999</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2183,13 +2179,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
       </c>
-      <c r="N23" t="n">
-        <v>39746</v>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2197,57 +2195,57 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>39746</v>
+        <v>39666</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251416</v>
+        <v>251396</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D24" t="n">
-        <v>229.0204081632653</v>
+        <v>35.34375</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-09 11:41:45</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>11222</v>
+        <v>2262</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2260,69 +2258,71 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
       </c>
       <c r="N24" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>0</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S24" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251225</v>
+        <v>251548</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>19</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>206.90625</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>13242</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2331,17 +2331,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
         <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N25" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2349,57 +2349,57 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251227</v>
+        <v>250923</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>109.46875</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>7006</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2412,13 +2412,13 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M26" t="n">
         <v>76</v>
       </c>
       <c r="N26" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2426,57 +2426,57 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251782</v>
+        <v>251477</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D27" t="n">
-        <v>170.0422535211268</v>
+        <v>468.734375</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>12073</v>
+        <v>29999</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>76</v>
       </c>
       <c r="N27" t="n">
-        <v>39754</v>
+        <v>39760</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2503,15 +2503,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>39754</v>
+        <v>39760</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S27" t="n">
         <v>1</v>

--- a/PS-VRP/Dati_output/sequenza.xlsx
+++ b/PS-VRP/Dati_output/sequenza.xlsx
@@ -515,18 +515,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251742</v>
+        <v>251547</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>134.8524590163935</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -535,21 +535,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>8226</v>
+        <v>13129</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -580,11 +580,11 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S2" t="n">
         <v>7</v>
@@ -592,41 +592,41 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251840</v>
+        <v>250759</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>93.67213114754098</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>5714</v>
+        <v>8398</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -635,17 +635,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N3" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -653,15 +653,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -669,41 +669,41 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251229</v>
+        <v>250894</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>307.1967213114754</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>18739</v>
+        <v>44262</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -712,54 +712,50 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N4" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251164</v>
+        <v>251742</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>204.0816326530612</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -768,21 +764,21 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>10000</v>
+        <v>8226</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -795,7 +791,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
@@ -813,53 +809,53 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251456</v>
+        <v>251840</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>183.6530612244898</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>8999</v>
+        <v>5714</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -872,13 +868,13 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>39746</v>
+        <v>39758</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -886,7 +882,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39746</v>
+        <v>39758</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -894,7 +890,7 @@
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -902,41 +898,41 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251416</v>
+        <v>251229</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>229.0204081632653</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-09 11:41:45</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>11222</v>
+        <v>18739</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -945,73 +941,77 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
-      <c r="N7" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251050</v>
+        <v>251164</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>217</v>
+        <v>55</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1020,17 +1020,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
       <c r="N8" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1038,57 +1038,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251054</v>
+        <v>251456</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>8999</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1097,17 +1097,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1115,57 +1115,57 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251081</v>
+        <v>251416</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="D10" t="n">
-        <v>42.42253521126761</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-09 07:52:44</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-09 07:52:44</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-09 11:41:45</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>3012</v>
+        <v>11222</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1174,27 +1174,23 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N10" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1202,7 +1198,7 @@
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>2</v>
@@ -1210,37 +1206,37 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251225</v>
+        <v>251050</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>217</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1253,14 +1249,14 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M11" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N11" t="n">
         <v>39747</v>
@@ -1275,49 +1271,49 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251227</v>
+        <v>251054</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1330,17 +1326,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M12" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N12" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1348,57 +1344,57 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251782</v>
+        <v>251081</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="D13" t="n">
-        <v>170.0422535211268</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>12073</v>
+        <v>3012</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1407,17 +1403,19 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="M13" t="n">
-        <v>76</v>
-      </c>
-      <c r="N13" t="n">
-        <v>39754</v>
+        <v>70</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1425,34 +1423,34 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39754</v>
+        <v>39750</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251284</v>
+        <v>251651</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>40.5</v>
+        <v>29</v>
       </c>
       <c r="D14" t="n">
-        <v>297.0909090909091</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1461,21 +1459,21 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>16340</v>
+        <v>46830</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1484,25 +1482,23 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N14" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1510,49 +1506,49 @@
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251651</v>
+        <v>251225</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>767.7049180327868</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>46830</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1561,73 +1557,75 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>76</v>
       </c>
       <c r="N15" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251547</v>
+        <v>251227</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>184.9154929577465</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>13129</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1636,17 +1634,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
         <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N16" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1654,57 +1652,57 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>250759</v>
+        <v>251782</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>118.2816901408451</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>8398</v>
+        <v>12073</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1713,17 +1711,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
         <v>76</v>
       </c>
       <c r="N17" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1731,15 +1729,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -1747,137 +1745,139 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>250894</v>
+        <v>251706</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>623.4084507042254</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>44262</v>
+        <v>3200</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>76</v>
-      </c>
-      <c r="N18" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O18" t="n">
         <v>0</v>
       </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251706</v>
+        <v>251455</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>50.79365079365079</v>
+        <v>82.765625</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>3200</v>
+        <v>5297</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N19" t="n">
+        <v>39749</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1885,15 +1885,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39764</v>
+        <v>39749</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S19" t="n">
         <v>7</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251455</v>
+        <v>251391</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1909,33 +1909,33 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>82.765625</v>
+        <v>91.640625</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>5297</v>
+        <v>5865</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
@@ -1966,11 +1966,11 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S20" t="n">
         <v>7</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251391</v>
+        <v>251395</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1989,30 +1989,30 @@
         <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>91.640625</v>
+        <v>35.34375</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>5865</v>
+        <v>2262</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S21" t="n">
         <v>7</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251395</v>
+        <v>251371</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2063,33 +2063,33 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D22" t="n">
-        <v>35.34375</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2262</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2102,13 +2102,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
       </c>
-      <c r="N22" t="n">
-        <v>39749</v>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2116,15 +2118,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39749</v>
+        <v>39666</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S22" t="n">
         <v>7</v>
@@ -2132,7 +2134,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251371</v>
+        <v>251396</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2143,30 +2145,30 @@
         <v>19</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2179,15 +2181,13 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N23" t="n">
+        <v>39749</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2195,15 +2195,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>39666</v>
+        <v>39749</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S23" t="n">
         <v>7</v>
@@ -2211,7 +2211,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251396</v>
+        <v>251548</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2222,30 +2222,30 @@
         <v>19</v>
       </c>
       <c r="D24" t="n">
-        <v>35.34375</v>
+        <v>206.90625</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>2262</v>
+        <v>13242</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
@@ -2276,11 +2276,11 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S24" t="n">
         <v>7</v>
@@ -2288,7 +2288,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251548</v>
+        <v>250923</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2296,33 +2296,33 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D25" t="n">
-        <v>206.90625</v>
+        <v>109.46875</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>13242</v>
+        <v>7006</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2331,14 +2331,14 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N25" t="n">
         <v>39749</v>
@@ -2353,19 +2353,19 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="S25" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>250923</v>
+        <v>251477</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2373,33 +2373,33 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D26" t="n">
-        <v>109.46875</v>
+        <v>468.734375</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>7006</v>
+        <v>29999</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2408,17 +2408,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
         <v>76</v>
       </c>
       <c r="N26" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2426,57 +2426,57 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251477</v>
+        <v>251284</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>19</v>
+        <v>40.5</v>
       </c>
       <c r="D27" t="n">
-        <v>468.734375</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>29999</v>
+        <v>16340</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2485,17 +2485,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M27" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N27" t="n">
-        <v>39760</v>
+        <v>39747</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2503,15 +2503,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>39760</v>
+        <v>39747</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S27" t="n">
         <v>1</v>

--- a/PS-VRP/Dati_output/sequenza.xlsx
+++ b/PS-VRP/Dati_output/sequenza.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,18 +515,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251547</v>
+        <v>251742</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>184.9154929577465</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -535,21 +535,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>13129</v>
+        <v>8226</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -580,11 +580,11 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S2" t="n">
         <v>7</v>
@@ -592,41 +592,41 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>250759</v>
+        <v>251840</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>118.2816901408451</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>8398</v>
+        <v>5714</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -635,17 +635,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -653,15 +653,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -669,41 +669,41 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>250894</v>
+        <v>251229</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>623.4084507042254</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>44262</v>
+        <v>18739</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -712,50 +712,54 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
-      </c>
-      <c r="N4" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251742</v>
+        <v>251547</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>134.8524590163935</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -764,21 +768,21 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>8226</v>
+        <v>13129</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -809,11 +813,11 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S5" t="n">
         <v>7</v>
@@ -821,41 +825,41 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251840</v>
+        <v>250759</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>93.67213114754098</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>5714</v>
+        <v>8398</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -864,17 +868,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N6" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -882,15 +886,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -898,41 +902,41 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251229</v>
+        <v>250894</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>307.1967213114754</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>18739</v>
+        <v>44262</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -941,77 +945,73 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N7" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251164</v>
+        <v>251050</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>55</v>
+        <v>217</v>
       </c>
       <c r="D8" t="n">
-        <v>204.0816326530612</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1020,17 +1020,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
       <c r="N8" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1038,57 +1038,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251456</v>
+        <v>251054</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D9" t="n">
-        <v>183.6530612244898</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>8999</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1097,17 +1097,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1115,57 +1115,57 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251416</v>
+        <v>251081</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="D10" t="n">
-        <v>229.0204081632653</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:41:45</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>11222</v>
+        <v>3012</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1174,23 +1174,27 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
-      <c r="N10" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>39750</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1198,7 +1202,7 @@
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S10" t="n">
         <v>2</v>
@@ -1206,114 +1210,112 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251050</v>
+        <v>251651</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="D11" t="n">
+        <v>767.7049180327868</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:00:00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:29:00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:29:00</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-05-12 12:16:42</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>46830</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>76</v>
+      </c>
+      <c r="N11" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O11" t="n">
         <v>0</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:00:00</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:37:00</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:37:00</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:37:00</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="P11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>38</v>
-      </c>
-      <c r="M11" t="n">
-        <v>70</v>
-      </c>
-      <c r="N11" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P11" t="n">
-        <v>39747</v>
-      </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251054</v>
+        <v>251227</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1326,17 +1328,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N12" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1344,57 +1346,60 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-1.466666666666667</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2</v>
+        <v>-2.523611111111111</v>
+      </c>
+      <c r="S12" s="1" t="n">
+        <v>-2.513194444444444</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251081</v>
+        <v>251225</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="D13" t="n">
-        <v>42.42253521126761</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>3012</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1403,19 +1408,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N13" t="n">
+        <v>39747</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1423,57 +1426,60 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39750</v>
+        <v>39747</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-16.58293231612268</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2</v>
+        <v>-0.5236111111111111</v>
+      </c>
+      <c r="S13" s="1" t="n">
+        <v>-0.5236111111111111</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251651</v>
+        <v>251782</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D14" t="n">
-        <v>767.7049180327868</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>46830</v>
+        <v>12073</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1482,92 +1488,99 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
         <v>76</v>
       </c>
       <c r="N14" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
+        <v>39754</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>4</v>
+        <v>-0.3201682316087963</v>
+      </c>
+      <c r="S14" s="1" t="n">
+        <v>-0.3201682316087963</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251225</v>
+        <v>251706</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
+        <v>50.79365079365079</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:50:47</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>3200</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>foglio</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
         <v>0</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:00:00</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:19:00</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:19:00</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:19:00</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="M15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>4</v>
-      </c>
-      <c r="M15" t="n">
-        <v>76</v>
-      </c>
-      <c r="N15" t="n">
-        <v>39747</v>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1575,57 +1588,57 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39747</v>
+        <v>39764</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251227</v>
+        <v>251164</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1634,75 +1647,75 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
+        <v>6</v>
+      </c>
+      <c r="M16" t="n">
+        <v>70</v>
+      </c>
+      <c r="N16" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>39749</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>2025-04-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="R16" s="1" t="n">
+        <v>-1.471584467118056</v>
+      </c>
+      <c r="S16" t="n">
         <v>4</v>
-      </c>
-      <c r="M16" t="n">
-        <v>76</v>
-      </c>
-      <c r="N16" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P16" t="n">
-        <v>39746</v>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>2025-05-05 00:00:00</t>
-        </is>
-      </c>
-      <c r="R16" s="1" t="n">
-        <v>-2.523611111111111</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251782</v>
+        <v>251456</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D17" t="n">
-        <v>170.0422535211268</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>12073</v>
+        <v>8999</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1711,17 +1724,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
         <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N17" t="n">
-        <v>39754</v>
+        <v>39746</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1729,15 +1742,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39754</v>
+        <v>39746</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -1745,81 +1758,77 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251706</v>
+        <v>251416</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C18" t="n">
+        <v>40</v>
+      </c>
+      <c r="D18" t="n">
+        <v>229.0204081632653</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:12:44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:52:44</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:52:44</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:41:45</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>11222</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>70</v>
+      </c>
+      <c r="N18" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O18" t="n">
         <v>0</v>
       </c>
-      <c r="D18" t="n">
-        <v>50.79365079365079</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:50:47</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>3200</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>foglio</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
+      <c r="P18" t="n">
         <v>0</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P18" t="n">
-        <v>39764</v>
-      </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">

--- a/PS-VRP/Dati_output/sequenza.xlsx
+++ b/PS-VRP/Dati_output/sequenza.xlsx
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251742</v>
+        <v>251229</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>134.8524590163935</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -535,21 +535,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 12:47:11</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>8226</v>
+        <v>18739</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,17 +558,19 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
         <v>70</v>
       </c>
-      <c r="N2" t="n">
-        <v>39749</v>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -576,7 +578,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39749</v>
+        <v>39723</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -584,10 +586,13 @@
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-1.406147540983796</v>
-      </c>
-      <c r="S2" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -607,22 +612,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 12:47:11</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 13:12:11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 13:12:11</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 14:45:52</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -661,15 +666,18 @@
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.4885587431712963</v>
-      </c>
-      <c r="S3" t="n">
+        <v>-0.6151867031018519</v>
+      </c>
+      <c r="S3" s="1" t="n">
+        <v>-0.6151867031018519</v>
+      </c>
+      <c r="T3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251229</v>
+        <v>251455</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -680,30 +688,30 @@
         <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>307.1967213114754</v>
+        <v>86.8360655737705</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 14:45:52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-09 07:10:52</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-09 07:10:52</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-09 08:37:42</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>18739</v>
+        <v>5297</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -712,19 +720,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+      <c r="N4" t="n">
+        <v>39749</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -732,18 +738,21 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39723</v>
+        <v>39749</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1</v>
+        <v>-2.359517304189815</v>
+      </c>
+      <c r="S4" s="1" t="n">
+        <v>-2.359517304189815</v>
+      </c>
+      <c r="T4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -752,33 +761,33 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>184.9154929577465</v>
+        <v>215.2295081967213</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 08:37:42</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 08:57:42</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 08:57:42</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-09 12:32:56</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -817,49 +826,52 @@
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-1.443691314548611</v>
-      </c>
-      <c r="S5" t="n">
+        <v>-2.522871129328704</v>
+      </c>
+      <c r="S5" s="1" t="n">
+        <v>-2.522871129328704</v>
+      </c>
+      <c r="T5" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>250759</v>
+        <v>251371</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D6" t="n">
-        <v>118.2816901408451</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-09 07:47:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-09 07:47:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-09 07:47:00</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>8398</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,17 +880,19 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
-      </c>
-      <c r="N6" t="n">
-        <v>39747</v>
+        <v>70</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -886,57 +900,60 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39747</v>
+        <v>39666</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.5466647104861111</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1</v>
+        <v>-13.48732638888889</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>-15.32430555555556</v>
+      </c>
+      <c r="T6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>250894</v>
+        <v>251050</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>205</v>
       </c>
       <c r="D7" t="n">
-        <v>623.4084507042254</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-09 07:47:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>44262</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -945,39 +962,44 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4</v>
+        <v>-1.442361111111111</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <v>-1.466666666666667</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251050</v>
+        <v>251054</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -985,29 +1007,29 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>217</v>
+        <v>35</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 11:47:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 11:47:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 11:47:00</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1046,15 +1068,18 @@
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.442361111111111</v>
-      </c>
-      <c r="S8" t="n">
+        <v>-1.466666666666667</v>
+      </c>
+      <c r="S8" s="1" t="n">
+        <v>-1.490972222222222</v>
+      </c>
+      <c r="T8" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251054</v>
+        <v>251081</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1062,33 +1087,33 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 11:47:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 13:52:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 13:52:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 14:34:25</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>3012</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1101,13 +1126,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="N9" t="n">
-        <v>39747</v>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1115,57 +1142,60 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39747</v>
+        <v>39750</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-1.466666666666667</v>
-      </c>
-      <c r="S9" t="n">
+        <v>-16.58293231612268</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>-16.60723787167824</v>
+      </c>
+      <c r="T9" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251081</v>
+        <v>251782</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>42.42253521126761</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-09 07:07:02</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>3012</v>
+        <v>12073</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1174,19 +1204,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>70</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N10" t="n">
+        <v>39754</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1194,34 +1222,37 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39750</v>
+        <v>39754</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-16.58293231612268</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2</v>
+        <v>-0.3201682316087963</v>
+      </c>
+      <c r="S10" s="1" t="n">
+        <v>-0.2965571204976852</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251651</v>
+        <v>251284</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>29</v>
+        <v>40.5</v>
       </c>
       <c r="D11" t="n">
-        <v>767.7049180327868</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1230,21 +1261,21 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>46830</v>
+        <v>16340</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1253,23 +1284,25 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1277,49 +1310,52 @@
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4</v>
+        <v>-1.526104797974537</v>
+      </c>
+      <c r="S11" s="1" t="n">
+        <v>-1.526104797974537</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251227</v>
+        <v>251651</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>46830</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1328,78 +1364,76 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>76</v>
       </c>
       <c r="N12" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>0</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-2.513194444444444</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251225</v>
+        <v>251164</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>140.8450704225352</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 07:38:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 07:38:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 09:58:50</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1408,78 +1442,78 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
+        <v>6</v>
+      </c>
+      <c r="M13" t="n">
+        <v>70</v>
+      </c>
+      <c r="N13" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>39749</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>2025-04-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="R13" s="1" t="n">
+        <v>-1.471584467118056</v>
+      </c>
+      <c r="S13" s="1" t="n">
+        <v>-1.415864632233796</v>
+      </c>
+      <c r="T13" t="n">
         <v>4</v>
-      </c>
-      <c r="M13" t="n">
-        <v>76</v>
-      </c>
-      <c r="N13" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P13" t="n">
-        <v>39747</v>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>2025-04-30 00:00:00</t>
-        </is>
-      </c>
-      <c r="R13" s="1" t="n">
-        <v>-0.5236111111111111</v>
-      </c>
-      <c r="S13" s="1" t="n">
-        <v>-0.5236111111111111</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251782</v>
+        <v>250759</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D14" t="n">
-        <v>170.0422535211268</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 09:58:50</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-08 10:32:50</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-08 10:32:50</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-08 12:31:07</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>12073</v>
+        <v>8398</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1488,17 +1522,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>76</v>
       </c>
       <c r="N14" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1506,18 +1540,18 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-0.5216158059490741</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-0.5216158059490741</v>
       </c>
       <c r="T14" t="n">
         <v>1</v>
@@ -1525,62 +1559,60 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251706</v>
+        <v>251225</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D15" t="n">
-        <v>50.79365079365079</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 12:31:07</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 12:46:07</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 12:46:07</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-08 12:46:07</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N15" t="n">
+        <v>39747</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1588,57 +1620,60 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39764</v>
+        <v>39747</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>7</v>
+        <v>-0.5320324726157407</v>
+      </c>
+      <c r="S15" s="1" t="n">
+        <v>-0.5320324726157407</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251164</v>
+        <v>250894</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>204.0816326530612</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 12:46:07</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-08 13:03:07</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-08 13:03:07</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-12 07:26:32</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>10000</v>
+        <v>44262</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1647,35 +1682,36 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N16" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-1.471584467118056</v>
-      </c>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1689,29 +1725,29 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D17" t="n">
         <v>183.6530612244898</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-08 10:43:39</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1752,47 +1788,50 @@
       <c r="R17" s="1" t="n">
         <v>-3.300510204085648</v>
       </c>
-      <c r="S17" t="n">
+      <c r="S17" s="1" t="n">
+        <v>-2.446981292511574</v>
+      </c>
+      <c r="T17" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251416</v>
+        <v>251742</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>229.0204081632653</v>
+        <v>128.53125</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-09 11:41:45</t>
+          <t>2025-05-07 09:27:31</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>11222</v>
+        <v>8226</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1805,35 +1844,40 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
       <c r="N18" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2</v>
+        <v>-1.406147540983796</v>
+      </c>
+      <c r="S18" s="1" t="n">
+        <v>-0.3941189236111111</v>
+      </c>
+      <c r="T18" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251455</v>
+        <v>251391</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1841,33 +1885,33 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" t="n">
-        <v>82.765625</v>
+        <v>91.640625</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-07 09:27:31</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-07 09:44:31</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-07 09:44:31</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-07 11:16:10</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>5297</v>
+        <v>5865</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1880,7 +1924,7 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
@@ -1898,19 +1942,22 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.3623372395833334</v>
-      </c>
-      <c r="S19" t="n">
+        <v>-0.4695638020833333</v>
+      </c>
+      <c r="S19" s="1" t="n">
+        <v>-0.4695638020833333</v>
+      </c>
+      <c r="T19" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251391</v>
+        <v>251227</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1918,33 +1965,33 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D20" t="n">
-        <v>91.640625</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-07 11:16:10</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-07 11:48:10</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-07 11:48:10</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-07 11:48:10</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>5865</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1953,17 +2000,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N20" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1971,18 +2018,21 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.4377821180555556</v>
-      </c>
-      <c r="S20" t="n">
-        <v>7</v>
+        <v>-1.491786024305556</v>
+      </c>
+      <c r="S20" s="1" t="n">
+        <v>-1.491786024305556</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1995,29 +2045,29 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D21" t="n">
         <v>35.34375</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-07 11:48:10</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-07 12:22:10</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-07 12:22:10</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-07 12:57:30</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -2056,15 +2106,18 @@
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.4741319444444445</v>
-      </c>
-      <c r="S21" t="n">
+        <v>-0.53994140625</v>
+      </c>
+      <c r="S21" s="1" t="n">
+        <v>-0.53994140625</v>
+      </c>
+      <c r="T21" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251371</v>
+        <v>251396</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2072,33 +2125,33 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-07 12:57:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-07 13:12:30</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-07 13:12:30</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-07 13:47:51</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2111,15 +2164,13 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N22" t="n">
+        <v>39749</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2127,23 +2178,26 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39666</v>
+        <v>39749</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-13.48732638888889</v>
-      </c>
-      <c r="S22" t="n">
+        <v>-0.57490234375</v>
+      </c>
+      <c r="S22" s="1" t="n">
+        <v>-0.57490234375</v>
+      </c>
+      <c r="T22" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251396</v>
+        <v>251548</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2154,30 +2208,30 @@
         <v>19</v>
       </c>
       <c r="D23" t="n">
-        <v>35.34375</v>
+        <v>206.90625</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-07 13:47:51</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-07 14:06:51</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-07 14:06:51</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-08 09:33:45</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2262</v>
+        <v>13242</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2190,7 +2244,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
@@ -2208,19 +2262,22 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-0.5250651041666666</v>
-      </c>
-      <c r="S23" t="n">
+        <v>-1.398448350694445</v>
+      </c>
+      <c r="S23" s="1" t="n">
+        <v>-1.398448350694445</v>
+      </c>
+      <c r="T23" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251548</v>
+        <v>250923</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2228,33 +2285,33 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D24" t="n">
-        <v>206.90625</v>
+        <v>109.46875</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-08 09:33:45</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-08 10:05:45</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-08 10:05:45</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-08 11:55:14</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>13242</v>
+        <v>7006</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2263,14 +2320,14 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N24" t="n">
         <v>39749</v>
@@ -2285,19 +2342,22 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-1.348611111111111</v>
-      </c>
-      <c r="S24" t="n">
-        <v>7</v>
+        <v>-1.496690538194444</v>
+      </c>
+      <c r="S24" s="1" t="n">
+        <v>-1.496690538194444</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>250923</v>
+        <v>251477</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2305,33 +2365,33 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D25" t="n">
-        <v>109.46875</v>
+        <v>468.734375</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-08 11:55:14</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-08 12:14:14</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-08 12:14:14</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-09 12:02:58</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>7006</v>
+        <v>29999</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2340,17 +2400,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
         <v>76</v>
       </c>
       <c r="N25" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2358,23 +2418,26 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-1.446853298611111</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2</v>
+        <v>-2.502061631944445</v>
+      </c>
+      <c r="S25" s="1" t="n">
+        <v>-2.502061631944445</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251477</v>
+        <v>251416</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2382,33 +2445,33 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D26" t="n">
-        <v>468.734375</v>
+        <v>175.34375</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-09 12:02:58</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-09 12:34:58</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-09 12:34:58</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-12 07:30:18</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>29999</v>
+        <v>11222</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2417,113 +2480,119 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N26" t="n">
-        <v>39760</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>39760</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-2.452224392361111</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251284</v>
+        <v>251706</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>40.5</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>297.0909090909091</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>16340</v>
+        <v>3200</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>39764</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>2025-05-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="R27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
         <v>7</v>
-      </c>
-      <c r="M27" t="n">
-        <v>70</v>
-      </c>
-      <c r="N27" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P27" t="n">
-        <v>39747</v>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>2025-05-12 00:00:00</t>
-        </is>
-      </c>
-      <c r="R27" s="1" t="n">
-        <v>-1.526104797974537</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/sequenza.xlsx
+++ b/PS-VRP/Dati_output/sequenza.xlsx
@@ -515,18 +515,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251229</v>
+        <v>251455</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>307.1967213114754</v>
+        <v>74.6056338028169</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -535,21 +535,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 12:47:11</t>
+          <t>2025-05-08 08:48:36</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>18739</v>
+        <v>5297</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,19 +558,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>70</v>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+      <c r="N2" t="n">
+        <v>39749</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -578,60 +576,60 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39723</v>
+        <v>39749</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>0</v>
+        <v>-1.367087245694445</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251840</v>
+        <v>251547</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>93.67213114754098</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 12:47:11</t>
+          <t>2025-05-08 08:48:36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 13:12:11</t>
+          <t>2025-05-08 09:03:36</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 13:12:11</t>
+          <t>2025-05-08 09:03:36</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 14:45:52</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>5714</v>
+        <v>13129</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -644,13 +642,13 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39758</v>
+        <v>39749</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -658,60 +656,60 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39758</v>
+        <v>39749</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.6151867031018519</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-0.6151867031018519</v>
+        <v>-1.505917449143519</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251455</v>
+        <v>251225</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>86.8360655737705</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 14:45:52</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-09 07:10:52</t>
+          <t>2025-05-08 12:38:31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-09 07:10:52</t>
+          <t>2025-05-08 12:38:31</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-09 08:37:42</t>
+          <t>2025-05-08 12:38:31</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5297</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -720,17 +718,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N4" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -738,60 +736,60 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-2.359517304189815</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-2.359517304189815</v>
+        <v>-0.5267507824768519</v>
       </c>
       <c r="T4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251547</v>
+        <v>250759</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>215.2295081967213</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-09 08:37:42</t>
+          <t>2025-05-08 12:38:31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-09 08:57:42</t>
+          <t>2025-05-08 12:53:31</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-09 08:57:42</t>
+          <t>2025-05-08 12:53:31</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-09 12:32:56</t>
+          <t>2025-05-08 14:51:48</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>13129</v>
+        <v>8398</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -800,17 +798,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L5" t="n">
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N5" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -818,60 +816,60 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-2.522871129328704</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-2.522871129328704</v>
+        <v>-0.6193075117361111</v>
       </c>
       <c r="T5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251371</v>
+        <v>250894</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 14:51:48</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:00</t>
+          <t>2025-05-09 07:08:48</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:00</t>
+          <t>2025-05-09 07:08:48</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:00</t>
+          <t>2025-05-12 09:32:12</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>44262</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -880,80 +878,76 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>76</v>
+      </c>
+      <c r="N6" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>2025-05-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
         <v>4</v>
-      </c>
-      <c r="M6" t="n">
-        <v>70</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P6" t="n">
-        <v>39666</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>2025-04-24 00:00:00</t>
-        </is>
-      </c>
-      <c r="R6" s="1" t="n">
-        <v>-13.48732638888889</v>
-      </c>
-      <c r="S6" s="1" t="n">
-        <v>-15.32430555555556</v>
-      </c>
-      <c r="T6" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251050</v>
+        <v>251416</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>205</v>
+        <v>36</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>158.056338028169</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:00</t>
+          <t>2025-05-12 09:32:12</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-12 10:08:12</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-12 10:08:12</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-12 12:46:16</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>11222</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -962,36 +956,34 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -999,41 +991,41 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251054</v>
+        <v>251742</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-09 11:47:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-09 11:47:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-09 11:47:00</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>8226</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1042,17 +1034,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
       <c r="N8" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1060,60 +1052,60 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-1.490972222222222</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251081</v>
+        <v>251840</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>42.42253521126761</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-09 11:47:00</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-09 13:52:00</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-09 13:52:00</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 14:34:25</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>3012</v>
+        <v>5714</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1122,19 +1114,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+      <c r="N9" t="n">
+        <v>39758</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1142,60 +1132,60 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39750</v>
+        <v>39758</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-16.60723787167824</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="T9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251782</v>
+        <v>251229</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>170.0422535211268</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:07:02</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>12073</v>
+        <v>18739</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1204,17 +1194,19 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>76</v>
-      </c>
-      <c r="N10" t="n">
-        <v>39754</v>
+        <v>70</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1222,18 +1214,18 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39754</v>
+        <v>39723</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>0</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-0.2965571204976852</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>1</v>
@@ -1241,18 +1233,18 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251284</v>
+        <v>251651</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>40.5</v>
+        <v>29</v>
       </c>
       <c r="D11" t="n">
-        <v>297.0909090909091</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1261,21 +1253,21 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>16340</v>
+        <v>46830</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1284,25 +1276,23 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N11" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1310,29 +1300,29 @@
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251651</v>
+        <v>251371</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D12" t="n">
-        <v>767.7049180327868</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1341,21 +1331,21 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 07:47:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 07:47:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-09 07:47:00</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>46830</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1364,95 +1354,99 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>76</v>
-      </c>
-      <c r="N12" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>0</v>
+        <v>-15.32430555555556</v>
       </c>
       <c r="T12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251164</v>
+        <v>251050</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C13" t="n">
+        <v>205</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:47:00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:12:00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:12:00</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:12:00</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
         <v>38</v>
-      </c>
-      <c r="D13" t="n">
-        <v>140.8450704225352</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:00:00</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:38:00</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:38:00</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2025-05-08 09:58:50</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>6</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1460,60 +1454,60 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-1.415864632233796</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="T13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>250759</v>
+        <v>251054</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" t="n">
-        <v>118.2816901408451</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 09:58:50</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 10:32:50</t>
+          <t>2025-05-09 11:47:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 10:32:50</t>
+          <t>2025-05-09 11:47:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:31:07</t>
+          <t>2025-05-09 11:47:00</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>8398</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1522,14 +1516,14 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M14" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N14" t="n">
         <v>39747</v>
@@ -1544,56 +1538,56 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.5216158059490741</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>-0.5216158059490741</v>
+        <v>-1.490972222222222</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251225</v>
+        <v>251081</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 12:31:07</t>
+          <t>2025-05-09 11:47:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-08 12:46:07</t>
+          <t>2025-05-09 13:52:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-08 12:46:07</t>
+          <t>2025-05-09 13:52:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-08 12:46:07</t>
+          <t>2025-05-09 14:34:25</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>3012</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1602,17 +1596,19 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M15" t="n">
-        <v>76</v>
-      </c>
-      <c r="N15" t="n">
-        <v>39747</v>
+        <v>70</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1620,60 +1616,60 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39747</v>
+        <v>39750</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.5320324726157407</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-0.5320324726157407</v>
+        <v>-16.60723787167824</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>250894</v>
+        <v>251782</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>623.4084507042254</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-08 12:46:07</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-08 13:03:07</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-08 13:03:07</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-12 07:26:32</t>
+          <t>2025-05-09 07:07:02</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>44262</v>
+        <v>12073</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1682,95 +1678,99 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
         <v>76</v>
       </c>
       <c r="N16" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
+        <v>39754</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>0</v>
+        <v>-0.2965571204976852</v>
       </c>
       <c r="T16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251456</v>
+        <v>251706</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>183.6530612244898</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:39</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>8999</v>
+        <v>3200</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
-      </c>
-      <c r="N17" t="n">
-        <v>39746</v>
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1778,60 +1778,60 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39746</v>
+        <v>39764</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>0</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-2.446981292511574</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251742</v>
+        <v>251391</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D18" t="n">
-        <v>128.53125</v>
+        <v>119.6938775510204</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 07:50:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 07:50:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-07 09:27:31</t>
+          <t>2025-05-08 09:49:41</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>8226</v>
+        <v>5865</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
@@ -1862,14 +1862,14 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-0.3941189236111111</v>
+        <v>-1.4095096371875</v>
       </c>
       <c r="T18" t="n">
         <v>7</v>
@@ -1877,41 +1877,41 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251391</v>
+        <v>251164</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D19" t="n">
-        <v>91.640625</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-07 09:27:31</t>
+          <t>2025-05-08 09:49:41</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-07 09:44:31</t>
+          <t>2025-05-08 10:29:41</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-07 09:44:31</t>
+          <t>2025-05-08 10:29:41</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-07 11:16:10</t>
+          <t>2025-05-08 13:53:46</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>5865</v>
+        <v>10000</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
@@ -1942,56 +1942,56 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.4695638020833333</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-0.4695638020833333</v>
+        <v>-1.579010770972222</v>
       </c>
       <c r="T19" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251227</v>
+        <v>251456</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:16:10</t>
+          <t>2025-05-08 13:53:46</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:48:10</t>
+          <t>2025-05-08 14:43:46</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:48:10</t>
+          <t>2025-05-08 14:43:46</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:48:10</t>
+          <t>2025-05-09 09:47:25</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>8999</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -2000,14 +2000,14 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N20" t="n">
         <v>39746</v>
@@ -2022,14 +2022,14 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-1.491786024305556</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-1.491786024305556</v>
+        <v>-3.407936507939815</v>
       </c>
       <c r="T20" t="n">
         <v>1</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251395</v>
+        <v>250923</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2045,33 +2045,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D21" t="n">
-        <v>35.34375</v>
+        <v>109.46875</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-07 11:48:10</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:22:10</t>
+          <t>2025-05-07 07:36:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:22:10</t>
+          <t>2025-05-07 07:36:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:57:30</t>
+          <t>2025-05-07 09:25:28</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2262</v>
+        <v>7006</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2080,14 +2080,14 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N21" t="n">
         <v>39749</v>
@@ -2102,22 +2102,22 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.53994140625</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-0.53994140625</v>
+        <v>-0.3926866319444444</v>
       </c>
       <c r="T21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251396</v>
+        <v>251395</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2125,29 +2125,29 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D22" t="n">
         <v>35.34375</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-07 12:57:30</t>
+          <t>2025-05-07 09:25:28</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-07 13:12:30</t>
+          <t>2025-05-07 09:57:28</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-07 13:12:30</t>
+          <t>2025-05-07 09:57:28</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-07 13:47:51</t>
+          <t>2025-05-07 10:32:48</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -2182,14 +2182,14 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-0.57490234375</v>
+        <v>-0.439453125</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-0.57490234375</v>
+        <v>-0.439453125</v>
       </c>
       <c r="T22" t="n">
         <v>7</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251548</v>
+        <v>251396</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2205,33 +2205,33 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D23" t="n">
-        <v>206.90625</v>
+        <v>35.34375</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-07 13:47:51</t>
+          <t>2025-05-07 10:32:48</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-07 14:06:51</t>
+          <t>2025-05-07 10:47:48</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-07 14:06:51</t>
+          <t>2025-05-07 10:47:48</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-08 09:33:45</t>
+          <t>2025-05-07 11:23:09</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>13242</v>
+        <v>2262</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
@@ -2262,14 +2262,14 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-1.398448350694445</v>
+        <v>-0.4744140625</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-1.398448350694445</v>
+        <v>-0.4744140625</v>
       </c>
       <c r="T23" t="n">
         <v>7</v>
@@ -2277,7 +2277,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>250923</v>
+        <v>251227</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2285,33 +2285,33 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D24" t="n">
-        <v>109.46875</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-08 09:33:45</t>
+          <t>2025-05-07 11:23:09</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-08 10:05:45</t>
+          <t>2025-05-07 11:57:09</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-08 10:05:45</t>
+          <t>2025-05-07 11:57:09</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-08 11:55:14</t>
+          <t>2025-05-07 11:57:09</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>7006</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2324,13 +2324,13 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
         <v>76</v>
       </c>
       <c r="N24" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2338,26 +2338,26 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-1.496690538194444</v>
+        <v>-1.498025173611111</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>-1.496690538194444</v>
+        <v>-1.498025173611111</v>
       </c>
       <c r="T24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251477</v>
+        <v>251548</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2365,33 +2365,33 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>468.734375</v>
+        <v>206.90625</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 11:55:14</t>
+          <t>2025-05-07 11:57:09</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 12:14:14</t>
+          <t>2025-05-07 12:27:09</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 12:14:14</t>
+          <t>2025-05-07 12:27:09</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-09 12:02:58</t>
+          <t>2025-05-08 07:54:03</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>29999</v>
+        <v>13242</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2400,17 +2400,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N25" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2418,26 +2418,26 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-2.502061631944445</v>
+        <v>-1.329210069444444</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-2.502061631944445</v>
+        <v>-1.329210069444444</v>
       </c>
       <c r="T25" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251416</v>
+        <v>251477</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2448,30 +2448,30 @@
         <v>32</v>
       </c>
       <c r="D26" t="n">
-        <v>175.34375</v>
+        <v>468.734375</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-09 12:02:58</t>
+          <t>2025-05-08 07:54:03</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-09 12:34:58</t>
+          <t>2025-05-08 08:26:03</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-09 12:34:58</t>
+          <t>2025-05-08 08:26:03</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-12 07:30:18</t>
+          <t>2025-05-09 08:14:47</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>11222</v>
+        <v>29999</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2480,97 +2480,97 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N26" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
+        <v>39760</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>0</v>
+        <v>-2.343608940972222</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>0</v>
+        <v>-2.343608940972222</v>
       </c>
       <c r="T26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251706</v>
+        <v>251284</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="D27" t="n">
-        <v>50.79365079365079</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>3200</v>
+        <v>16340</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N27" t="n">
+        <v>39747</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2578,21 +2578,21 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>39764</v>
+        <v>39747</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="T27" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/sequenza.xlsx
+++ b/PS-VRP/Dati_output/sequenza.xlsx
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251455</v>
+        <v>251651</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>74.6056338028169</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 08:48:36</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>5297</v>
+        <v>46830</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,78 +558,76 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>76</v>
+      </c>
+      <c r="N2" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>2025-05-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>4</v>
-      </c>
-      <c r="M2" t="n">
-        <v>70</v>
-      </c>
-      <c r="N2" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>39749</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>2025-04-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="R2" s="1" t="n">
-        <v>-0.3623372395833334</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>-1.367087245694445</v>
-      </c>
-      <c r="T2" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251547</v>
+        <v>251391</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>184.9154929577465</v>
+        <v>96.14754098360656</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 08:48:36</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:03:36</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:03:36</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 09:11:08</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>13129</v>
+        <v>5865</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -642,7 +640,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
@@ -660,14 +658,14 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-1.505917449143519</v>
+        <v>-1.382741347905093</v>
       </c>
       <c r="T3" t="n">
         <v>7</v>
@@ -675,41 +673,41 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251225</v>
+        <v>251840</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 09:11:08</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:38:31</t>
+          <t>2025-05-08 09:31:08</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:38:31</t>
+          <t>2025-05-08 09:31:08</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:38:31</t>
+          <t>2025-05-08 11:04:49</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>5714</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -718,17 +716,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -736,18 +734,18 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-0.4616803278703704</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-0.5267507824768519</v>
+        <v>-0.4616803278703704</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>
@@ -755,41 +753,41 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>250759</v>
+        <v>251742</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>118.2816901408451</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:38:31</t>
+          <t>2025-05-08 11:04:49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:53:31</t>
+          <t>2025-05-08 11:29:49</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:53:31</t>
+          <t>2025-05-08 11:29:49</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-08 14:51:48</t>
+          <t>2025-05-08 13:44:40</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>8398</v>
+        <v>8226</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -798,17 +796,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -816,60 +814,60 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-1.572688979965278</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-0.6193075117361111</v>
+        <v>-1.572688979965278</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>250894</v>
+        <v>251229</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>623.4084507042254</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 14:51:48</t>
+          <t>2025-05-08 13:44:40</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:08:48</t>
+          <t>2025-05-08 14:14:40</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:08:48</t>
+          <t>2025-05-08 14:14:40</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-12 09:32:12</t>
+          <t>2025-05-09 11:21:52</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>44262</v>
+        <v>18739</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -878,27 +876,31 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
-      </c>
-      <c r="N6" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
@@ -908,46 +910,46 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251416</v>
+        <v>251396</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>158.056338028169</v>
+        <v>35.34375</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-12 09:32:12</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-12 10:08:12</t>
+          <t>2025-05-07 07:23:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-12 10:08:12</t>
+          <t>2025-05-07 07:23:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-12 12:46:16</t>
+          <t>2025-05-07 07:58:20</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>11222</v>
+        <v>2262</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -960,72 +962,74 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>0</v>
+        <v>-0.3321831597222222</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251742</v>
+        <v>251164</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>134.8524590163935</v>
+        <v>156.25</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 07:58:20</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-07 08:13:20</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-07 08:13:20</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-07 10:49:35</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>8226</v>
+        <v>10000</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1038,7 +1042,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
@@ -1056,56 +1060,56 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-0.4511067708333333</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-0.4511067708333333</v>
       </c>
       <c r="T8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251840</v>
+        <v>251371</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>93.67213114754098</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-07 10:49:35</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-07 11:08:35</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-07 11:08:35</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-07 11:08:35</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>5714</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1118,13 +1122,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="N9" t="n">
-        <v>39758</v>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1132,60 +1138,60 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39758</v>
+        <v>39666</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-13.46430121527778</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-13.46430121527778</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251229</v>
+        <v>250923</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D10" t="n">
-        <v>307.1967213114754</v>
+        <v>109.46875</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-07 11:08:35</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-07 11:40:35</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-07 11:40:35</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-07 13:30:03</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>18739</v>
+        <v>7006</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1194,19 +1200,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>70</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N10" t="n">
+        <v>39749</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1214,60 +1218,60 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39723</v>
+        <v>39749</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0</v>
+        <v>-0.5625434027777778</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0</v>
+        <v>-0.5625434027777778</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251651</v>
+        <v>251455</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D11" t="n">
-        <v>767.7049180327868</v>
+        <v>82.765625</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-07 13:30:03</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-07 14:02:03</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-07 14:02:03</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-08 07:24:49</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>46830</v>
+        <v>5297</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1276,76 +1280,78 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>0</v>
+        <v>-1.308908420138889</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>0</v>
+        <v>-1.308908420138889</v>
       </c>
       <c r="T11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251371</v>
+        <v>251395</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 07:24:49</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:00</t>
+          <t>2025-05-08 07:43:49</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:00</t>
+          <t>2025-05-08 07:43:49</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:00</t>
+          <t>2025-05-08 08:19:10</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1358,15 +1364,13 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N12" t="n">
+        <v>39749</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1374,18 +1378,18 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39666</v>
+        <v>39749</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-1.346647135416667</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-15.32430555555556</v>
+        <v>-1.346647135416667</v>
       </c>
       <c r="T12" t="n">
         <v>7</v>
@@ -1393,41 +1397,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251050</v>
+        <v>251548</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>205</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>206.90625</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:00</t>
+          <t>2025-05-08 08:19:10</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 08:38:10</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 08:38:10</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 12:05:04</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>13242</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1436,17 +1440,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1454,60 +1458,60 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-1.503526475694444</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-1.503526475694444</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251054</v>
+        <v>251477</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>468.734375</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 12:05:04</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 11:47:00</t>
+          <t>2025-05-08 12:37:04</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 11:47:00</t>
+          <t>2025-05-08 12:37:04</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-09 11:47:00</t>
+          <t>2025-05-09 12:25:48</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>29999</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1516,17 +1520,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N14" t="n">
-        <v>39747</v>
+        <v>39760</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1534,26 +1538,26 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39747</v>
+        <v>39760</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-2.517925347222222</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>-1.490972222222222</v>
+        <v>-2.517925347222222</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251081</v>
+        <v>251050</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1561,33 +1565,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>125</v>
+        <v>217</v>
       </c>
       <c r="D15" t="n">
-        <v>42.42253521126761</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-09 11:47:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-09 13:52:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-09 13:52:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-09 14:34:25</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>3012</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1600,15 +1604,13 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+      <c r="N15" t="n">
+        <v>39747</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1616,18 +1618,18 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39750</v>
+        <v>39747</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-16.60723787167824</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1635,41 +1637,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251782</v>
+        <v>251054</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D16" t="n">
-        <v>170.0422535211268</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-09 07:07:02</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>12073</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1678,17 +1680,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="M16" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1696,80 +1698,80 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-0.2965571204976852</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251706</v>
+        <v>251081</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="D17" t="n">
-        <v>50.79365079365079</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>3200</v>
+        <v>3012</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>39764 (esterno)</t>
+          <t>39750 (esterno)</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1778,60 +1780,60 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39764</v>
+        <v>39750</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>0</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>0</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="T17" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251391</v>
+        <v>251284</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>50</v>
+        <v>40.5</v>
       </c>
       <c r="D18" t="n">
-        <v>119.6938775510204</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:50:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:50:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-08 09:49:41</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>5865</v>
+        <v>16340</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1840,17 +1842,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
       <c r="N18" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1858,79 +1860,81 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-1.4095096371875</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="T18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251164</v>
+        <v>251706</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>204.0816326530612</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-08 09:49:41</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-08 10:29:41</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-08 10:29:41</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-08 13:53:46</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>10000</v>
+        <v>3200</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
-      </c>
-      <c r="N19" t="n">
-        <v>39749</v>
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1938,60 +1942,60 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39749</v>
+        <v>39764</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>0</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-1.579010770972222</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251456</v>
+        <v>251547</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D20" t="n">
-        <v>183.6530612244898</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 13:53:46</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 14:43:46</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 14:43:46</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-09 09:47:25</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>8999</v>
+        <v>13129</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -2004,13 +2008,13 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
       </c>
       <c r="N20" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2018,60 +2022,60 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-3.407936507939815</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>250923</v>
+        <v>251225</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>109.46875</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-07 07:36:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-07 07:36:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-07 09:25:28</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>7006</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2084,13 +2088,13 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
         <v>76</v>
       </c>
       <c r="N21" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2098,60 +2102,60 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-0.4645246478819445</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-0.3926866319444444</v>
+        <v>-0.4645246478819445</v>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251395</v>
+        <v>250759</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D22" t="n">
-        <v>35.34375</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-07 09:25:28</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-07 09:57:28</t>
+          <t>2025-05-08 11:23:54</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-07 09:57:28</t>
+          <t>2025-05-08 11:23:54</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-07 10:32:48</t>
+          <t>2025-05-08 13:22:11</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2262</v>
+        <v>8398</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2160,17 +2164,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N22" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2178,60 +2182,60 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-0.439453125</v>
+        <v>-0.5570813771527778</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-0.439453125</v>
+        <v>-0.5570813771527778</v>
       </c>
       <c r="T22" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251396</v>
+        <v>250894</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D23" t="n">
-        <v>35.34375</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-07 10:32:48</t>
+          <t>2025-05-08 13:22:11</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:48</t>
+          <t>2025-05-08 13:39:11</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:48</t>
+          <t>2025-05-08 13:39:11</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-07 11:23:09</t>
+          <t>2025-05-12 08:02:36</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2262</v>
+        <v>44262</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2240,78 +2244,76 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M23" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N23" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-0.4744140625</v>
+        <v>0</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-0.4744140625</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251227</v>
+        <v>251416</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-07 11:23:09</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-07 11:57:09</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-07 11:57:09</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-07 11:57:09</t>
+          <t>2025-05-08 11:24:01</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>11222</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2320,78 +2322,76 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N24" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-1.498025173611111</v>
+        <v>0</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>-1.498025173611111</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251548</v>
+        <v>251456</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D25" t="n">
-        <v>206.90625</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-07 11:57:09</t>
+          <t>2025-05-08 11:24:01</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-07 12:27:09</t>
+          <t>2025-05-08 12:04:01</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-07 12:27:09</t>
+          <t>2025-05-08 12:04:01</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 07:54:03</t>
+          <t>2025-05-09 07:07:40</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>13242</v>
+        <v>8999</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2404,13 +2404,13 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
       </c>
       <c r="N25" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2418,60 +2418,60 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-1.329210069444444</v>
+        <v>-3.296995464849537</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-1.329210069444444</v>
+        <v>-3.296995464849537</v>
       </c>
       <c r="T25" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251477</v>
+        <v>251227</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D26" t="n">
-        <v>468.734375</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 07:54:03</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 08:26:03</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 08:26:03</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-09 08:14:47</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>29999</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2480,17 +2480,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
         <v>76</v>
       </c>
       <c r="N26" t="n">
-        <v>39760</v>
+        <v>39746</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2498,18 +2498,18 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>39760</v>
+        <v>39746</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-2.343608940972222</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-2.343608940972222</v>
+        <v>-2.513194444444444</v>
       </c>
       <c r="T26" t="n">
         <v>1</v>
@@ -2517,41 +2517,41 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251284</v>
+        <v>251782</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>40.5</v>
+        <v>17</v>
       </c>
       <c r="D27" t="n">
-        <v>297.0909090909091</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 12:36:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 12:36:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-09 07:26:02</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>16340</v>
+        <v>12073</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2560,17 +2560,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N27" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2578,18 +2578,18 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-0.3097515649421296</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-0.3097515649421296</v>
       </c>
       <c r="T27" t="n">
         <v>1</v>

--- a/PS-VRP/Dati_output/sequenza.xlsx
+++ b/PS-VRP/Dati_output/sequenza.xlsx
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251651</v>
+        <v>251782</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>767.7049180327868</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-09 07:07:02</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>46830</v>
+        <v>12073</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,95 +558,96 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
         <v>76</v>
       </c>
       <c r="N2" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
+        <v>39754</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>4</v>
+        <v>-0.2965571204976852</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251391</v>
+        <v>251706</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>96.14754098360656</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:11:08</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>5865</v>
+        <v>3200</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
-      </c>
-      <c r="N3" t="n">
-        <v>39749</v>
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -654,60 +655,57 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39749</v>
+        <v>39764</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.4377821180555556</v>
-      </c>
-      <c r="S3" s="1" t="n">
-        <v>-1.382741347905093</v>
-      </c>
-      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251840</v>
+        <v>251050</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>217</v>
       </c>
       <c r="D4" t="n">
-        <v>93.67213114754098</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 09:11:08</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 09:31:08</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 09:31:08</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-08 11:04:49</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5714</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -716,17 +714,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -734,60 +732,57 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.4616803278703704</v>
-      </c>
-      <c r="S4" s="1" t="n">
-        <v>-0.4616803278703704</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1</v>
+        <v>-1.442361111111111</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251742</v>
+        <v>251054</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>134.8524590163935</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 11:04:49</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 11:29:49</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 11:29:49</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-08 13:44:40</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>8226</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -796,17 +791,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -814,60 +809,57 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-1.572688979965278</v>
-      </c>
-      <c r="S5" s="1" t="n">
-        <v>-1.572688979965278</v>
-      </c>
-      <c r="T5" t="n">
-        <v>7</v>
+        <v>-1.466666666666667</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251229</v>
+        <v>251081</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="D6" t="n">
-        <v>307.1967213114754</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 13:44:40</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-08 14:14:40</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-08 14:14:40</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-09 11:21:52</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>18739</v>
+        <v>3012</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -876,18 +868,18 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>39723 (esterno)</t>
+          <t>39750 (esterno)</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -896,60 +888,57 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39723</v>
+        <v>39750</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1</v>
+        <v>-16.58293231612268</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251396</v>
+        <v>251284</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>40.5</v>
       </c>
       <c r="D7" t="n">
-        <v>35.34375</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-07 07:23:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-07 07:23:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-07 07:58:20</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2262</v>
+        <v>16340</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -958,17 +947,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -976,60 +965,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.5250651041666666</v>
-      </c>
-      <c r="S7" s="1" t="n">
-        <v>-0.3321831597222222</v>
-      </c>
-      <c r="T7" t="n">
-        <v>7</v>
+        <v>-1.526104797974537</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251164</v>
+        <v>251742</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>156.25</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-07 07:58:20</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-07 08:13:20</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-07 08:13:20</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-07 10:49:35</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>10000</v>
+        <v>8226</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1042,7 +1028,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
@@ -1060,56 +1046,56 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-0.4511067708333333</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-0.4511067708333333</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="T8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251371</v>
+        <v>251840</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-07 10:49:35</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-07 11:08:35</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-07 11:08:35</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-07 11:08:35</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>5714</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1122,15 +1108,13 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N9" t="n">
+        <v>39758</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1138,60 +1122,60 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39666</v>
+        <v>39758</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-13.46430121527778</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-13.46430121527778</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="T9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>250923</v>
+        <v>251164</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>109.46875</v>
+        <v>163.9344262295082</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-07 11:08:35</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-07 11:40:35</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-07 11:40:35</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-07 13:30:03</t>
+          <t>2025-05-08 14:52:27</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>7006</v>
+        <v>10000</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1200,14 +1184,14 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N10" t="n">
         <v>39749</v>
@@ -1222,56 +1206,56 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.5625434027777778</v>
+        <v>-1.619763205833333</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-0.5625434027777778</v>
+        <v>-1.619763205833333</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251455</v>
+        <v>251229</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>82.765625</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-07 13:30:03</t>
+          <t>2025-05-08 14:52:27</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-07 14:02:03</t>
+          <t>2025-05-09 07:12:27</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-07 14:02:03</t>
+          <t>2025-05-09 07:12:27</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:24:49</t>
+          <t>2025-05-09 12:19:39</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>5297</v>
+        <v>18739</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1280,17 +1264,19 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
-      <c r="N11" t="n">
-        <v>39749</v>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1298,26 +1284,26 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39749</v>
+        <v>39723</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-1.308908420138889</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-1.308908420138889</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251395</v>
+        <v>251391</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1325,33 +1311,33 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D12" t="n">
-        <v>35.34375</v>
+        <v>91.640625</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:24:49</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:43:49</t>
+          <t>2025-05-07 07:21:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:43:49</t>
+          <t>2025-05-07 07:21:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 08:19:10</t>
+          <t>2025-05-07 08:52:38</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>2262</v>
+        <v>5865</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1364,7 +1350,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
@@ -1386,10 +1372,10 @@
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-1.346647135416667</v>
+        <v>-0.4794487847222222</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-1.346647135416667</v>
+        <v>-0.3698893229166667</v>
       </c>
       <c r="T12" t="n">
         <v>7</v>
@@ -1397,7 +1383,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251548</v>
+        <v>251227</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1405,33 +1391,33 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D13" t="n">
-        <v>206.90625</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 08:19:10</t>
+          <t>2025-05-07 08:52:38</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 08:38:10</t>
+          <t>2025-05-07 09:24:38</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 08:38:10</t>
+          <t>2025-05-07 09:24:38</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:05:04</t>
+          <t>2025-05-07 09:24:38</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>13242</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1440,17 +1426,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
         <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N13" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1458,26 +1444,26 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-1.503526475694444</v>
+        <v>-1.392111545138889</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-1.503526475694444</v>
+        <v>-1.392111545138889</v>
       </c>
       <c r="T13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251477</v>
+        <v>251371</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1485,33 +1471,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>468.734375</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:05:04</t>
+          <t>2025-05-07 09:24:38</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:04</t>
+          <t>2025-05-07 09:54:38</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:04</t>
+          <t>2025-05-07 09:54:38</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-09 12:25:48</t>
+          <t>2025-05-07 09:54:38</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>29999</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1520,17 +1506,19 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>76</v>
-      </c>
-      <c r="N14" t="n">
-        <v>39760</v>
+        <v>70</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1538,56 +1526,56 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39760</v>
+        <v>39666</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-2.517925347222222</v>
+        <v>-13.41294487847222</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>-2.517925347222222</v>
+        <v>-13.41294487847222</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251050</v>
+        <v>251225</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>217</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-07 09:54:38</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 10:24:38</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 10:24:38</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 10:24:38</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1600,14 +1588,14 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N15" t="n">
         <v>39747</v>
@@ -1622,56 +1610,56 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>0</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251054</v>
+        <v>250923</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>109.46875</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 10:24:38</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 10:41:38</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 10:41:38</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 12:31:06</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>7006</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1680,17 +1668,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N16" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1698,18 +1686,18 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-0.5216037326388889</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-0.5216037326388889</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1717,41 +1705,41 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251081</v>
+        <v>251396</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="D17" t="n">
-        <v>42.42253521126761</v>
+        <v>35.34375</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 12:31:06</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-07 13:03:06</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-07 13:03:06</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-07 13:38:27</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>3012</v>
+        <v>2262</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1760,19 +1748,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+      <c r="N17" t="n">
+        <v>39749</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1780,60 +1766,60 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39750</v>
+        <v>39749</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-0.5683702256944444</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-0.5683702256944444</v>
       </c>
       <c r="T17" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251284</v>
+        <v>251395</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>40.5</v>
+        <v>15</v>
       </c>
       <c r="D18" t="n">
-        <v>297.0909090909091</v>
+        <v>35.34375</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-07 13:38:27</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-07 13:53:27</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-07 13:53:27</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-07 14:28:47</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>16340</v>
+        <v>2262</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1842,17 +1828,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
       <c r="N18" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1860,81 +1846,79 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-0.6033311631944445</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-0.6033311631944445</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251706</v>
+        <v>251548</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>50.79365079365079</v>
+        <v>206.90625</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 14:28:47</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 14:47:47</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 14:47:47</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-08 10:14:42</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>3200</v>
+        <v>13242</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N19" t="n">
+        <v>39749</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1942,18 +1926,18 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39764</v>
+        <v>39749</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>0</v>
+        <v>-1.426877170138889</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>0</v>
+        <v>-1.426877170138889</v>
       </c>
       <c r="T19" t="n">
         <v>7</v>
@@ -1961,41 +1945,41 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251547</v>
+        <v>251477</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D20" t="n">
-        <v>184.9154929577465</v>
+        <v>468.734375</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 10:14:42</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-08 10:46:42</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-08 10:46:42</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-09 10:35:26</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>13129</v>
+        <v>29999</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -2004,17 +1988,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N20" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2022,60 +2006,60 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-2.441276041666667</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-2.441276041666667</v>
       </c>
       <c r="T20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251225</v>
+        <v>251455</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>82.765625</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-09 10:35:26</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-09 11:07:26</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-09 11:07:26</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-09 12:30:12</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>5297</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2084,17 +2068,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
         <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N21" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2102,60 +2086,60 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.4645246478819445</v>
+        <v>-2.520974392361111</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-0.4645246478819445</v>
+        <v>-2.520974392361111</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>250759</v>
+        <v>251456</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D22" t="n">
-        <v>118.2816901408451</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 11:23:54</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 11:23:54</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-08 13:22:11</t>
+          <t>2025-05-08 10:43:39</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>8398</v>
+        <v>8999</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2164,17 +2148,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N22" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2182,60 +2166,57 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-0.5570813771527778</v>
-      </c>
-      <c r="S22" s="1" t="n">
-        <v>-0.5570813771527778</v>
-      </c>
-      <c r="T22" t="n">
+        <v>-2.446981292511574</v>
+      </c>
+      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>250894</v>
+        <v>251416</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D23" t="n">
-        <v>623.4084507042254</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-08 13:22:11</t>
+          <t>2025-05-08 10:43:39</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-08 13:39:11</t>
+          <t>2025-05-08 11:23:39</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-08 13:39:11</t>
+          <t>2025-05-08 11:23:39</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-12 08:02:36</t>
+          <t>2025-05-09 07:12:40</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>44262</v>
+        <v>11222</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2244,14 +2225,14 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N23" t="n">
         <v>39755</v>
@@ -2264,33 +2245,30 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>4</v>
+      <c r="S23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251416</v>
+        <v>251547</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" t="n">
-        <v>229.0204081632653</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2299,21 +2277,21 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-08 11:24:01</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>11222</v>
+        <v>13129</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2326,72 +2304,71 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
       </c>
       <c r="N24" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2</v>
+        <v>-1.443691314548611</v>
+      </c>
+      <c r="S24" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251456</v>
+        <v>250759</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>183.6530612244898</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 11:24:01</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 12:04:01</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 12:04:01</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-09 07:07:40</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>8999</v>
+        <v>8398</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2400,17 +2377,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N25" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2418,60 +2395,57 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-3.296995464849537</v>
-      </c>
-      <c r="S25" s="1" t="n">
-        <v>-3.296995464849537</v>
-      </c>
-      <c r="T25" t="n">
+        <v>-0.5466647104861111</v>
+      </c>
+      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251227</v>
+        <v>250894</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>44262</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2480,25 +2454,23 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M26" t="n">
         <v>76</v>
       </c>
       <c r="N26" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2506,52 +2478,49 @@
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-2.523611111111111</v>
-      </c>
-      <c r="S26" s="1" t="n">
-        <v>-2.513194444444444</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251782</v>
+        <v>251651</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D27" t="n">
-        <v>170.0422535211268</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:36:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:36:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:26:02</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>12073</v>
+        <v>46830</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2560,39 +2529,34 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M27" t="n">
         <v>76</v>
       </c>
       <c r="N27" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-0.3097515649421296</v>
-      </c>
-      <c r="S27" s="1" t="n">
-        <v>-0.3097515649421296</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/sequenza.xlsx
+++ b/PS-VRP/Dati_output/sequenza.xlsx
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251782</v>
+        <v>250759</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>170.0422535211268</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:07:02</t>
+          <t>2025-05-08 09:17:16</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>12073</v>
+        <v>8398</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,17 +558,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>76</v>
       </c>
       <c r="N2" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -576,15 +576,15 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-0.2965571204976852</v>
+        <v>-0.3870011737037037</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251050</v>
+        <v>251081</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -679,10 +679,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>217</v>
+        <v>127</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -691,21 +691,21 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 09:07:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 09:07:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 09:49:25</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3012</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -718,13 +718,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
-      <c r="N4" t="n">
-        <v>39747</v>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -732,23 +734,26 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39747</v>
+        <v>39750</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-1.442361111111111</v>
-      </c>
-      <c r="S4" t="n">
+        <v>-19.37171361502315</v>
+      </c>
+      <c r="S4" s="1" t="n">
+        <v>-16.40932120501157</v>
+      </c>
+      <c r="T4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251054</v>
+        <v>251164</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -756,33 +761,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>140.8450704225352</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 09:49:25</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 11:34:25</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 11:34:25</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 13:55:16</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,17 +796,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -809,23 +814,26 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-1.466666666666667</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2</v>
+        <v>-2.580046948356482</v>
+      </c>
+      <c r="S5" s="1" t="n">
+        <v>-2.580046948356482</v>
+      </c>
+      <c r="T5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251081</v>
+        <v>251050</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -833,33 +841,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="D6" t="n">
-        <v>42.42253521126761</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 13:55:16</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-12 09:10:16</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-12 09:10:16</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-12 09:10:16</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>3012</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -872,15 +880,13 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+      <c r="N6" t="n">
+        <v>39747</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -888,57 +894,60 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39750</v>
+        <v>39747</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-16.58293231612268</v>
-      </c>
-      <c r="S6" t="n">
+        <v>-4.382130281689815</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>-4.382130281689815</v>
+      </c>
+      <c r="T6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251284</v>
+        <v>251054</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>40.5</v>
+        <v>35</v>
       </c>
       <c r="D7" t="n">
-        <v>297.0909090909091</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 09:10:16</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-12 09:45:16</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-12 09:45:16</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-12 09:45:16</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>16340</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -947,11 +956,11 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
@@ -969,19 +978,22 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.526104797974537</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1</v>
+        <v>-4.40643583724537</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <v>-4.40643583724537</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251742</v>
+        <v>251229</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -989,10 +1001,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D8" t="n">
-        <v>134.8524590163935</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1001,21 +1013,21 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 12:47:11</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>8226</v>
+        <v>18739</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1024,17 +1036,19 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
-      <c r="N8" t="n">
-        <v>39749</v>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1042,7 +1056,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39749</v>
+        <v>39723</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1050,13 +1064,13 @@
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1076,22 +1090,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 12:47:11</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 13:12:11</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 13:12:11</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 14:45:52</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1130,10 +1144,10 @@
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.6151867031018519</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.6151867031018519</v>
       </c>
       <c r="T9" t="n">
         <v>1</v>
@@ -1141,7 +1155,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251164</v>
+        <v>251371</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1152,30 +1166,30 @@
         <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>163.9344262295082</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 14:45:52</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-09 07:10:52</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-09 07:10:52</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-08 14:52:27</t>
+          <t>2025-05-09 07:10:52</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1188,13 +1202,15 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
-      <c r="N10" t="n">
-        <v>39749</v>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1202,26 +1218,26 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39749</v>
+        <v>39666</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-1.619763205833333</v>
+        <v>-15.29921448087963</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-1.619763205833333</v>
+        <v>-15.29921448087963</v>
       </c>
       <c r="T10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251229</v>
+        <v>251456</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1229,33 +1245,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>307.1967213114754</v>
+        <v>147.5245901639344</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 14:52:27</t>
+          <t>2025-05-09 07:10:52</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:27</t>
+          <t>2025-05-09 07:35:52</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:27</t>
+          <t>2025-05-09 07:35:52</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-09 12:19:39</t>
+          <t>2025-05-09 10:03:23</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>18739</v>
+        <v>8999</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1264,19 +1280,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+      <c r="N11" t="n">
+        <v>39746</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1284,18 +1298,18 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39723</v>
+        <v>39746</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>0</v>
+        <v>-3.419023224039352</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>0</v>
+        <v>-3.419023224039352</v>
       </c>
       <c r="T11" t="n">
         <v>1</v>
@@ -1303,41 +1317,41 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251391</v>
+        <v>251742</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>91.640625</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-09 10:03:23</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-07 07:21:00</t>
+          <t>2025-05-09 10:28:23</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-07 07:21:00</t>
+          <t>2025-05-09 10:28:23</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-07 08:52:38</t>
+          <t>2025-05-09 12:43:14</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>5865</v>
+        <v>8226</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1350,7 +1364,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
@@ -1368,14 +1382,14 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.4794487847222222</v>
+        <v>-2.53003187613426</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-0.3698893229166667</v>
+        <v>-2.53003187613426</v>
       </c>
       <c r="T12" t="n">
         <v>7</v>
@@ -1383,37 +1397,37 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251227</v>
+        <v>251225</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-07 08:52:38</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-07 09:24:38</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-07 09:24:38</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-07 09:24:38</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1436,7 +1450,7 @@
         <v>76</v>
       </c>
       <c r="N13" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1444,56 +1458,53 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-1.392111545138889</v>
-      </c>
-      <c r="S13" s="1" t="n">
-        <v>-1.392111545138889</v>
-      </c>
-      <c r="T13" t="n">
+        <v>-0.5131944444444444</v>
+      </c>
+      <c r="S13" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251371</v>
+        <v>251227</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-07 09:24:38</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-07 09:54:38</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-07 09:54:38</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-07 09:54:38</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1506,19 +1517,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
         <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N14" t="n">
+        <v>39746</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1526,60 +1535,57 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39666</v>
+        <v>39746</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-13.41294487847222</v>
-      </c>
-      <c r="S14" s="1" t="n">
-        <v>-13.41294487847222</v>
-      </c>
-      <c r="T14" t="n">
-        <v>7</v>
+        <v>-2.523611111111111</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251225</v>
+        <v>251651</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-07 09:54:38</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-07 10:24:38</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-07 10:24:38</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-07 10:24:38</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>46830</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1588,78 +1594,73 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
         <v>76</v>
       </c>
       <c r="N15" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1</v>
+      <c r="S15" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>250923</v>
+        <v>251416</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D16" t="n">
-        <v>109.46875</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-07 10:24:38</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-07 10:41:38</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-07 10:41:38</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-07 12:31:06</t>
+          <t>2025-05-08 11:24:01</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>7006</v>
+        <v>11222</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1668,44 +1669,39 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.5216037326388889</v>
-      </c>
-      <c r="S16" s="1" t="n">
-        <v>-0.5216037326388889</v>
-      </c>
-      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251396</v>
+        <v>251477</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1716,30 +1712,30 @@
         <v>32</v>
       </c>
       <c r="D17" t="n">
-        <v>35.34375</v>
+        <v>468.734375</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-07 12:31:06</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-07 13:03:06</t>
+          <t>2025-05-07 07:32:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-07 13:03:06</t>
+          <t>2025-05-07 07:32:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-07 13:38:27</t>
+          <t>2025-05-08 07:20:44</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2262</v>
+        <v>29999</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1748,17 +1744,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N17" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1766,26 +1762,26 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.5683702256944444</v>
+        <v>-6.413151041666667</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-0.5683702256944444</v>
+        <v>-1.306065538194444</v>
       </c>
       <c r="T17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251395</v>
+        <v>251455</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1793,33 +1789,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D18" t="n">
-        <v>35.34375</v>
+        <v>82.765625</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-07 13:38:27</t>
+          <t>2025-05-08 07:20:44</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-07 13:53:27</t>
+          <t>2025-05-08 07:52:44</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-07 13:53:27</t>
+          <t>2025-05-08 07:52:44</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-07 14:28:47</t>
+          <t>2025-05-08 09:15:30</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2262</v>
+        <v>5297</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1832,7 +1828,7 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
@@ -1850,14 +1846,14 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.6033311631944445</v>
+        <v>-1.385763888888889</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-0.6033311631944445</v>
+        <v>-1.385763888888889</v>
       </c>
       <c r="T18" t="n">
         <v>7</v>
@@ -1865,7 +1861,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251548</v>
+        <v>251547</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1873,33 +1869,33 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>206.90625</v>
+        <v>205.140625</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-07 14:28:47</t>
+          <t>2025-05-08 09:15:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-07 14:47:47</t>
+          <t>2025-05-08 09:30:30</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-07 14:47:47</t>
+          <t>2025-05-08 09:30:30</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-08 10:14:42</t>
+          <t>2025-05-08 12:55:38</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>13242</v>
+        <v>13129</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1934,10 +1930,10 @@
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-1.426877170138889</v>
+        <v>-1.538639322916667</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-1.426877170138889</v>
+        <v>-1.538639322916667</v>
       </c>
       <c r="T19" t="n">
         <v>7</v>
@@ -1945,7 +1941,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251477</v>
+        <v>251391</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1953,33 +1949,33 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>468.734375</v>
+        <v>91.640625</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 10:14:42</t>
+          <t>2025-05-08 12:55:38</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 10:46:42</t>
+          <t>2025-05-08 13:12:38</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 10:46:42</t>
+          <t>2025-05-08 13:12:38</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-09 10:35:26</t>
+          <t>2025-05-08 14:44:16</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>29999</v>
+        <v>5865</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1988,17 +1984,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N20" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2006,26 +2002,26 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-2.441276041666667</v>
+        <v>-1.614084201388889</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-2.441276041666667</v>
+        <v>-1.614084201388889</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251455</v>
+        <v>251395</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2033,33 +2029,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>82.765625</v>
+        <v>35.34375</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-09 10:35:26</t>
+          <t>2025-05-08 14:44:16</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-09 11:07:26</t>
+          <t>2025-05-09 07:01:16</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-09 11:07:26</t>
+          <t>2025-05-09 07:01:16</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-09 12:30:12</t>
+          <t>2025-05-09 07:36:37</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>5297</v>
+        <v>2262</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2072,7 +2068,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
@@ -2090,14 +2086,14 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-2.520974392361111</v>
+        <v>-2.317100694444445</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-2.520974392361111</v>
+        <v>-2.317100694444445</v>
       </c>
       <c r="T21" t="n">
         <v>7</v>
@@ -2105,41 +2101,41 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251456</v>
+        <v>251396</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D22" t="n">
-        <v>183.6530612244898</v>
+        <v>35.34375</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:36:37</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-09 07:51:37</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-09 07:51:37</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:39</t>
+          <t>2025-05-09 08:26:58</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>8999</v>
+        <v>2262</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2152,13 +2148,13 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
       </c>
       <c r="N22" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2166,57 +2162,60 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-2.446981292511574</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1</v>
+        <v>-2.352061631944444</v>
+      </c>
+      <c r="S22" s="1" t="n">
+        <v>-2.352061631944444</v>
+      </c>
+      <c r="T22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251416</v>
+        <v>251548</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D23" t="n">
-        <v>229.0204081632653</v>
+        <v>206.90625</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:39</t>
+          <t>2025-05-09 08:26:58</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-08 11:23:39</t>
+          <t>2025-05-09 08:45:58</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-08 11:23:39</t>
+          <t>2025-05-09 08:45:58</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:40</t>
+          <t>2025-05-09 12:12:52</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>11222</v>
+        <v>13242</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2229,69 +2228,74 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
       </c>
       <c r="N23" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2</v>
+        <v>-2.508940972222222</v>
+      </c>
+      <c r="S23" s="1" t="n">
+        <v>-2.508940972222222</v>
+      </c>
+      <c r="T23" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251547</v>
+        <v>250894</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D24" t="n">
-        <v>184.9154929577465</v>
+        <v>691.59375</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 12:12:52</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 12:44:52</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 12:44:52</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-13 08:16:28</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>13129</v>
+        <v>44262</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2300,75 +2304,76 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
+        <v>5</v>
+      </c>
+      <c r="M24" t="n">
+        <v>76</v>
+      </c>
+      <c r="N24" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>2025-05-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="R24" s="1" t="n">
+        <v>-0.3447699652777778</v>
+      </c>
+      <c r="S24" s="1" t="n">
+        <v>-0.3447699652777778</v>
+      </c>
+      <c r="T24" t="n">
         <v>4</v>
-      </c>
-      <c r="M24" t="n">
-        <v>70</v>
-      </c>
-      <c r="N24" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P24" t="n">
-        <v>39749</v>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>2025-05-06 00:00:00</t>
-        </is>
-      </c>
-      <c r="R24" s="1" t="n">
-        <v>-1.443691314548611</v>
-      </c>
-      <c r="S24" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>250759</v>
+        <v>250923</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D25" t="n">
-        <v>118.2816901408451</v>
+        <v>109.46875</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-13 08:16:28</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-13 08:31:28</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-13 08:31:28</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-13 10:20:56</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>8398</v>
+        <v>7006</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2377,17 +2382,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
         <v>76</v>
       </c>
       <c r="N25" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2395,57 +2400,60 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-0.5466647104861111</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1</v>
+        <v>-6.431206597222222</v>
+      </c>
+      <c r="S25" s="1" t="n">
+        <v>-6.431206597222222</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>250894</v>
+        <v>251782</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D26" t="n">
-        <v>623.4084507042254</v>
+        <v>188.640625</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-13 10:20:56</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-13 10:39:56</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-13 10:39:56</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-13 13:48:34</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>44262</v>
+        <v>12073</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2454,50 +2462,55 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
         <v>76</v>
       </c>
       <c r="N26" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
+        <v>39754</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>4</v>
+        <v>-4.575401475694444</v>
+      </c>
+      <c r="S26" s="1" t="n">
+        <v>-4.575401475694444</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251651</v>
+        <v>251284</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>29</v>
+        <v>40.5</v>
       </c>
       <c r="D27" t="n">
-        <v>767.7049180327868</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2506,21 +2519,21 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>46830</v>
+        <v>16340</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2529,23 +2542,25 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M27" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N27" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2553,10 +2568,10 @@
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/sequenza.xlsx
+++ b/PS-VRP/Dati_output/sequenza.xlsx
@@ -515,18 +515,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>250759</v>
+        <v>251229</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>118.2816901408451</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -535,21 +535,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 09:17:16</t>
+          <t>2025-05-08 12:47:11</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>8398</v>
+        <v>18739</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,17 +558,19 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>76</v>
-      </c>
-      <c r="N2" t="n">
-        <v>39747</v>
+        <v>70</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -576,15 +578,15 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39747</v>
+        <v>39723</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-0.3870011737037037</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -592,62 +594,60 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251706</v>
+        <v>251164</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D3" t="n">
-        <v>50.79365079365079</v>
+        <v>140.8450704225352</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 07:57:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 07:57:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-09 10:17:50</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>3200</v>
+        <v>10000</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N3" t="n">
+        <v>39749</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -655,18 +655,21 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39764</v>
+        <v>39749</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>7</v>
+        <v>-2.429059076678241</v>
+      </c>
+      <c r="S3" s="1" t="n">
+        <v>-2.429059076678241</v>
+      </c>
+      <c r="T3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -679,29 +682,29 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="D4" t="n">
         <v>42.42253521126761</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 10:17:50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-09 09:07:00</t>
+          <t>2025-05-09 12:02:50</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-09 09:07:00</t>
+          <t>2025-05-09 12:02:50</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-09 09:49:25</t>
+          <t>2025-05-09 12:45:16</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -742,10 +745,10 @@
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-19.37171361502315</v>
+        <v>-16.53143583724537</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-16.40932120501157</v>
+        <v>-16.53143583724537</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -753,7 +756,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251164</v>
+        <v>251054</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -761,33 +764,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="D5" t="n">
-        <v>140.8450704225352</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-09 09:49:25</t>
+          <t>2025-05-09 12:45:16</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-09 11:34:25</t>
+          <t>2025-05-09 14:50:16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-09 11:34:25</t>
+          <t>2025-05-09 14:50:16</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-09 13:55:16</t>
+          <t>2025-05-09 14:50:16</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -796,17 +799,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -814,21 +817,21 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-2.580046948356482</v>
+        <v>-1.618241392800926</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-2.580046948356482</v>
+        <v>-1.618241392800926</v>
       </c>
       <c r="T5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -841,29 +844,29 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>195</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-09 13:55:16</t>
+          <t>2025-05-09 14:50:16</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-12 09:10:16</t>
+          <t>2025-05-12 07:25:16</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-12 09:10:16</t>
+          <t>2025-05-12 07:25:16</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-12 09:10:16</t>
+          <t>2025-05-12 07:25:16</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -902,10 +905,10 @@
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-4.382130281689815</v>
+        <v>-4.309213615023148</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-4.382130281689815</v>
+        <v>-4.309213615023148</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -913,41 +916,41 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251054</v>
+        <v>251416</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>35</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-12 09:10:16</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-12 09:45:16</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-12 09:45:16</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-12 09:45:16</t>
+          <t>2025-05-08 11:24:01</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>11222</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -956,78 +959,73 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-4.40643583724537</v>
-      </c>
-      <c r="S7" s="1" t="n">
-        <v>-4.40643583724537</v>
-      </c>
-      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251229</v>
+        <v>251227</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>307.1967213114754</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:47:11</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>18739</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1036,19 +1034,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N8" t="n">
+        <v>39746</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1056,60 +1052,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39723</v>
+        <v>39746</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
+        <v>-2.513194444444444</v>
+      </c>
+      <c r="S8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251840</v>
+        <v>251782</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>93.67213114754098</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:47:11</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 13:12:11</t>
+          <t>2025-05-08 07:17:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 13:12:11</t>
+          <t>2025-05-08 07:17:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-08 14:45:52</t>
+          <t>2025-05-08 10:07:02</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>5714</v>
+        <v>12073</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1118,17 +1111,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N9" t="n">
-        <v>39758</v>
+        <v>39754</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1136,18 +1129,18 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39758</v>
+        <v>39754</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.6151867031018519</v>
+        <v>0</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-0.6151867031018519</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>1</v>
@@ -1155,41 +1148,41 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251371</v>
+        <v>251456</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>126.7464788732394</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-08 14:45:52</t>
+          <t>2025-05-08 10:07:02</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:10:52</t>
+          <t>2025-05-08 10:37:02</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:10:52</t>
+          <t>2025-05-08 10:37:02</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:10:52</t>
+          <t>2025-05-08 12:43:47</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>8999</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1202,15 +1195,13 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N10" t="n">
+        <v>39746</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1218,60 +1209,60 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39666</v>
+        <v>39746</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-15.29921448087963</v>
+        <v>-2.530408841944444</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-15.29921448087963</v>
+        <v>-2.530408841944444</v>
       </c>
       <c r="T10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251456</v>
+        <v>251371</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>147.5245901639344</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:10:52</t>
+          <t>2025-05-08 12:43:47</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:35:52</t>
+          <t>2025-05-08 13:00:47</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:35:52</t>
+          <t>2025-05-08 13:00:47</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-09 10:03:23</t>
+          <t>2025-05-08 13:00:47</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>8999</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1284,13 +1275,15 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
-      <c r="N11" t="n">
-        <v>39746</v>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1298,60 +1291,60 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39746</v>
+        <v>39666</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-3.419023224039352</v>
+        <v>-14.5422143975</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-3.419023224039352</v>
+        <v>-14.5422143975</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251742</v>
+        <v>251840</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>134.8524590163935</v>
+        <v>80.47887323943662</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-09 10:03:23</t>
+          <t>2025-05-08 13:00:47</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-09 10:28:23</t>
+          <t>2025-05-08 13:17:47</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-09 10:28:23</t>
+          <t>2025-05-08 13:17:47</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-09 12:43:14</t>
+          <t>2025-05-08 14:38:16</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>8226</v>
+        <v>5714</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1364,13 +1357,13 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
       <c r="N12" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1378,60 +1371,60 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-2.53003187613426</v>
+        <v>-0.6099080594675926</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-2.53003187613426</v>
+        <v>-0.6099080594675926</v>
       </c>
       <c r="T12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251225</v>
+        <v>251547</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-08 14:38:16</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 14:55:16</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 14:55:16</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 10:00:10</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>13129</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1440,17 +1433,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
         <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1458,57 +1451,60 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-0.5131944444444444</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1</v>
+        <v>-2.416793818460648</v>
+      </c>
+      <c r="S13" s="1" t="n">
+        <v>-2.416793818460648</v>
+      </c>
+      <c r="T13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251227</v>
+        <v>250759</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 10:00:10</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 10:30:10</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 10:30:10</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 12:28:27</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>8398</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1517,7 +1513,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -1527,7 +1523,7 @@
         <v>76</v>
       </c>
       <c r="N14" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1535,57 +1531,60 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-2.523611111111111</v>
-      </c>
-      <c r="S14" t="n">
+        <v>-1.519767214398148</v>
+      </c>
+      <c r="S14" s="1" t="n">
+        <v>-1.519767214398148</v>
+      </c>
+      <c r="T14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251651</v>
+        <v>250894</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D15" t="n">
-        <v>767.7049180327868</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 12:28:27</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 12:45:27</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 12:45:27</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-13 07:08:52</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>46830</v>
+        <v>44262</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1614,53 +1613,56 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
+        <v>-0.2978286384953704</v>
+      </c>
+      <c r="S15" s="1" t="n">
+        <v>-0.2978286384953704</v>
+      </c>
+      <c r="T15" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251416</v>
+        <v>251651</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D16" t="n">
-        <v>229.0204081632653</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-08 11:24:01</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>11222</v>
+        <v>46830</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1669,14 +1671,14 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N16" t="n">
         <v>39755</v>
@@ -1689,53 +1691,53 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251477</v>
+        <v>251284</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>32</v>
+        <v>40.5</v>
       </c>
       <c r="D17" t="n">
-        <v>468.734375</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-07 07:32:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-07 07:32:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-08 07:20:44</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>29999</v>
+        <v>16340</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1744,17 +1746,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M17" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N17" t="n">
-        <v>39760</v>
+        <v>39747</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1762,26 +1764,23 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39760</v>
+        <v>39747</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-6.413151041666667</v>
-      </c>
-      <c r="S17" s="1" t="n">
-        <v>-1.306065538194444</v>
-      </c>
-      <c r="T17" t="n">
+        <v>-1.526104797974537</v>
+      </c>
+      <c r="S17" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251455</v>
+        <v>251742</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1789,33 +1788,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>82.765625</v>
+        <v>128.53125</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:20:44</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:52:44</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:52:44</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-08 09:15:30</t>
+          <t>2025-05-07 09:27:31</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>5297</v>
+        <v>8226</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1846,14 +1845,14 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.385763888888889</v>
+        <v>-0.3941189236111111</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-1.385763888888889</v>
+        <v>-0.3941189236111111</v>
       </c>
       <c r="T18" t="n">
         <v>7</v>
@@ -1861,7 +1860,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251547</v>
+        <v>251455</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1872,30 +1871,30 @@
         <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>205.140625</v>
+        <v>82.765625</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-08 09:15:30</t>
+          <t>2025-05-07 09:27:31</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-08 09:30:30</t>
+          <t>2025-05-07 09:42:31</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-08 09:30:30</t>
+          <t>2025-05-07 09:42:31</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-08 12:55:38</t>
+          <t>2025-05-07 11:05:17</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>13129</v>
+        <v>5297</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1926,14 +1925,14 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-1.538639322916667</v>
+        <v>-0.46201171875</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-1.538639322916667</v>
+        <v>-0.46201171875</v>
       </c>
       <c r="T19" t="n">
         <v>7</v>
@@ -1941,7 +1940,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251391</v>
+        <v>251396</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1949,33 +1948,33 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>91.640625</v>
+        <v>35.34375</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:55:38</t>
+          <t>2025-05-07 11:05:17</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 13:12:38</t>
+          <t>2025-05-07 11:24:17</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 13:12:38</t>
+          <t>2025-05-07 11:24:17</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-08 14:44:16</t>
+          <t>2025-05-07 11:59:38</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>5865</v>
+        <v>2262</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1988,7 +1987,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
@@ -2006,14 +2005,14 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-1.614084201388889</v>
+        <v>-0.4997504340277778</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-1.614084201388889</v>
+        <v>-0.4997504340277778</v>
       </c>
       <c r="T20" t="n">
         <v>7</v>
@@ -2029,29 +2028,29 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D21" t="n">
         <v>35.34375</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 14:44:16</t>
+          <t>2025-05-07 11:59:38</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-09 07:01:16</t>
+          <t>2025-05-07 12:14:38</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-09 07:01:16</t>
+          <t>2025-05-07 12:14:38</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-09 07:36:37</t>
+          <t>2025-05-07 12:49:59</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -2090,10 +2089,10 @@
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-2.317100694444445</v>
+        <v>-0.5347113715277778</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-2.317100694444445</v>
+        <v>-0.5347113715277778</v>
       </c>
       <c r="T21" t="n">
         <v>7</v>
@@ -2101,7 +2100,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251396</v>
+        <v>251391</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2109,33 +2108,33 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D22" t="n">
-        <v>35.34375</v>
+        <v>91.640625</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-09 07:36:37</t>
+          <t>2025-05-07 12:49:59</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-09 07:51:37</t>
+          <t>2025-05-07 13:06:59</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-09 07:51:37</t>
+          <t>2025-05-07 13:06:59</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-09 08:26:58</t>
+          <t>2025-05-07 14:38:37</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2262</v>
+        <v>5865</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2148,7 +2147,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
@@ -2166,14 +2165,14 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-2.352061631944444</v>
+        <v>-0.61015625</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-2.352061631944444</v>
+        <v>-0.61015625</v>
       </c>
       <c r="T22" t="n">
         <v>7</v>
@@ -2189,29 +2188,29 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D23" t="n">
         <v>206.90625</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-09 08:26:58</t>
+          <t>2025-05-07 14:38:37</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-09 08:45:58</t>
+          <t>2025-05-07 14:55:37</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-09 08:45:58</t>
+          <t>2025-05-07 14:55:37</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-09 12:12:52</t>
+          <t>2025-05-08 10:22:31</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -2250,10 +2249,10 @@
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-2.508940972222222</v>
+        <v>-1.432313368055556</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-2.508940972222222</v>
+        <v>-1.432313368055556</v>
       </c>
       <c r="T23" t="n">
         <v>7</v>
@@ -2261,7 +2260,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>250894</v>
+        <v>251225</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2269,33 +2268,33 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>691.59375</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-09 12:12:52</t>
+          <t>2025-05-08 10:22:31</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-09 12:44:52</t>
+          <t>2025-05-08 10:52:31</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-09 12:44:52</t>
+          <t>2025-05-08 10:52:31</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-13 08:16:28</t>
+          <t>2025-05-08 10:52:31</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>44262</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2304,37 +2303,39 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
         <v>76</v>
       </c>
       <c r="N24" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-0.3447699652777778</v>
+        <v>-0.4531467013888889</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>-0.3447699652777778</v>
+        <v>-0.4531467013888889</v>
       </c>
       <c r="T24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -2347,29 +2348,29 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D25" t="n">
         <v>109.46875</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-13 08:16:28</t>
+          <t>2025-05-08 10:52:31</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-13 08:31:28</t>
+          <t>2025-05-08 11:09:31</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-13 08:31:28</t>
+          <t>2025-05-08 11:09:31</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-13 10:20:56</t>
+          <t>2025-05-08 12:59:00</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2408,10 +2409,10 @@
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-6.431206597222222</v>
+        <v>-1.540972222222222</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-6.431206597222222</v>
+        <v>-1.540972222222222</v>
       </c>
       <c r="T25" t="n">
         <v>2</v>
@@ -2419,7 +2420,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251782</v>
+        <v>251477</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2430,30 +2431,30 @@
         <v>19</v>
       </c>
       <c r="D26" t="n">
-        <v>188.640625</v>
+        <v>468.734375</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-13 10:20:56</t>
+          <t>2025-05-08 12:59:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-13 10:39:56</t>
+          <t>2025-05-08 13:18:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-13 10:39:56</t>
+          <t>2025-05-08 13:18:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-13 13:48:34</t>
+          <t>2025-05-09 13:06:44</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>12073</v>
+        <v>29999</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2472,7 +2473,7 @@
         <v>76</v>
       </c>
       <c r="N26" t="n">
-        <v>39754</v>
+        <v>39760</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2480,18 +2481,18 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>39754</v>
+        <v>39760</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-4.575401475694444</v>
+        <v>-2.546343315972222</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-4.575401475694444</v>
+        <v>-2.546343315972222</v>
       </c>
       <c r="T26" t="n">
         <v>1</v>
@@ -2499,79 +2500,81 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251284</v>
+        <v>251706</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>40.5</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>297.0909090909091</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>16340</v>
+        <v>3200</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>39764</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>2025-05-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="R27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
         <v>7</v>
-      </c>
-      <c r="M27" t="n">
-        <v>70</v>
-      </c>
-      <c r="N27" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P27" t="n">
-        <v>39747</v>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>2025-05-12 00:00:00</t>
-        </is>
-      </c>
-      <c r="R27" s="1" t="n">
-        <v>-1.526104797974537</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/sequenza.xlsx
+++ b/PS-VRP/Dati_output/sequenza.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251229</v>
+        <v>251371</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>307.1967213114754</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 12:47:11</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>18739</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,18 +558,18 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>70</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>39723 (esterno)</t>
+          <t>39666 (esterno)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -578,57 +578,57 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39723</v>
+        <v>39666</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>0</v>
+        <v>-13.30486111111111</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251164</v>
+        <v>251391</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>140.8450704225352</v>
+        <v>91.640625</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-09 07:57:00</t>
+          <t>2025-05-07 07:36:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-09 07:57:00</t>
+          <t>2025-05-07 07:36:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-09 10:17:50</t>
+          <t>2025-05-07 09:07:38</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>10000</v>
+        <v>5865</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
@@ -659,56 +659,53 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-2.429059076678241</v>
-      </c>
-      <c r="S3" s="1" t="n">
-        <v>-2.429059076678241</v>
-      </c>
-      <c r="T3" t="n">
-        <v>4</v>
+        <v>-0.3803059895833333</v>
+      </c>
+      <c r="S3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251081</v>
+        <v>251164</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>42.42253521126761</v>
+        <v>156.25</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-09 10:17:50</t>
+          <t>2025-05-07 09:07:38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-09 12:02:50</t>
+          <t>2025-05-07 09:24:38</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-09 12:02:50</t>
+          <t>2025-05-07 09:24:38</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-09 12:45:16</t>
+          <t>2025-05-07 12:00:53</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>3012</v>
+        <v>10000</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -717,19 +714,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+      <c r="N4" t="n">
+        <v>39749</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -737,60 +732,57 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39750</v>
+        <v>39749</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-16.53143583724537</v>
-      </c>
-      <c r="S4" s="1" t="n">
-        <v>-16.53143583724537</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2</v>
+        <v>-0.5006184895833333</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251054</v>
+        <v>251395</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-09 12:45:16</t>
+          <t>2025-05-07 12:00:53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-09 14:50:16</t>
+          <t>2025-05-07 12:15:53</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-09 14:50:16</t>
+          <t>2025-05-07 12:15:53</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-09 14:50:16</t>
+          <t>2025-05-07 12:51:14</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -799,17 +791,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -817,60 +809,57 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-1.618241392800926</v>
-      </c>
-      <c r="S5" s="1" t="n">
-        <v>-1.618241392800926</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2</v>
+        <v>-0.5355794270833333</v>
+      </c>
+      <c r="S5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251050</v>
+        <v>251396</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-09 14:50:16</t>
+          <t>2025-05-07 12:51:14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-12 07:25:16</t>
+          <t>2025-05-07 13:06:14</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-12 07:25:16</t>
+          <t>2025-05-07 13:06:14</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-12 07:25:16</t>
+          <t>2025-05-07 13:41:34</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -879,17 +868,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -897,60 +886,57 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-4.309213615023148</v>
-      </c>
-      <c r="S6" s="1" t="n">
-        <v>-4.309213615023148</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2</v>
+        <v>-0.5705403645833333</v>
+      </c>
+      <c r="S6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251416</v>
+        <v>251548</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>229.0204081632653</v>
+        <v>206.90625</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 13:41:34</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-07 14:00:34</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-07 14:00:34</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-08 11:24:01</t>
+          <t>2025-05-08 09:27:29</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>11222</v>
+        <v>13242</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -963,69 +949,71 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0</v>
+        <v>-1.394086371527778</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251227</v>
+        <v>251477</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>468.734375</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-08 09:27:29</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 09:59:29</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 09:59:29</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 09:48:13</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>29999</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1034,17 +1022,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
         <v>76</v>
       </c>
       <c r="N8" t="n">
-        <v>39746</v>
+        <v>39760</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1052,15 +1040,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39746</v>
+        <v>39760</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-2.513194444444444</v>
+        <v>-2.408485243055555</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1072,33 +1060,33 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>170.0422535211268</v>
+        <v>188.640625</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 09:48:13</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 07:17:00</t>
+          <t>2025-05-09 10:03:13</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 07:17:00</t>
+          <t>2025-05-09 10:03:13</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-08 10:07:02</t>
+          <t>2025-05-09 13:11:51</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1137,52 +1125,49 @@
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
+        <v>-0.54990234375</v>
+      </c>
+      <c r="S9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251456</v>
+        <v>251651</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" t="n">
-        <v>126.7464788732394</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-08 10:07:02</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-08 10:37:02</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-08 10:37:02</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:43:47</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>8999</v>
+        <v>46830</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1191,44 +1176,39 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N10" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-2.530408841944444</v>
-      </c>
-      <c r="S10" s="1" t="n">
-        <v>-2.530408841944444</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251371</v>
+        <v>251225</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1236,29 +1216,29 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:43:47</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 13:00:47</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 13:00:47</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 13:00:47</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1271,19 +1251,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
         <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>70</v>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N11" t="n">
+        <v>39747</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1291,26 +1269,23 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39666</v>
+        <v>39747</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-14.5422143975</v>
-      </c>
-      <c r="S11" s="1" t="n">
-        <v>-14.5422143975</v>
-      </c>
-      <c r="T11" t="n">
-        <v>7</v>
+        <v>-0.3048611111111111</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251840</v>
+        <v>250759</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1318,33 +1293,33 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>80.47887323943662</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 13:00:47</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 13:17:47</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 13:17:47</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 14:38:16</t>
+          <t>2025-05-08 09:32:16</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>5714</v>
+        <v>8398</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1353,17 +1328,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N12" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1371,26 +1346,23 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.6099080594675926</v>
-      </c>
-      <c r="S12" s="1" t="n">
-        <v>-0.6099080594675926</v>
-      </c>
-      <c r="T12" t="n">
+        <v>-0.3974178403703704</v>
+      </c>
+      <c r="S12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251547</v>
+        <v>251456</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1398,33 +1370,33 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D13" t="n">
-        <v>184.9154929577465</v>
+        <v>126.7464788732394</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 14:38:16</t>
+          <t>2025-05-08 09:32:16</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 14:55:16</t>
+          <t>2025-05-08 10:04:16</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 14:55:16</t>
+          <t>2025-05-08 10:04:16</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-09 10:00:10</t>
+          <t>2025-05-08 12:11:01</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>13129</v>
+        <v>8999</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1437,13 +1409,13 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1451,26 +1423,23 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-2.416793818460648</v>
-      </c>
-      <c r="S13" s="1" t="n">
-        <v>-2.416793818460648</v>
-      </c>
-      <c r="T13" t="n">
-        <v>7</v>
+        <v>-2.507658450706018</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>250759</v>
+        <v>251455</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1478,33 +1447,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D14" t="n">
-        <v>118.2816901408451</v>
+        <v>74.6056338028169</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-09 10:00:10</t>
+          <t>2025-05-08 12:11:01</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 10:30:10</t>
+          <t>2025-05-08 12:28:01</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 10:30:10</t>
+          <t>2025-05-08 12:28:01</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-09 12:28:27</t>
+          <t>2025-05-08 13:42:38</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>8398</v>
+        <v>5297</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1513,17 +1482,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
         <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1531,26 +1500,23 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-1.519767214398148</v>
-      </c>
-      <c r="S14" s="1" t="n">
-        <v>-1.519767214398148</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1</v>
+        <v>-1.571273474178241</v>
+      </c>
+      <c r="S14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>250894</v>
+        <v>251547</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1558,33 +1524,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D15" t="n">
-        <v>623.4084507042254</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-09 12:28:27</t>
+          <t>2025-05-08 13:42:38</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-09 12:45:27</t>
+          <t>2025-05-08 13:57:38</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-09 12:45:27</t>
+          <t>2025-05-08 13:57:38</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-13 07:08:52</t>
+          <t>2025-05-09 09:02:32</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>44262</v>
+        <v>13129</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1593,76 +1559,75 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.2978286384953704</v>
-      </c>
-      <c r="S15" s="1" t="n">
-        <v>-0.2978286384953704</v>
-      </c>
-      <c r="T15" t="n">
-        <v>4</v>
+        <v>-2.376770344282408</v>
+      </c>
+      <c r="S15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251651</v>
+        <v>250894</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D16" t="n">
-        <v>767.7049180327868</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 09:02:32</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 09:34:32</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 09:34:32</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-12 11:57:57</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>46830</v>
+        <v>44262</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1691,7 +1656,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
@@ -1784,33 +1749,33 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>128.53125</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-07 09:27:31</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1849,52 +1814,49 @@
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.3941189236111111</v>
-      </c>
-      <c r="S18" s="1" t="n">
-        <v>-0.3941189236111111</v>
-      </c>
-      <c r="T18" t="n">
+        <v>-1.406147540983796</v>
+      </c>
+      <c r="S18" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251455</v>
+        <v>251840</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>82.765625</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-07 09:27:31</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-07 09:42:31</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-07 09:42:31</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-07 11:05:17</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>5297</v>
+        <v>5714</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1907,13 +1869,13 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
       <c r="N19" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1921,60 +1883,57 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.46201171875</v>
-      </c>
-      <c r="S19" s="1" t="n">
-        <v>-0.46201171875</v>
-      </c>
-      <c r="T19" t="n">
-        <v>7</v>
+        <v>-0.4885587431712963</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251396</v>
+        <v>251229</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D20" t="n">
-        <v>35.34375</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:05:17</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:24:17</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:24:17</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:59:38</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2262</v>
+        <v>18739</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1983,7 +1942,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1992,8 +1951,10 @@
       <c r="M20" t="n">
         <v>70</v>
       </c>
-      <c r="N20" t="n">
-        <v>39749</v>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2001,60 +1962,57 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39749</v>
+        <v>39723</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.4997504340277778</v>
-      </c>
-      <c r="S20" s="1" t="n">
-        <v>-0.4997504340277778</v>
-      </c>
-      <c r="T20" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251395</v>
+        <v>251227</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D21" t="n">
-        <v>35.34375</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-07 11:59:38</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:14:38</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:14:38</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:49:59</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2262</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2063,17 +2021,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N21" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2081,60 +2039,57 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.5347113715277778</v>
-      </c>
-      <c r="S21" s="1" t="n">
-        <v>-0.5347113715277778</v>
-      </c>
-      <c r="T21" t="n">
-        <v>7</v>
+        <v>-2.513194444444444</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251391</v>
+        <v>250923</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>17</v>
       </c>
       <c r="D22" t="n">
-        <v>91.640625</v>
+        <v>98.67605633802818</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-07 12:49:59</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-07 13:06:59</t>
+          <t>2025-05-08 12:36:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-07 13:06:59</t>
+          <t>2025-05-08 12:36:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-07 14:38:37</t>
+          <t>2025-05-08 14:14:40</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>5865</v>
+        <v>7006</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2143,14 +2098,14 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
         <v>5</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N22" t="n">
         <v>39749</v>
@@ -2165,56 +2120,53 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-0.61015625</v>
-      </c>
-      <c r="S22" s="1" t="n">
-        <v>-0.61015625</v>
-      </c>
-      <c r="T22" t="n">
-        <v>7</v>
+        <v>-1.59352503912037</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251548</v>
+        <v>251416</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D23" t="n">
-        <v>206.90625</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-07 14:38:37</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-07 14:55:37</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-07 14:55:37</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-08 10:22:31</t>
+          <t>2025-05-08 11:24:01</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>13242</v>
+        <v>11222</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2227,74 +2179,69 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
       </c>
       <c r="N23" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-1.432313368055556</v>
-      </c>
-      <c r="S23" s="1" t="n">
-        <v>-1.432313368055556</v>
-      </c>
-      <c r="T23" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251225</v>
+        <v>251081</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-08 10:22:31</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-08 10:52:31</t>
+          <t>2025-05-09 09:07:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-08 10:52:31</t>
+          <t>2025-05-09 09:07:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-08 10:52:31</t>
+          <t>2025-05-09 09:49:25</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>3012</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2303,17 +2250,19 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M24" t="n">
-        <v>76</v>
-      </c>
-      <c r="N24" t="n">
-        <v>39747</v>
+        <v>70</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2321,60 +2270,57 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>39747</v>
+        <v>39750</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-0.4531467013888889</v>
-      </c>
-      <c r="S24" s="1" t="n">
-        <v>-0.4531467013888889</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1</v>
+        <v>-16.40932120501157</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>250923</v>
+        <v>251050</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="D25" t="n">
-        <v>109.46875</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 10:52:31</t>
+          <t>2025-05-09 09:49:25</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 11:09:31</t>
+          <t>2025-05-09 11:54:25</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 11:09:31</t>
+          <t>2025-05-09 11:54:25</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 12:59:00</t>
+          <t>2025-05-09 11:54:25</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>7006</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2383,17 +2329,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="M25" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N25" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2401,60 +2347,57 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-1.540972222222222</v>
-      </c>
-      <c r="S25" s="1" t="n">
-        <v>-1.540972222222222</v>
-      </c>
-      <c r="T25" t="n">
+        <v>-1.49612676056713</v>
+      </c>
+      <c r="S25" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251477</v>
+        <v>251054</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D26" t="n">
-        <v>468.734375</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:59:00</t>
+          <t>2025-05-09 11:54:25</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 13:18:00</t>
+          <t>2025-05-09 12:29:25</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 13:18:00</t>
+          <t>2025-05-09 12:29:25</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-09 13:06:44</t>
+          <t>2025-05-09 12:29:25</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>29999</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2463,17 +2406,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="M26" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N26" t="n">
-        <v>39760</v>
+        <v>39747</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2481,21 +2424,18 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>39760</v>
+        <v>39747</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-2.546343315972222</v>
-      </c>
-      <c r="S26" s="1" t="n">
-        <v>-2.546343315972222</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1</v>
+        <v>-1.520432316122685</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="27">

--- a/PS-VRP/Dati_output/sequenza.xlsx
+++ b/PS-VRP/Dati_output/sequenza.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251371</v>
+        <v>251219</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -523,33 +523,33 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>107.5</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-06-05 12:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-06-05 12:36:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-06-05 12:36:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-06-05 14:23:30</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6880</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,19 +558,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N2" t="n">
+        <v>39885</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -578,57 +576,57 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39666</v>
+        <v>39885</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-13.30486111111111</v>
+        <v>-0.5996527777777778</v>
       </c>
       <c r="S2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251391</v>
+        <v>251897</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D3" t="n">
-        <v>91.640625</v>
+        <v>305.0327868852459</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-07 07:36:00</t>
+          <t>2025-06-05 07:54:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-07 07:36:00</t>
+          <t>2025-06-05 07:54:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-07 09:07:38</t>
+          <t>2025-06-05 12:59:01</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>5865</v>
+        <v>18607</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -637,17 +635,19 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
-      <c r="N3" t="n">
-        <v>39749</v>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -655,57 +655,57 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39749</v>
+        <v>39891</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.3803059895833333</v>
+        <v>-10.54099499089121</v>
       </c>
       <c r="S3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251164</v>
+        <v>251752</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>156.25</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-07 09:07:38</t>
+          <t>2025-06-04 12:00:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-07 09:24:38</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-07 09:24:38</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:53</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -714,17 +714,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N4" t="n">
-        <v>39749</v>
+        <v>39846</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -732,57 +732,57 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39749</v>
+        <v>39846</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.5006184895833333</v>
+        <v>-0.5118055555555555</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251395</v>
+        <v>251218</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>35.34375</v>
+        <v>96.90140845070422</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:53</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-07 12:15:53</t>
+          <t>2025-06-04 12:38:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-07 12:15:53</t>
+          <t>2025-06-04 12:38:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-07 12:51:14</t>
+          <t>2025-06-04 14:14:54</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2262</v>
+        <v>6880</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,17 +791,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
         <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N5" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -809,57 +809,57 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.5355794270833333</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251396</v>
+        <v>251565</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>35.34375</v>
+        <v>176.7464788732394</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-07 12:51:14</t>
+          <t>2025-06-04 14:14:54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-07 13:06:14</t>
+          <t>2025-06-04 14:52:54</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-07 13:06:14</t>
+          <t>2025-06-04 14:52:54</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-07 13:41:34</t>
+          <t>2025-06-05 09:49:38</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2262</v>
+        <v>12549</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -872,13 +872,13 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -886,57 +886,57 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.5705403645833333</v>
+        <v>-0.409477699525463</v>
       </c>
       <c r="S6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251548</v>
+        <v>251500</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>206.90625</v>
+        <v>139.3802816901408</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-07 13:41:34</t>
+          <t>2025-06-05 09:49:38</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-07 14:00:34</t>
+          <t>2025-06-05 10:08:38</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-07 14:00:34</t>
+          <t>2025-06-05 10:08:38</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-08 09:27:29</t>
+          <t>2025-06-05 12:28:01</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>13242</v>
+        <v>9896</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -955,7 +955,7 @@
         <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -963,57 +963,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.394086371527778</v>
+        <v>-0.5194640062615741</v>
       </c>
       <c r="S7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251477</v>
+        <v>251070</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>36.5</v>
       </c>
       <c r="D8" t="n">
-        <v>468.734375</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 09:27:29</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 09:59:29</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 09:59:29</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-09 09:48:13</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>29999</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1022,17 +1022,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N8" t="n">
-        <v>39760</v>
+        <v>39885</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1040,57 +1040,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39760</v>
+        <v>39885</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-2.408485243055555</v>
+        <v>-0.3170138888888889</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251782</v>
+        <v>251773</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>32.5</v>
       </c>
       <c r="D9" t="n">
-        <v>188.640625</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-09 09:48:13</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:03:13</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:03:13</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 13:11:51</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>12073</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1099,17 +1099,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M9" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39754</v>
+        <v>39874</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1117,15 +1117,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39754</v>
+        <v>39874</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-25 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.54990234375</v>
+        <v>-0.3395833333333333</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1133,41 +1133,41 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251651</v>
+        <v>251180</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>29</v>
+        <v>36.5</v>
       </c>
       <c r="D10" t="n">
-        <v>767.7049180327868</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-06-05 08:45:30</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-06-05 08:45:30</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-06-05 08:45:30</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>46830</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1176,73 +1176,77 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>76</v>
-      </c>
-      <c r="N10" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>39887</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0</v>
+        <v>-16.36493055555556</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251225</v>
+        <v>251895</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>42.5</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>321.7090909090909</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-05 08:45:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-06-05 09:28:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-06-05 09:28:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-06-05 14:49:42</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>17694</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1251,75 +1255,77 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
+        <v>10</v>
+      </c>
+      <c r="M11" t="n">
+        <v>70</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>39891</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>2025-05-26 00:00:00</t>
+        </is>
+      </c>
+      <c r="R11" s="1" t="n">
+        <v>-10.6178535353588</v>
+      </c>
+      <c r="S11" t="n">
         <v>4</v>
-      </c>
-      <c r="M11" t="n">
-        <v>76</v>
-      </c>
-      <c r="N11" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P11" t="n">
-        <v>39747</v>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>2025-04-30 00:00:00</t>
-        </is>
-      </c>
-      <c r="R11" s="1" t="n">
-        <v>-0.3048611111111111</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>250759</v>
+        <v>251780</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>44.5</v>
       </c>
       <c r="D12" t="n">
-        <v>118.2816901408451</v>
+        <v>441.8</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-06-05 14:49:42</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-06-06 07:34:12</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-06-06 07:34:12</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 09:32:16</t>
+          <t>2025-06-06 14:56:00</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>8398</v>
+        <v>24299</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1328,17 +1334,19 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>76</v>
-      </c>
-      <c r="N12" t="n">
-        <v>39747</v>
+        <v>70</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1346,57 +1354,57 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39747</v>
+        <v>39887</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.3974178403703704</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251456</v>
+        <v>252112</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>126.7464788732394</v>
+        <v>204.1475409836065</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 09:32:16</t>
+          <t>2025-06-04 07:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 10:04:16</t>
+          <t>2025-06-04 07:20:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 10:04:16</t>
+          <t>2025-06-04 07:20:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:11:01</t>
+          <t>2025-06-04 10:44:08</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>8999</v>
+        <v>12453</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1409,13 +1417,13 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39746</v>
+        <v>39885</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1423,15 +1431,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39746</v>
+        <v>39885</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-2.507658450706018</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -1439,41 +1447,41 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251455</v>
+        <v>252282</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D14" t="n">
-        <v>74.6056338028169</v>
+        <v>44.88524590163934</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:11:01</t>
+          <t>2025-06-04 10:44:08</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:28:01</t>
+          <t>2025-06-04 11:19:08</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:28:01</t>
+          <t>2025-06-04 11:19:08</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-08 13:42:38</t>
+          <t>2025-06-04 12:04:01</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>5297</v>
+        <v>2738</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1486,13 +1494,13 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1500,57 +1508,57 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-1.571273474178241</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251547</v>
+        <v>251984</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>184.9154929577465</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 13:42:38</t>
+          <t>2025-06-04 12:04:01</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-08 13:57:38</t>
+          <t>2025-06-04 12:34:01</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-08 13:57:38</t>
+          <t>2025-06-04 12:34:01</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-09 09:02:32</t>
+          <t>2025-06-05 10:12:21</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>13129</v>
+        <v>20638</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1563,13 +1571,13 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39749</v>
+        <v>39874</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1577,57 +1585,57 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39749</v>
+        <v>39874</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-2.376770344282408</v>
+        <v>-0.4252504553703704</v>
       </c>
       <c r="S15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>250894</v>
+        <v>251362</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>623.4084507042254</v>
+        <v>35.28169014084507</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-09 09:02:32</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-09 09:34:32</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-09 09:34:32</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-12 11:57:57</t>
+          <t>2025-06-05 07:52:16</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>44262</v>
+        <v>2505</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1636,73 +1644,75 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
         <v>76</v>
       </c>
       <c r="N16" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
+        <v>39874</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>39874</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0</v>
+        <v>-0.3279733959259259</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251284</v>
+        <v>251631</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>40.5</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>297.0909090909091</v>
+        <v>146.056338028169</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-06-05 07:52:16</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-06-05 08:07:16</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-06-05 08:07:16</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-06-05 10:33:20</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>16340</v>
+        <v>10370</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1711,17 +1721,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N17" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1729,57 +1739,57 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-0.4398180751157408</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251742</v>
+        <v>251237</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D18" t="n">
-        <v>134.8524590163935</v>
+        <v>565.3521126760563</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-05 10:33:20</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-06-05 11:09:20</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-06-05 11:09:20</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-06-06 12:34:41</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>8226</v>
+        <v>40140</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1788,17 +1798,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1806,57 +1816,57 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-1.524090375590278</v>
       </c>
       <c r="S18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251840</v>
+        <v>252084</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D19" t="n">
-        <v>93.67213114754098</v>
+        <v>797.9795918367347</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-06-04 07:00:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-06-04 07:40:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-06-04 07:40:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-06-05 12:57:58</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>5714</v>
+        <v>39101</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1869,13 +1879,13 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
       <c r="N19" t="n">
-        <v>39758</v>
+        <v>39885</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1883,57 +1893,57 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39758</v>
+        <v>39885</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.5402636054398148</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251229</v>
+        <v>251655</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D20" t="n">
-        <v>307.1967213114754</v>
+        <v>1617.211267605634</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-06-10 10:37:12</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>18739</v>
+        <v>114822</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1942,19 +1952,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+      <c r="N20" t="n">
+        <v>39885</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1962,57 +1970,57 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39723</v>
+        <v>39885</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>0</v>
+        <v>-5.442507824722222</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251227</v>
+        <v>251573</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>89.89855072463769</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-06-06 07:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-06-06 07:35:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-06-06 07:35:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-06-06 09:04:53</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>6203</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2021,17 +2029,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
         <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>39746</v>
+        <v>39885</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2039,15 +2047,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39746</v>
+        <v>39885</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-2.513194444444444</v>
+        <v>-1.378401771331018</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -2055,60 +2063,60 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>250923</v>
+        <v>251082</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>98.67605633802818</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 12:36:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 12:36:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-08 14:14:40</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>7006</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>T1 ;T2 ;T8</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2116,405 +2124,18 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-1.59352503912037</v>
+        <v>-0.2916666666666667</v>
       </c>
       <c r="S22" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>251416</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>35</v>
-      </c>
-      <c r="D23" t="n">
-        <v>229.0204081632653</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:00:00</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:35:00</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:35:00</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2025-05-08 11:24:01</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>11222</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>2</v>
-      </c>
-      <c r="M23" t="n">
-        <v>70</v>
-      </c>
-      <c r="N23" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>2025-04-23 00:00:00</t>
-        </is>
-      </c>
-      <c r="R23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>251081</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>127</v>
-      </c>
-      <c r="D24" t="n">
-        <v>42.42253521126761</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:00:00</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2025-05-09 09:07:00</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2025-05-09 09:07:00</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2025-05-09 09:49:25</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>3012</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>20</v>
-      </c>
-      <c r="M24" t="n">
-        <v>70</v>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P24" t="n">
-        <v>39750</v>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>2025-04-23 00:00:00</t>
-        </is>
-      </c>
-      <c r="R24" s="1" t="n">
-        <v>-16.40932120501157</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>251050</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>125</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2025-05-09 09:49:25</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:54:25</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:54:25</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:54:25</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>38</v>
-      </c>
-      <c r="M25" t="n">
-        <v>70</v>
-      </c>
-      <c r="N25" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P25" t="n">
-        <v>39747</v>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>2025-04-16 00:00:00</t>
-        </is>
-      </c>
-      <c r="R25" s="1" t="n">
-        <v>-1.49612676056713</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>251054</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>35</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:54:25</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2025-05-09 12:29:25</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>2025-05-09 12:29:25</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2025-05-09 12:29:25</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>38</v>
-      </c>
-      <c r="M26" t="n">
-        <v>70</v>
-      </c>
-      <c r="N26" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P26" t="n">
-        <v>39747</v>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>2025-04-16 00:00:00</t>
-        </is>
-      </c>
-      <c r="R26" s="1" t="n">
-        <v>-1.520432316122685</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>251706</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>50.79365079365079</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:50:47</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>3200</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>foglio</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P27" t="n">
-        <v>39764</v>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>2025-05-14 00:00:00</t>
-        </is>
-      </c>
-      <c r="R27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/sequenza.xlsx
+++ b/PS-VRP/Dati_output/sequenza.xlsx
@@ -671,7 +671,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251752</v>
+        <v>251362</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>35.28169014084507</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -701,11 +701,11 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-06-04 12:52:16</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2505</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -724,7 +724,7 @@
         <v>76</v>
       </c>
       <c r="N4" t="n">
-        <v>39846</v>
+        <v>39874</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -732,23 +732,23 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39846</v>
+        <v>39874</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.5118055555555555</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251218</v>
+        <v>251752</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -756,33 +756,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>96.90140845070422</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-06-04 12:52:16</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-04 12:38:00</t>
+          <t>2025-06-04 13:07:16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-04 12:38:00</t>
+          <t>2025-06-04 13:07:16</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-04 14:14:54</t>
+          <t>2025-06-04 13:07:16</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>6880</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,17 +791,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
         <v>76</v>
       </c>
       <c r="N5" t="n">
-        <v>39885</v>
+        <v>39846</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -809,15 +809,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39885</v>
+        <v>39846</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0</v>
+        <v>-0.5467233959259259</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251565</v>
+        <v>251218</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -833,33 +833,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>176.7464788732394</v>
+        <v>96.90140845070422</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-04 14:14:54</t>
+          <t>2025-06-04 13:07:16</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-04 14:52:54</t>
+          <t>2025-06-04 13:28:16</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-04 14:52:54</t>
+          <t>2025-06-04 13:28:16</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-05 09:49:38</t>
+          <t>2025-06-05 07:05:10</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>12549</v>
+        <v>6880</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,14 +868,14 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N6" t="n">
         <v>39885</v>
@@ -890,11 +890,11 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.409477699525463</v>
+        <v>-0.2952660406828704</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251500</v>
+        <v>251895</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -910,33 +910,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D7" t="n">
-        <v>139.3802816901408</v>
+        <v>249.2112676056338</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-05 09:49:38</t>
+          <t>2025-06-05 07:05:10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-05 10:08:38</t>
+          <t>2025-06-05 07:43:10</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-05 10:08:38</t>
+          <t>2025-06-05 07:43:10</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:28:01</t>
+          <t>2025-06-05 11:52:23</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>9896</v>
+        <v>17694</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -949,13 +949,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
-      <c r="N7" t="n">
-        <v>39885</v>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -963,7 +965,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39885</v>
+        <v>39891</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -971,49 +973,49 @@
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.5194640062615741</v>
+        <v>-10.49471830986111</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251070</v>
+        <v>251565</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>36.5</v>
+        <v>31</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>176.7464788732394</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-06-05 11:52:23</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-06-05 12:23:23</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-06-05 12:23:23</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-06-06 07:20:08</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>12549</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1022,11 +1024,11 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
@@ -1044,53 +1046,53 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-0.3170138888888889</v>
+        <v>-1.30565336462963</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251773</v>
+        <v>251780</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>32.5</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>342.2394366197183</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-06-06 07:20:08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-06-06 07:37:08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-06-06 07:37:08</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-06-06 13:19:22</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>24299</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1099,17 +1101,19 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="N9" t="n">
-        <v>39874</v>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1117,23 +1121,23 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39874</v>
+        <v>39887</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-25 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.3395833333333333</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251180</v>
+        <v>251500</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1141,33 +1145,33 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>36.5</v>
+        <v>32.5</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>179.9272727272727</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:45:30</t>
+          <t>2025-06-05 07:32:30</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:45:30</t>
+          <t>2025-06-05 07:32:30</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:45:30</t>
+          <t>2025-06-05 10:32:25</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>9896</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1176,7 +1180,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -1185,10 +1189,8 @@
       <c r="M10" t="n">
         <v>70</v>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+      <c r="N10" t="n">
+        <v>39885</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1196,23 +1198,23 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39887</v>
+        <v>39885</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-16.36493055555556</v>
+        <v>-0.4391856060648148</v>
       </c>
       <c r="S10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251895</v>
+        <v>251070</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1220,33 +1222,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>42.5</v>
+        <v>34.5</v>
       </c>
       <c r="D11" t="n">
-        <v>321.7090909090909</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-05 08:45:30</t>
+          <t>2025-06-05 10:32:25</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-06-05 09:28:00</t>
+          <t>2025-06-05 11:06:55</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-06-05 09:28:00</t>
+          <t>2025-06-05 11:06:55</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-06-05 14:49:42</t>
+          <t>2025-06-05 11:06:55</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>17694</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1259,15 +1261,13 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
+      <c r="N11" t="n">
+        <v>39885</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1275,23 +1275,23 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39891</v>
+        <v>39885</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-10.6178535353588</v>
+        <v>-0.4631439393981481</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251780</v>
+        <v>251773</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1299,33 +1299,33 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>44.5</v>
+        <v>32.5</v>
       </c>
       <c r="D12" t="n">
-        <v>441.8</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-06-05 14:49:42</t>
+          <t>2025-06-05 11:06:55</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-06 07:34:12</t>
+          <t>2025-06-05 11:39:25</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-06-06 07:34:12</t>
+          <t>2025-06-05 11:39:25</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-06-06 14:56:00</t>
+          <t>2025-06-05 11:39:25</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>24299</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1334,19 +1334,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+      <c r="N12" t="n">
+        <v>39874</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1354,23 +1352,23 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39887</v>
+        <v>39874</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-05-25 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0</v>
+        <v>-0.4857133838425925</v>
       </c>
       <c r="S12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>252112</v>
+        <v>252084</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1381,7 +1379,7 @@
         <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>204.1475409836065</v>
+        <v>641</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1400,11 +1398,11 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-06-04 10:44:08</t>
+          <t>2025-06-05 10:01:00</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>12453</v>
+        <v>39101</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1435,19 +1433,19 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
+        <v>-0.4173611111111111</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>252282</v>
+        <v>251984</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1455,33 +1453,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>44.88524590163934</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-04 10:44:08</t>
+          <t>2025-06-05 10:01:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-04 11:19:08</t>
+          <t>2025-06-05 10:26:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-04 11:19:08</t>
+          <t>2025-06-05 10:26:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-06-04 12:04:01</t>
+          <t>2025-06-06 08:04:19</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2738</v>
+        <v>20638</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1494,13 +1492,13 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1508,15 +1506,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
+        <v>-1.3363387978125</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -1524,7 +1522,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251984</v>
+        <v>252282</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1535,30 +1533,30 @@
         <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>338.327868852459</v>
+        <v>44.88524590163934</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-04 12:04:01</t>
+          <t>2025-06-06 08:04:19</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-06-04 12:34:01</t>
+          <t>2025-06-06 08:34:19</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-06-04 12:34:01</t>
+          <t>2025-06-06 08:34:19</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-06-05 10:12:21</t>
+          <t>2025-06-06 09:19:12</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>20638</v>
+        <v>2738</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1571,13 +1569,13 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1585,15 +1583,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.4252504553703704</v>
+        <v>-1.388342440798611</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -1601,41 +1599,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251362</v>
+        <v>251180</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>35.28169014084507</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-06-06 09:19:12</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-06-06 09:44:12</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-06-06 09:44:12</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:52:16</t>
+          <t>2025-06-06 09:44:12</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2505</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1644,17 +1642,19 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>76</v>
-      </c>
-      <c r="N16" t="n">
-        <v>39874</v>
+        <v>70</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1662,15 +1662,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39874</v>
+        <v>39887</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.3279733959259259</v>
+        <v>-17.40570355190972</v>
       </c>
       <c r="S16" t="n">
         <v>7</v>
@@ -1686,29 +1686,29 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
         <v>146.056338028169</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-06-05 07:52:16</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-06-05 08:07:16</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-06-05 08:07:16</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-06-05 10:33:20</t>
+          <t>2025-06-05 09:43:03</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.4398180751157408</v>
+        <v>-0.4049002347453703</v>
       </c>
       <c r="S17" t="n">
         <v>2</v>
@@ -1770,22 +1770,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-06-05 10:33:20</t>
+          <t>2025-06-05 09:43:03</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-06-05 11:09:20</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-06-05 11:09:20</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-06-06 12:34:41</t>
+          <t>2025-06-06 11:44:24</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1824,7 +1824,7 @@
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.524090375590278</v>
+        <v>-1.489172535208333</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>252084</v>
+        <v>252112</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>40</v>
       </c>
       <c r="D19" t="n">
-        <v>797.9795918367347</v>
+        <v>254.1428571428571</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1862,11 +1862,11 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-06-05 12:57:58</t>
+          <t>2025-06-04 11:54:08</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>39101</v>
+        <v>12453</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1897,14 +1897,14 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-06-30 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.5402636054398148</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">

--- a/PS-VRP/Dati_output/sequenza.xlsx
+++ b/PS-VRP/Dati_output/sequenza.xlsx
@@ -748,7 +748,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251752</v>
+        <v>251218</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>96.90140845070422</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -768,21 +768,21 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-04 13:07:16</t>
+          <t>2025-06-04 13:13:16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-04 13:07:16</t>
+          <t>2025-06-04 13:13:16</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-04 13:07:16</t>
+          <t>2025-06-04 14:50:10</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>6880</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,17 +791,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>76</v>
       </c>
       <c r="N5" t="n">
-        <v>39846</v>
+        <v>39885</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -809,15 +809,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39846</v>
+        <v>39885</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.5467233959259259</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251218</v>
+        <v>251180</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -833,33 +833,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
-        <v>96.90140845070422</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-04 13:07:16</t>
+          <t>2025-06-04 14:50:10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-04 13:28:16</t>
+          <t>2025-06-05 07:24:10</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-04 13:28:16</t>
+          <t>2025-06-05 07:24:10</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-05 07:05:10</t>
+          <t>2025-06-05 07:24:10</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>6880</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,17 +868,19 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
-      </c>
-      <c r="N6" t="n">
-        <v>39885</v>
+        <v>70</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -886,23 +888,23 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39885</v>
+        <v>39887</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.2952660406828704</v>
+        <v>-16.30846048512732</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251895</v>
+        <v>251780</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -910,33 +912,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>249.2112676056338</v>
+        <v>342.2394366197183</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-05 07:05:10</t>
+          <t>2025-06-05 07:24:10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-05 07:43:10</t>
+          <t>2025-06-05 07:41:10</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-05 07:43:10</t>
+          <t>2025-06-05 07:41:10</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-05 11:52:23</t>
+          <t>2025-06-05 13:23:25</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>17694</v>
+        <v>24299</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -945,18 +947,18 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>39891 (esterno)</t>
+          <t>39887 (esterno)</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -965,23 +967,23 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39891</v>
+        <v>39887</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-10.49471830986111</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251565</v>
+        <v>251895</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -989,33 +991,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
-        <v>176.7464788732394</v>
+        <v>249.2112676056338</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-05 11:52:23</t>
+          <t>2025-06-05 13:23:25</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:23:23</t>
+          <t>2025-06-05 13:52:25</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:23:23</t>
+          <t>2025-06-05 13:52:25</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-06 07:20:08</t>
+          <t>2025-06-06 10:01:38</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>12549</v>
+        <v>17694</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1024,17 +1026,19 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
-      <c r="N8" t="n">
-        <v>39885</v>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1042,57 +1046,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39885</v>
+        <v>39891</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.30565336462963</v>
+        <v>-11.41780125195602</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251780</v>
+        <v>251500</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>32.5</v>
       </c>
       <c r="D9" t="n">
-        <v>342.2394366197183</v>
+        <v>179.9272727272727</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-06 07:20:08</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-06 07:37:08</t>
+          <t>2025-06-05 07:32:30</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-06 07:37:08</t>
+          <t>2025-06-05 07:32:30</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-06 13:19:22</t>
+          <t>2025-06-05 10:32:25</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>24299</v>
+        <v>9896</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1101,19 +1105,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+      <c r="N9" t="n">
+        <v>39885</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1121,23 +1123,23 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39887</v>
+        <v>39885</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>0</v>
+        <v>-0.4391856060648148</v>
       </c>
       <c r="S9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251500</v>
+        <v>252282</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1148,30 +1150,30 @@
         <v>32.5</v>
       </c>
       <c r="D10" t="n">
-        <v>179.9272727272727</v>
+        <v>49.78181818181818</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-06-05 10:32:25</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-06-05 11:04:55</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-06-05 11:04:55</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-06-05 10:32:25</t>
+          <t>2025-06-05 11:54:42</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>9896</v>
+        <v>2738</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1180,11 +1182,11 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
@@ -1202,14 +1204,14 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.4391856060648148</v>
+        <v>-0.4963257575810185</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1222,29 +1224,29 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>34.5</v>
+        <v>32.5</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-05 10:32:25</t>
+          <t>2025-06-05 11:54:42</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-06-05 11:06:55</t>
+          <t>2025-06-05 12:27:12</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-06-05 11:06:55</t>
+          <t>2025-06-05 12:27:12</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-06-05 11:06:55</t>
+          <t>2025-06-05 12:27:12</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1283,7 +1285,7 @@
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-0.4631439393981481</v>
+        <v>-0.5188952020254629</v>
       </c>
       <c r="S11" t="n">
         <v>2</v>
@@ -1306,22 +1308,22 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:06:55</t>
+          <t>2025-06-05 12:27:12</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:39:25</t>
+          <t>2025-06-05 12:59:42</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:39:25</t>
+          <t>2025-06-05 12:59:42</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:39:25</t>
+          <t>2025-06-05 12:59:42</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1360,7 +1362,7 @@
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.4857133838425925</v>
+        <v>-0.5414646464699074</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1368,7 +1370,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>252084</v>
+        <v>251565</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1379,7 +1381,7 @@
         <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>641</v>
+        <v>205.7213114754098</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1398,11 +1400,11 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-06-05 10:01:00</t>
+          <t>2025-06-04 10:45:43</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>39101</v>
+        <v>12549</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1433,19 +1435,19 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-06-30 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-0.4173611111111111</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251984</v>
+        <v>252084</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1453,33 +1455,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>338.327868852459</v>
+        <v>641</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-05 10:01:00</t>
+          <t>2025-06-04 10:45:43</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-05 10:26:00</t>
+          <t>2025-06-04 11:05:43</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-05 10:26:00</t>
+          <t>2025-06-04 11:05:43</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-06-06 08:04:19</t>
+          <t>2025-06-05 13:46:43</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>20638</v>
+        <v>39101</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1492,13 +1494,13 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1506,23 +1508,23 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-1.3363387978125</v>
+        <v>-0.5741120218634259</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>252282</v>
+        <v>251984</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1530,33 +1532,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>44.88524590163934</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-06 08:04:19</t>
+          <t>2025-06-05 13:46:43</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-06-06 08:34:19</t>
+          <t>2025-06-05 14:11:43</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-06-06 08:34:19</t>
+          <t>2025-06-05 14:11:43</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-06-06 09:19:12</t>
+          <t>2025-06-06 11:50:02</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2738</v>
+        <v>20638</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1569,13 +1571,13 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1583,15 +1585,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-1.388342440798611</v>
+        <v>-1.493089708564815</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -1599,37 +1601,37 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251180</v>
+        <v>251752</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-06-06 09:19:12</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-06-06 09:44:12</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-06-06 09:44:12</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-06-06 09:44:12</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1642,19 +1644,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N16" t="n">
+        <v>39846</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39887</v>
+        <v>39846</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1670,10 +1670,10 @@
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-17.40570355190972</v>
+        <v>-1.303472222222222</v>
       </c>
       <c r="S16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1686,29 +1686,29 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
         <v>146.056338028169</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-06-05 07:32:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-06-05 07:32:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-06-05 09:43:03</t>
+          <t>2025-06-05 09:58:03</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.4049002347453703</v>
+        <v>-0.415316901412037</v>
       </c>
       <c r="S17" t="n">
         <v>2</v>
@@ -1770,22 +1770,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-06-05 09:43:03</t>
+          <t>2025-06-05 09:58:03</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-06-05 10:19:03</t>
+          <t>2025-06-05 10:34:03</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-06-05 10:19:03</t>
+          <t>2025-06-05 10:34:03</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-06-06 11:44:24</t>
+          <t>2025-06-06 11:59:24</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1824,7 +1824,7 @@
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.489172535208333</v>
+        <v>-1.499589201875</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>

--- a/PS-VRP/Dati_output/sequenza.xlsx
+++ b/PS-VRP/Dati_output/sequenza.xlsx
@@ -748,7 +748,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251218</v>
+        <v>251752</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>96.90140845070422</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -768,21 +768,21 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-04 13:13:16</t>
+          <t>2025-06-04 13:07:16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-04 13:13:16</t>
+          <t>2025-06-04 13:07:16</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-04 14:50:10</t>
+          <t>2025-06-04 13:07:16</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>6880</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,17 +791,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
         <v>76</v>
       </c>
       <c r="N5" t="n">
-        <v>39885</v>
+        <v>39846</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -809,15 +809,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39885</v>
+        <v>39846</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0</v>
+        <v>-0.5467233959259259</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251180</v>
+        <v>251895</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -833,33 +833,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>249.2112676056338</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-04 14:50:10</t>
+          <t>2025-06-04 13:07:16</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-05 07:24:10</t>
+          <t>2025-06-04 13:51:16</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-05 07:24:10</t>
+          <t>2025-06-04 13:51:16</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-05 07:24:10</t>
+          <t>2025-06-05 10:00:29</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>17694</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,18 +868,18 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>39887 (esterno)</t>
+          <t>39891 (esterno)</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -888,23 +888,23 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39887</v>
+        <v>39891</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-16.30846048512732</v>
+        <v>-10.4170089984375</v>
       </c>
       <c r="S6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251780</v>
+        <v>251218</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -912,33 +912,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D7" t="n">
-        <v>342.2394366197183</v>
+        <v>96.90140845070422</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-05 07:24:10</t>
+          <t>2025-06-05 10:00:29</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-05 07:41:10</t>
+          <t>2025-06-05 10:38:29</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-05 07:41:10</t>
+          <t>2025-06-05 10:38:29</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-05 13:23:25</t>
+          <t>2025-06-05 12:15:23</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>24299</v>
+        <v>6880</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -947,19 +947,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N7" t="n">
+        <v>39885</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -967,23 +965,23 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39887</v>
+        <v>39885</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0</v>
+        <v>-0.5106905320833334</v>
       </c>
       <c r="S7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251895</v>
+        <v>251565</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -991,33 +989,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D8" t="n">
-        <v>249.2112676056338</v>
+        <v>176.7464788732394</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-05 13:23:25</t>
+          <t>2025-06-05 12:15:23</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-05 13:52:25</t>
+          <t>2025-06-05 12:53:23</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-05 13:52:25</t>
+          <t>2025-06-05 12:53:23</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-06 10:01:38</t>
+          <t>2025-06-06 07:50:08</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>17694</v>
+        <v>12549</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1026,19 +1024,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
+      <c r="N8" t="n">
+        <v>39885</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1046,57 +1042,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39891</v>
+        <v>39885</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-11.41780125195602</v>
+        <v>-1.326486697962963</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251500</v>
+        <v>251780</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>32.5</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>179.9272727272727</v>
+        <v>342.2394366197183</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-06-06 07:50:08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-06-06 08:07:08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-06-06 08:07:08</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-05 10:32:25</t>
+          <t>2025-06-06 13:49:22</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>9896</v>
+        <v>24299</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1105,17 +1101,19 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="N9" t="n">
-        <v>39885</v>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1123,23 +1121,23 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39885</v>
+        <v>39887</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.4391856060648148</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>252282</v>
+        <v>251500</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1150,30 +1148,30 @@
         <v>32.5</v>
       </c>
       <c r="D10" t="n">
-        <v>49.78181818181818</v>
+        <v>179.9272727272727</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>2025-06-05 07:00:00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-06-05 07:32:30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2025-06-05 07:32:30</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>2025-06-05 10:32:25</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2025-06-05 11:04:55</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2025-06-05 11:04:55</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-06-05 11:54:42</t>
-        </is>
-      </c>
       <c r="I10" t="n">
-        <v>2738</v>
+        <v>9896</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1182,11 +1180,11 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
@@ -1204,14 +1202,14 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.4963257575810185</v>
+        <v>-0.4391856060648148</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1224,29 +1222,29 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>32.5</v>
+        <v>34.5</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-05 11:54:42</t>
+          <t>2025-06-05 10:32:25</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-06-05 12:27:12</t>
+          <t>2025-06-05 11:06:55</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-06-05 12:27:12</t>
+          <t>2025-06-05 11:06:55</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-06-05 12:27:12</t>
+          <t>2025-06-05 11:06:55</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1285,7 +1283,7 @@
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-0.5188952020254629</v>
+        <v>-0.4631439393981481</v>
       </c>
       <c r="S11" t="n">
         <v>2</v>
@@ -1308,22 +1306,22 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-06-05 12:27:12</t>
+          <t>2025-06-05 11:06:55</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-05 12:59:42</t>
+          <t>2025-06-05 11:39:25</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-06-05 12:59:42</t>
+          <t>2025-06-05 11:39:25</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-06-05 12:59:42</t>
+          <t>2025-06-05 11:39:25</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1362,7 +1360,7 @@
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.5414646464699074</v>
+        <v>-0.4857133838425925</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1370,7 +1368,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251565</v>
+        <v>251984</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1378,10 +1376,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>205.7213114754098</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1390,21 +1388,21 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-06-04 07:25:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-06-04 07:25:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-06-04 10:45:43</t>
+          <t>2025-06-04 13:03:19</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>12549</v>
+        <v>20638</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1417,13 +1415,13 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1431,7 +1429,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1447,7 +1445,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>252084</v>
+        <v>251180</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1455,33 +1453,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>641</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-04 10:45:43</t>
+          <t>2025-06-04 13:03:19</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-04 11:05:43</t>
+          <t>2025-06-04 13:28:19</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-04 11:05:43</t>
+          <t>2025-06-04 13:28:19</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-06-05 13:46:43</t>
+          <t>2025-06-04 13:28:19</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>39101</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1494,13 +1492,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
-      <c r="N14" t="n">
-        <v>39885</v>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1508,15 +1508,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39885</v>
+        <v>39887</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-06-30 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.5741120218634259</v>
+        <v>-15.5613387978125</v>
       </c>
       <c r="S14" t="n">
         <v>7</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251984</v>
+        <v>252282</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1535,30 +1535,30 @@
         <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>338.327868852459</v>
+        <v>44.88524590163934</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-05 13:46:43</t>
+          <t>2025-06-04 13:28:19</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-06-05 14:11:43</t>
+          <t>2025-06-04 13:53:19</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-06-05 14:11:43</t>
+          <t>2025-06-04 13:53:19</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-06-06 11:50:02</t>
+          <t>2025-06-04 14:38:12</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>20638</v>
+        <v>2738</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1571,13 +1571,13 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1585,15 +1585,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-1.493089708564815</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -1601,41 +1601,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251752</v>
+        <v>252084</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>641</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-06-04 14:38:12</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-06-05 07:13:12</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-06-05 07:13:12</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-06-06 09:54:12</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>39101</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1644,17 +1644,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>39846</v>
+        <v>39885</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1662,18 +1662,18 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39846</v>
+        <v>39885</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-1.303472222222222</v>
+        <v>-1.412647996354166</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1686,29 +1686,29 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
         <v>146.056338028169</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>2025-06-05 07:00:00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>2025-06-05 07:17:00</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:32:00</t>
-        </is>
-      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:00</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-06-05 09:58:03</t>
+          <t>2025-06-05 09:43:03</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.415316901412037</v>
+        <v>-0.4049002347453703</v>
       </c>
       <c r="S17" t="n">
         <v>2</v>
@@ -1770,22 +1770,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-06-05 09:58:03</t>
+          <t>2025-06-05 09:43:03</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-06-05 10:34:03</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-06-05 10:34:03</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-06-06 11:59:24</t>
+          <t>2025-06-06 11:44:24</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1824,7 +1824,7 @@
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.499589201875</v>
+        <v>-1.489172535208333</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>

--- a/PS-VRP/Dati_output/sequenza.xlsx
+++ b/PS-VRP/Dati_output/sequenza.xlsx
@@ -825,7 +825,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251895</v>
+        <v>251218</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -833,10 +833,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>249.2112676056338</v>
+        <v>96.90140845070422</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -845,21 +845,21 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-04 13:51:16</t>
+          <t>2025-06-04 13:28:16</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-04 13:51:16</t>
+          <t>2025-06-04 13:28:16</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-05 10:00:29</t>
+          <t>2025-06-05 07:05:10</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>17694</v>
+        <v>6880</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,19 +868,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N6" t="n">
+        <v>39885</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -888,23 +886,23 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39891</v>
+        <v>39885</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-10.4170089984375</v>
+        <v>-0.2952660406828704</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251218</v>
+        <v>251895</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -915,30 +913,30 @@
         <v>38</v>
       </c>
       <c r="D7" t="n">
-        <v>96.90140845070422</v>
+        <v>249.2112676056338</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-05 10:00:29</t>
+          <t>2025-06-05 07:05:10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-05 10:38:29</t>
+          <t>2025-06-05 07:43:10</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-05 10:38:29</t>
+          <t>2025-06-05 07:43:10</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:15:23</t>
+          <t>2025-06-05 11:52:23</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>6880</v>
+        <v>17694</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -947,17 +945,19 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
-      </c>
-      <c r="N7" t="n">
-        <v>39885</v>
+        <v>70</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -965,18 +965,18 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39885</v>
+        <v>39891</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.5106905320833334</v>
+        <v>-10.49471830986111</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -989,29 +989,29 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D8" t="n">
         <v>176.7464788732394</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:15:23</t>
+          <t>2025-06-05 11:52:23</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:53:23</t>
+          <t>2025-06-05 12:23:23</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:53:23</t>
+          <t>2025-06-05 12:23:23</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-06 07:50:08</t>
+          <t>2025-06-06 07:20:08</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.326486697962963</v>
+        <v>-1.30565336462963</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1073,22 +1073,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-06 07:50:08</t>
+          <t>2025-06-06 07:20:08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-06 08:07:08</t>
+          <t>2025-06-06 07:37:08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-06 08:07:08</t>
+          <t>2025-06-06 07:37:08</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-06 13:49:22</t>
+          <t>2025-06-06 13:19:22</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1368,7 +1368,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251984</v>
+        <v>252084</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1376,10 +1376,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>338.327868852459</v>
+        <v>641</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1388,21 +1388,21 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-06-04 07:25:00</t>
+          <t>2025-06-04 07:20:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-06-04 07:25:00</t>
+          <t>2025-06-04 07:20:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-06-04 13:03:19</t>
+          <t>2025-06-05 10:01:00</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>20638</v>
+        <v>39101</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1415,13 +1415,13 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1429,23 +1429,23 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
+        <v>-0.4173611111111111</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251180</v>
+        <v>251984</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1456,30 +1456,30 @@
         <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-04 13:03:19</t>
+          <t>2025-06-05 10:01:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-04 13:28:19</t>
+          <t>2025-06-05 10:26:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-04 13:28:19</t>
+          <t>2025-06-05 10:26:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-06-04 13:28:19</t>
+          <t>2025-06-06 08:04:19</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>20638</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1492,15 +1492,13 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+      <c r="N14" t="n">
+        <v>39874</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1508,18 +1506,18 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39887</v>
+        <v>39874</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-15.5613387978125</v>
+        <v>-1.3363387978125</v>
       </c>
       <c r="S14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1532,29 +1530,29 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
         <v>44.88524590163934</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-04 13:28:19</t>
+          <t>2025-06-06 08:04:19</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-06-04 13:53:19</t>
+          <t>2025-06-06 08:34:19</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-06-04 13:53:19</t>
+          <t>2025-06-06 08:34:19</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-06-04 14:38:12</t>
+          <t>2025-06-06 09:19:12</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1593,7 +1591,7 @@
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0</v>
+        <v>-1.388342440798611</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -1601,7 +1599,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>252084</v>
+        <v>251180</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1609,33 +1607,33 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>641</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-06-04 14:38:12</t>
+          <t>2025-06-06 09:19:12</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:13:12</t>
+          <t>2025-06-06 09:44:12</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:13:12</t>
+          <t>2025-06-06 09:44:12</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-06-06 09:54:12</t>
+          <t>2025-06-06 09:44:12</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>39101</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1648,13 +1646,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
-      <c r="N16" t="n">
-        <v>39885</v>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1662,15 +1662,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39885</v>
+        <v>39887</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-06-30 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-1.412647996354166</v>
+        <v>-17.40570355190972</v>
       </c>
       <c r="S16" t="n">
         <v>7</v>

--- a/PS-VRP/Dati_output/sequenza.xlsx
+++ b/PS-VRP/Dati_output/sequenza.xlsx
@@ -825,7 +825,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251218</v>
+        <v>251895</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -833,10 +833,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D6" t="n">
-        <v>96.90140845070422</v>
+        <v>249.2112676056338</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -845,21 +845,21 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-04 13:28:16</t>
+          <t>2025-06-04 13:51:16</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-04 13:28:16</t>
+          <t>2025-06-04 13:51:16</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-05 07:05:10</t>
+          <t>2025-06-05 10:00:29</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>6880</v>
+        <v>17694</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,17 +868,19 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
-      </c>
-      <c r="N6" t="n">
-        <v>39885</v>
+        <v>70</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -886,23 +888,23 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39885</v>
+        <v>39891</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.2952660406828704</v>
+        <v>-10.4170089984375</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251895</v>
+        <v>251218</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -913,30 +915,30 @@
         <v>38</v>
       </c>
       <c r="D7" t="n">
-        <v>249.2112676056338</v>
+        <v>96.90140845070422</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-05 07:05:10</t>
+          <t>2025-06-05 10:00:29</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-05 07:43:10</t>
+          <t>2025-06-05 10:38:29</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-05 07:43:10</t>
+          <t>2025-06-05 10:38:29</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-05 11:52:23</t>
+          <t>2025-06-05 12:15:23</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>17694</v>
+        <v>6880</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -945,19 +947,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N7" t="n">
+        <v>39885</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -965,18 +965,18 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39891</v>
+        <v>39885</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-10.49471830986111</v>
+        <v>-0.5106905320833334</v>
       </c>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -989,29 +989,29 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D8" t="n">
         <v>176.7464788732394</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-05 11:52:23</t>
+          <t>2025-06-05 12:15:23</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:23:23</t>
+          <t>2025-06-05 12:53:23</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:23:23</t>
+          <t>2025-06-05 12:53:23</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-06 07:20:08</t>
+          <t>2025-06-06 07:50:08</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.30565336462963</v>
+        <v>-1.326486697962963</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1073,22 +1073,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-06 07:20:08</t>
+          <t>2025-06-06 07:50:08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-06 07:37:08</t>
+          <t>2025-06-06 08:07:08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-06 07:37:08</t>
+          <t>2025-06-06 08:07:08</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-06 13:19:22</t>
+          <t>2025-06-06 13:49:22</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1445,7 +1445,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251984</v>
+        <v>252282</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D14" t="n">
-        <v>338.327868852459</v>
+        <v>44.88524590163934</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1465,21 +1465,21 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-05 10:26:00</t>
+          <t>2025-06-05 10:36:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-05 10:26:00</t>
+          <t>2025-06-05 10:36:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-06-06 08:04:19</t>
+          <t>2025-06-05 11:20:53</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>20638</v>
+        <v>2738</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1492,13 +1492,13 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1506,15 +1506,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-1.3363387978125</v>
+        <v>-0.4728369763194445</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>252282</v>
+        <v>251180</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1530,33 +1530,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>44.88524590163934</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-06 08:04:19</t>
+          <t>2025-06-05 11:20:53</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-06-06 08:34:19</t>
+          <t>2025-06-05 11:45:53</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-06-06 08:34:19</t>
+          <t>2025-06-05 11:45:53</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-06-06 09:19:12</t>
+          <t>2025-06-05 11:45:53</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2738</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1569,13 +1569,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
-      <c r="N15" t="n">
-        <v>39885</v>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1583,23 +1585,23 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39885</v>
+        <v>39887</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-1.388342440798611</v>
+        <v>-16.49019808743056</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251180</v>
+        <v>251984</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1610,30 +1612,30 @@
         <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-06-06 09:19:12</t>
+          <t>2025-06-05 11:45:53</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-06-06 09:44:12</t>
+          <t>2025-06-05 12:10:53</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-06-06 09:44:12</t>
+          <t>2025-06-05 12:10:53</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-06-06 09:44:12</t>
+          <t>2025-06-06 09:49:12</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>20638</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1646,15 +1648,13 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+      <c r="N16" t="n">
+        <v>39874</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1662,18 +1662,18 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39887</v>
+        <v>39874</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-17.40570355190972</v>
+        <v>-1.409175774131944</v>
       </c>
       <c r="S16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">

--- a/PS-VRP/Dati_output/sequenza.xlsx
+++ b/PS-VRP/Dati_output/sequenza.xlsx
@@ -1368,7 +1368,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>252084</v>
+        <v>251984</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1376,10 +1376,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>641</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1388,21 +1388,21 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-06-04 07:25:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-06-04 07:25:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-06-05 10:01:00</t>
+          <t>2025-06-04 13:03:19</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>39101</v>
+        <v>20638</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1415,13 +1415,13 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1429,23 +1429,23 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-06-30 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-0.4173611111111111</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>252282</v>
+        <v>251180</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1453,33 +1453,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>44.88524590163934</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-05 10:01:00</t>
+          <t>2025-06-04 13:03:19</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-05 10:36:00</t>
+          <t>2025-06-04 13:28:19</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-05 10:36:00</t>
+          <t>2025-06-04 13:28:19</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-06-05 11:20:53</t>
+          <t>2025-06-04 13:28:19</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2738</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1492,13 +1492,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
-      <c r="N14" t="n">
-        <v>39885</v>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1506,23 +1508,23 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39885</v>
+        <v>39887</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.4728369763194445</v>
+        <v>-15.5613387978125</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251180</v>
+        <v>252282</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1533,30 +1535,30 @@
         <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>44.88524590163934</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-05 11:20:53</t>
+          <t>2025-06-04 13:28:19</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-06-05 11:45:53</t>
+          <t>2025-06-04 13:53:19</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-06-05 11:45:53</t>
+          <t>2025-06-04 13:53:19</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-06-05 11:45:53</t>
+          <t>2025-06-04 14:38:12</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2738</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1569,15 +1571,13 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+      <c r="N15" t="n">
+        <v>39885</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1585,23 +1585,23 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39887</v>
+        <v>39885</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-16.49019808743056</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251984</v>
+        <v>252084</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1609,33 +1609,33 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D16" t="n">
-        <v>338.327868852459</v>
+        <v>641</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-06-05 11:45:53</t>
+          <t>2025-06-04 14:38:12</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-06-05 12:10:53</t>
+          <t>2025-06-05 07:13:12</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-06-05 12:10:53</t>
+          <t>2025-06-05 07:13:12</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-06-06 09:49:12</t>
+          <t>2025-06-06 09:54:12</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>20638</v>
+        <v>39101</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1662,18 +1662,18 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-1.409175774131944</v>
+        <v>-1.412647996354166</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">

--- a/PS-VRP/Dati_output/sequenza.xlsx
+++ b/PS-VRP/Dati_output/sequenza.xlsx
@@ -671,7 +671,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251362</v>
+        <v>251752</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>35.28169014084507</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -701,11 +701,11 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:52:16</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2505</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -724,7 +724,7 @@
         <v>76</v>
       </c>
       <c r="N4" t="n">
-        <v>39874</v>
+        <v>39846</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -732,23 +732,23 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39874</v>
+        <v>39846</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>-0.5118055555555555</v>
       </c>
       <c r="S4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251752</v>
+        <v>251218</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -756,33 +756,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>96.90140845070422</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-06-04 12:52:16</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-04 13:07:16</t>
+          <t>2025-06-04 12:38:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-04 13:07:16</t>
+          <t>2025-06-04 12:38:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-04 13:07:16</t>
+          <t>2025-06-04 14:14:54</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>6880</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,17 +791,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>76</v>
       </c>
       <c r="N5" t="n">
-        <v>39846</v>
+        <v>39885</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -809,15 +809,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39846</v>
+        <v>39885</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.5467233959259259</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251218</v>
+        <v>251895</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -833,33 +833,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>96.90140845070422</v>
+        <v>249.2112676056338</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-04 13:07:16</t>
+          <t>2025-06-04 14:14:54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-04 13:28:16</t>
+          <t>2025-06-04 14:52:54</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-04 13:28:16</t>
+          <t>2025-06-04 14:52:54</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-05 07:05:10</t>
+          <t>2025-06-05 11:02:06</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>6880</v>
+        <v>17694</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,17 +868,19 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
-      </c>
-      <c r="N6" t="n">
-        <v>39885</v>
+        <v>70</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -886,23 +888,23 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39885</v>
+        <v>39891</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.2952660406828704</v>
+        <v>-10.45980046947917</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251895</v>
+        <v>251565</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -910,33 +912,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
-        <v>249.2112676056338</v>
+        <v>176.7464788732394</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-05 07:05:10</t>
+          <t>2025-06-05 11:02:06</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-05 07:43:10</t>
+          <t>2025-06-05 11:33:06</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-05 07:43:10</t>
+          <t>2025-06-05 11:33:06</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-05 11:52:23</t>
+          <t>2025-06-05 14:29:51</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>17694</v>
+        <v>12549</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -945,19 +947,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
+      <c r="N7" t="n">
+        <v>39885</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -965,23 +965,23 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39891</v>
+        <v>39885</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-10.49471830986111</v>
+        <v>-0.6040688575925925</v>
       </c>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251565</v>
+        <v>251362</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -989,33 +989,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>176.7464788732394</v>
+        <v>35.28169014084507</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-05 11:52:23</t>
+          <t>2025-06-05 14:29:51</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:23:23</t>
+          <t>2025-06-06 07:01:51</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:23:23</t>
+          <t>2025-06-06 07:01:51</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-06 07:20:08</t>
+          <t>2025-06-06 07:37:08</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>12549</v>
+        <v>2505</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1024,17 +1024,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N8" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1042,18 +1042,18 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.30565336462963</v>
+        <v>-1.317458920185185</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1066,29 +1066,29 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
         <v>342.2394366197183</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-06 07:20:08</t>
+          <t>2025-06-06 07:37:08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-06 07:37:08</t>
+          <t>2025-06-06 08:07:08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-06 07:37:08</t>
+          <t>2025-06-06 08:07:08</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-06 13:19:22</t>
+          <t>2025-06-06 13:49:22</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1137,7 +1137,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251500</v>
+        <v>251070</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1145,10 +1145,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>32.5</v>
+        <v>36.5</v>
       </c>
       <c r="D10" t="n">
-        <v>179.9272727272727</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1157,21 +1157,21 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-06-05 10:32:25</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>9896</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
@@ -1202,11 +1202,11 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.4391856060648148</v>
+        <v>-0.3170138888888889</v>
       </c>
       <c r="S10" t="n">
         <v>2</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251070</v>
+        <v>251773</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1222,29 +1222,29 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>34.5</v>
+        <v>32.5</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-05 10:32:25</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-06-05 11:06:55</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-06-05 11:06:55</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-06-05 11:06:55</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1257,17 +1257,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1275,23 +1275,23 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-25 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-0.4631439393981481</v>
+        <v>-0.3395833333333333</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251773</v>
+        <v>251500</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1299,33 +1299,33 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>32.5</v>
+        <v>36.5</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>179.9272727272727</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:06:55</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:39:25</t>
+          <t>2025-06-05 08:45:30</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:39:25</t>
+          <t>2025-06-05 08:45:30</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:39:25</t>
+          <t>2025-06-05 11:45:25</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>9896</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1334,17 +1334,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
       <c r="N12" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1352,23 +1352,23 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-25 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.4857133838425925</v>
+        <v>-0.4898800505092593</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>252084</v>
+        <v>251180</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1376,10 +1376,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>641</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1388,21 +1388,21 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-06-05 10:01:00</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>39101</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1415,13 +1415,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
-      <c r="N13" t="n">
-        <v>39885</v>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1429,15 +1431,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39885</v>
+        <v>39887</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-06-30 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-0.4173611111111111</v>
+        <v>-15.3125</v>
       </c>
       <c r="S13" t="n">
         <v>7</v>
@@ -1445,7 +1447,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251984</v>
+        <v>252282</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1456,30 +1458,30 @@
         <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>338.327868852459</v>
+        <v>44.88524590163934</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-05 10:01:00</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-05 10:26:00</t>
+          <t>2025-06-04 07:55:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-05 10:26:00</t>
+          <t>2025-06-04 07:55:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-06-06 08:04:19</t>
+          <t>2025-06-04 08:39:53</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>20638</v>
+        <v>2738</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1492,13 +1494,13 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1506,15 +1508,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-1.3363387978125</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -1522,7 +1524,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>252282</v>
+        <v>251984</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1533,30 +1535,30 @@
         <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>44.88524590163934</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-06 08:04:19</t>
+          <t>2025-06-04 08:39:53</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-06-06 08:34:19</t>
+          <t>2025-06-04 09:09:53</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-06-06 08:34:19</t>
+          <t>2025-06-04 09:09:53</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-06-06 09:19:12</t>
+          <t>2025-06-04 14:48:12</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2738</v>
+        <v>20638</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1569,13 +1571,13 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1583,15 +1585,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-1.388342440798611</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -1599,7 +1601,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251180</v>
+        <v>252084</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1610,30 +1612,30 @@
         <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>641</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-06-06 09:19:12</t>
+          <t>2025-06-04 14:48:12</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-06-06 09:44:12</t>
+          <t>2025-06-05 07:13:12</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-06-06 09:44:12</t>
+          <t>2025-06-05 07:13:12</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-06-06 09:44:12</t>
+          <t>2025-06-06 09:54:12</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>39101</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1646,15 +1648,13 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+      <c r="N16" t="n">
+        <v>39885</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1662,15 +1662,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39887</v>
+        <v>39885</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-17.40570355190972</v>
+        <v>-1.412647996354166</v>
       </c>
       <c r="S16" t="n">
         <v>7</v>

--- a/PS-VRP/Dati_output/sequenza.xlsx
+++ b/PS-VRP/Dati_output/sequenza.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251219</v>
+        <v>251371</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -523,33 +523,33 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>107.5</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-06-05 12:00:00</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-06-05 12:36:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-06-05 12:36:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-06-05 14:23:30</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>6880</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,17 +558,19 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>76</v>
-      </c>
-      <c r="N2" t="n">
-        <v>39885</v>
+        <v>70</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -576,57 +578,57 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39885</v>
+        <v>39666</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-0.5996527777777778</v>
+        <v>-13.30486111111111</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251897</v>
+        <v>251395</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>305.0327868852459</v>
+        <v>35.34375</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-06-05 07:54:00</t>
+          <t>2025-05-07 07:38:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-05 07:54:00</t>
+          <t>2025-05-07 07:38:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-06-05 12:59:01</t>
+          <t>2025-05-07 08:13:20</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>18607</v>
+        <v>2262</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -635,19 +637,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
+      <c r="N3" t="n">
+        <v>39749</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -655,57 +655,57 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39891</v>
+        <v>39749</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-10.54099499089121</v>
+        <v>-0.3425998263888889</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251362</v>
+        <v>251391</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>35.28169014084507</v>
+        <v>91.640625</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:00:00</t>
+          <t>2025-05-07 08:13:20</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-05-07 08:30:20</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-05-07 08:30:20</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:52:16</t>
+          <t>2025-05-07 10:01:59</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2505</v>
+        <v>5865</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -714,17 +714,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>39874</v>
+        <v>39749</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -732,15 +732,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39874</v>
+        <v>39749</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>-0.4180447048611111</v>
       </c>
       <c r="S4" t="n">
         <v>7</v>
@@ -748,41 +748,41 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251752</v>
+        <v>251455</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>82.765625</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-06-04 12:52:16</t>
+          <t>2025-05-07 10:01:59</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-04 13:07:16</t>
+          <t>2025-05-07 10:18:59</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-04 13:07:16</t>
+          <t>2025-05-07 10:18:59</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-04 13:07:16</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>5297</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,17 +791,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>39846</v>
+        <v>39749</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -809,57 +809,57 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39846</v>
+        <v>39749</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.5467233959259259</v>
+        <v>-0.4873263888888889</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251895</v>
+        <v>251396</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>249.2112676056338</v>
+        <v>35.34375</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-04 13:07:16</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-04 13:51:16</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-04 13:51:16</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-05 10:00:29</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>17694</v>
+        <v>2262</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,19 +868,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
+      <c r="N6" t="n">
+        <v>39749</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -888,57 +886,57 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39891</v>
+        <v>39749</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-10.4170089984375</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251218</v>
+        <v>251548</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>96.90140845070422</v>
+        <v>206.90625</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-05 10:00:29</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-05 10:38:29</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-05 10:38:29</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:15:23</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>6880</v>
+        <v>13242</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -947,17 +945,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -965,57 +963,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.5106905320833334</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251565</v>
+        <v>250923</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>176.7464788732394</v>
+        <v>109.46875</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:15:23</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:53:23</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:53:23</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-06 07:50:08</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>12549</v>
+        <v>7006</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1024,75 +1022,75 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>76</v>
+      </c>
+      <c r="N8" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>39749</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>2025-04-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="R8" s="1" t="n">
+        <v>-1.446853298611111</v>
+      </c>
+      <c r="S8" t="n">
         <v>2</v>
-      </c>
-      <c r="M8" t="n">
-        <v>70</v>
-      </c>
-      <c r="N8" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P8" t="n">
-        <v>39885</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>2025-06-10 00:00:00</t>
-        </is>
-      </c>
-      <c r="R8" s="1" t="n">
-        <v>-1.326486697962963</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251780</v>
+        <v>251477</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>342.2394366197183</v>
+        <v>468.734375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-06 07:50:08</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-06 08:07:08</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-06 08:07:08</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-06 13:49:22</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>24299</v>
+        <v>29999</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1101,19 +1099,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
         <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>70</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N9" t="n">
+        <v>39760</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1121,57 +1117,57 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39887</v>
+        <v>39760</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>0</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251500</v>
+        <v>251651</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>32.5</v>
+        <v>29</v>
       </c>
       <c r="D10" t="n">
-        <v>179.9272727272727</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-06-05 10:32:25</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>9896</v>
+        <v>46830</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1180,75 +1176,73 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
+        <v>5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>76</v>
+      </c>
+      <c r="N10" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>2025-05-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="R10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>4</v>
-      </c>
-      <c r="M10" t="n">
-        <v>70</v>
-      </c>
-      <c r="N10" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P10" t="n">
-        <v>39885</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>2025-05-26 00:00:00</t>
-        </is>
-      </c>
-      <c r="R10" s="1" t="n">
-        <v>-0.4391856060648148</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251070</v>
+        <v>251547</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>34.5</v>
+        <v>34</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-05 10:32:25</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-06-05 11:06:55</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-06-05 11:06:55</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-06-05 11:06:55</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>13129</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1257,17 +1251,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1275,57 +1269,57 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-0.4631439393981481</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251773</v>
+        <v>250759</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>32.5</v>
+        <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:06:55</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:39:25</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:39:25</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:39:25</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>8398</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1334,17 +1328,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N12" t="n">
-        <v>39874</v>
+        <v>39747</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1352,15 +1346,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39874</v>
+        <v>39747</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-25 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.4857133838425925</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1368,41 +1362,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>252084</v>
+        <v>250894</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>641</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-06-04 07:00:00</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-06-05 10:01:00</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>39101</v>
+        <v>44262</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1411,75 +1405,73 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N13" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-06-30 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-0.4173611111111111</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>252282</v>
+        <v>251284</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>35</v>
+        <v>40.5</v>
       </c>
       <c r="D14" t="n">
-        <v>44.88524590163934</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-05 10:01:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-05 10:36:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-05 10:36:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-06-05 11:20:53</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2738</v>
+        <v>16340</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1488,17 +1480,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>39885</v>
+        <v>39747</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1506,15 +1498,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39885</v>
+        <v>39747</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.4728369763194445</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -1522,7 +1514,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251180</v>
+        <v>251742</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1530,33 +1522,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-05 11:20:53</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-06-05 11:45:53</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-06-05 11:45:53</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-06-05 11:45:53</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>8226</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1574,10 +1566,8 @@
       <c r="M15" t="n">
         <v>70</v>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+      <c r="N15" t="n">
+        <v>39749</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1585,15 +1575,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39887</v>
+        <v>39749</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-16.49019808743056</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S15" t="n">
         <v>7</v>
@@ -1601,7 +1591,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251984</v>
+        <v>251840</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1612,30 +1602,30 @@
         <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>338.327868852459</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-06-05 11:45:53</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-06-05 12:10:53</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-06-05 12:10:53</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-06-06 09:49:12</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>20638</v>
+        <v>5714</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1648,13 +1638,13 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>39874</v>
+        <v>39758</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1662,15 +1652,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39874</v>
+        <v>39758</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-1.409175774131944</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -1678,41 +1668,41 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251631</v>
+        <v>251229</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D17" t="n">
-        <v>146.056338028169</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-06-05 09:43:03</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>10370</v>
+        <v>18739</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1721,17 +1711,19 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>76</v>
-      </c>
-      <c r="N17" t="n">
-        <v>39885</v>
+        <v>70</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1739,23 +1731,23 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39885</v>
+        <v>39723</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.4049002347453703</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251237</v>
+        <v>251225</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1763,33 +1755,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>565.3521126760563</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-06-05 09:43:03</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-06-05 10:19:03</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-06-05 10:19:03</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-06-06 11:44:24</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>40140</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1798,17 +1790,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="N18" t="n">
-        <v>39885</v>
+        <v>39747</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1816,15 +1808,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39885</v>
+        <v>39747</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.489172535208333</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -1832,41 +1824,41 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>252112</v>
+        <v>251227</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>254.1428571428571</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-06-04 07:00:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-06-04 07:40:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-06-04 07:40:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-06-04 11:54:08</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>12453</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1875,17 +1867,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N19" t="n">
-        <v>39885</v>
+        <v>39746</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1893,15 +1885,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39885</v>
+        <v>39746</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>0</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -1909,41 +1901,41 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251655</v>
+        <v>251782</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.211267605634</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-06-05 07:40:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-06-05 07:40:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-06-10 10:37:12</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>114822</v>
+        <v>12073</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1952,17 +1944,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N20" t="n">
-        <v>39885</v>
+        <v>39754</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1970,57 +1962,57 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39885</v>
+        <v>39754</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-5.442507824722222</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251573</v>
+        <v>251164</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D21" t="n">
-        <v>89.89855072463769</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-06-06 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-06-06 07:35:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-06-06 07:35:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-06-06 09:04:53</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>6203</v>
+        <v>10000</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2029,113 +2021,500 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
+        <v>6</v>
+      </c>
+      <c r="M21" t="n">
+        <v>70</v>
+      </c>
+      <c r="N21" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>39749</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>2025-04-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="R21" s="1" t="n">
+        <v>-1.471584467118056</v>
+      </c>
+      <c r="S21" t="n">
         <v>4</v>
-      </c>
-      <c r="M21" t="n">
-        <v>100</v>
-      </c>
-      <c r="N21" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P21" t="n">
-        <v>39885</v>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>2025-05-26 00:00:00</t>
-        </is>
-      </c>
-      <c r="R21" s="1" t="n">
-        <v>-1.378401771331018</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251082</v>
+        <v>251456</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C22" t="n">
+        <v>50</v>
+      </c>
+      <c r="D22" t="n">
+        <v>183.6530612244898</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2025-05-08 11:19:04</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-05-08 12:09:04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2025-05-08 12:09:04</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:12:44</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>8999</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>3</v>
+      </c>
+      <c r="M22" t="n">
+        <v>70</v>
+      </c>
+      <c r="N22" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>39746</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>2025-05-09 00:00:00</t>
+        </is>
+      </c>
+      <c r="R22" s="1" t="n">
+        <v>-3.300510204085648</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>251416</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>40</v>
+      </c>
+      <c r="D23" t="n">
+        <v>229.0204081632653</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:12:44</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:52:44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:52:44</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:41:45</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>11222</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M23" t="n">
+        <v>70</v>
+      </c>
+      <c r="N23" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O23" t="n">
         <v>0</v>
       </c>
-      <c r="D22" t="n">
+      <c r="P23" t="n">
         <v>0</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:00:00</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:00:00</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:00:00</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:00:00</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>2025-04-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="R23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>251050</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>217</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:00:00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-05-09 10:37:00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-05-09 10:37:00</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-05-09 10:37:00</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>38</v>
+      </c>
+      <c r="M24" t="n">
+        <v>70</v>
+      </c>
+      <c r="N24" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>39747</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>2025-04-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="R24" s="1" t="n">
+        <v>-1.442361111111111</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>251054</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2025-05-09 10:37:00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:12:00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:12:00</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:12:00</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>38</v>
+      </c>
+      <c r="M25" t="n">
+        <v>70</v>
+      </c>
+      <c r="N25" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>39747</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>2025-04-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="R25" s="1" t="n">
+        <v>-1.466666666666667</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>251081</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>125</v>
+      </c>
+      <c r="D26" t="n">
+        <v>42.42253521126761</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:12:00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:17:00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:17:00</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:59:25</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>3012</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>20</v>
+      </c>
+      <c r="M26" t="n">
+        <v>70</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>39750</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>2025-04-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="R26" s="1" t="n">
+        <v>-16.58293231612268</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>251706</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>50.79365079365079</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:50:47</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>3200</v>
+      </c>
+      <c r="J27" t="inlineStr">
         <is>
           <t>foglio</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>T1 ;T2 ;T8</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
         <v>0</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M27" t="n">
         <v>0</v>
       </c>
-      <c r="N22" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O22" t="inlineStr">
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="P22" t="n">
-        <v>39885</v>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>2025-05-12 00:00:00</t>
-        </is>
-      </c>
-      <c r="R22" s="1" t="n">
-        <v>-0.2916666666666667</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2</v>
+      <c r="P27" t="n">
+        <v>39764</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>2025-05-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="R27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/sequenza.xlsx
+++ b/PS-VRP/Dati_output/sequenza.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251371</v>
+        <v>251219</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -523,33 +523,33 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>107.5</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-06-05 12:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-06-05 12:36:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-06-05 12:36:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-06-05 14:23:30</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6880</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,19 +558,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N2" t="n">
+        <v>39885</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -578,57 +576,57 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39666</v>
+        <v>39885</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-13.30486111111111</v>
+        <v>-0.5996527777777778</v>
       </c>
       <c r="S2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251395</v>
+        <v>251897</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D3" t="n">
-        <v>35.34375</v>
+        <v>305.0327868852459</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-07 07:38:00</t>
+          <t>2025-06-05 07:54:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-07 07:38:00</t>
+          <t>2025-06-05 07:54:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-07 08:13:20</t>
+          <t>2025-06-05 12:59:01</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2262</v>
+        <v>18607</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -637,17 +635,19 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
-      <c r="N3" t="n">
-        <v>39749</v>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -655,57 +655,57 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39749</v>
+        <v>39891</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.3425998263888889</v>
+        <v>-10.54099499089121</v>
       </c>
       <c r="S3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251391</v>
+        <v>251752</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>91.640625</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-07 08:13:20</t>
+          <t>2025-06-04 12:00:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-07 08:30:20</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-07 08:30:20</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-07 10:01:59</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5865</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -714,17 +714,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N4" t="n">
-        <v>39749</v>
+        <v>39846</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -732,57 +732,57 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39749</v>
+        <v>39846</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.4180447048611111</v>
+        <v>-0.5118055555555555</v>
       </c>
       <c r="S4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251455</v>
+        <v>251218</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>82.765625</v>
+        <v>96.90140845070422</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-07 10:01:59</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-07 10:18:59</t>
+          <t>2025-06-04 12:38:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-07 10:18:59</t>
+          <t>2025-06-04 12:38:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-06-04 14:14:54</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>5297</v>
+        <v>6880</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,17 +791,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N5" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -809,57 +809,57 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.4873263888888889</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251396</v>
+        <v>251895</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>35.34375</v>
+        <v>249.2112676056338</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-06-04 14:14:54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-06-04 14:52:54</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-06-04 14:52:54</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-06-05 11:02:06</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2262</v>
+        <v>17694</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,17 +868,19 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
-      <c r="N6" t="n">
-        <v>39749</v>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -886,57 +888,57 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39749</v>
+        <v>39891</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-10.45980046947917</v>
       </c>
       <c r="S6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251548</v>
+        <v>251565</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
-        <v>206.90625</v>
+        <v>176.7464788732394</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-06-05 11:02:06</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-06-05 11:33:06</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-06-05 11:33:06</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-06-05 14:29:51</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>13242</v>
+        <v>12549</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -949,13 +951,13 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -963,57 +965,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-0.6040688575925925</v>
       </c>
       <c r="S7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>250923</v>
+        <v>251362</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>109.46875</v>
+        <v>35.28169014084507</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-06-05 14:29:51</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-06-06 07:01:51</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-06-06 07:01:51</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-06-06 07:37:08</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>7006</v>
+        <v>2505</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1026,13 +1028,13 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
         <v>76</v>
       </c>
       <c r="N8" t="n">
-        <v>39749</v>
+        <v>39874</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1040,57 +1042,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39749</v>
+        <v>39874</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-1.317458920185185</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251477</v>
+        <v>251780</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>468.734375</v>
+        <v>342.2394366197183</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-06-06 07:37:08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-06-06 08:07:08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-06-06 08:07:08</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-06-06 13:49:22</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>29999</v>
+        <v>24299</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1099,17 +1101,19 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
         <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>76</v>
-      </c>
-      <c r="N9" t="n">
-        <v>39760</v>
+        <v>70</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1117,57 +1121,57 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39760</v>
+        <v>39887</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251651</v>
+        <v>251070</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>29</v>
+        <v>36.5</v>
       </c>
       <c r="D10" t="n">
-        <v>767.7049180327868</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>46830</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1176,73 +1180,75 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
+        <v>39885</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0</v>
+        <v>-0.3170138888888889</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251547</v>
+        <v>251773</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>34</v>
+        <v>32.5</v>
       </c>
       <c r="D11" t="n">
-        <v>184.9154929577465</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>13129</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1251,17 +1257,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>39749</v>
+        <v>39874</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1269,57 +1275,57 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39749</v>
+        <v>39874</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-25 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-0.3395833333333333</v>
       </c>
       <c r="S11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>250759</v>
+        <v>251500</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>30</v>
+        <v>36.5</v>
       </c>
       <c r="D12" t="n">
-        <v>118.2816901408451</v>
+        <v>179.9272727272727</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-06-05 08:45:30</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-06-05 08:45:30</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-06-05 11:45:25</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>8398</v>
+        <v>9896</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1328,17 +1334,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N12" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1346,57 +1352,57 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-0.4898800505092593</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>250894</v>
+        <v>251180</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>623.4084507042254</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-06-04 07:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>44262</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1405,73 +1411,77 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>76</v>
-      </c>
-      <c r="N13" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>39887</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
+        <v>-15.3125</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251284</v>
+        <v>252282</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>40.5</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>297.0909090909091</v>
+        <v>44.88524590163934</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-06-04 07:55:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-06-04 07:55:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-06-04 08:39:53</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>16340</v>
+        <v>2738</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1480,17 +1490,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1498,15 +1508,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -1514,7 +1524,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251742</v>
+        <v>251984</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1525,30 +1535,30 @@
         <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>134.8524590163935</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-04 08:39:53</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-06-04 09:09:53</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-06-04 09:09:53</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-06-04 14:48:12</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>8226</v>
+        <v>20638</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1561,13 +1571,13 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39749</v>
+        <v>39874</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1575,23 +1585,23 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39749</v>
+        <v>39874</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251840</v>
+        <v>252084</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1602,30 +1612,30 @@
         <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>93.67213114754098</v>
+        <v>641</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-06-04 14:48:12</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-06-05 07:13:12</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-06-05 07:13:12</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-06-06 09:54:12</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>5714</v>
+        <v>39101</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1638,13 +1648,13 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>39758</v>
+        <v>39885</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1652,57 +1662,57 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39758</v>
+        <v>39885</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-1.412647996354166</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251229</v>
+        <v>251631</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>307.1967213114754</v>
+        <v>146.056338028169</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-06-05 09:43:03</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>18739</v>
+        <v>10370</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1711,19 +1721,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N17" t="n">
+        <v>39885</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1731,23 +1739,23 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39723</v>
+        <v>39885</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>0</v>
+        <v>-0.4049002347453703</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251225</v>
+        <v>251237</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1755,33 +1763,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>565.3521126760563</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-06-05 09:43:03</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-06-06 11:44:24</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>40140</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1790,17 +1798,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1808,15 +1816,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-1.489172535208333</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -1824,76 +1832,76 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251227</v>
+        <v>252112</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D19" t="n">
+        <v>254.1428571428571</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2025-06-04 07:00:00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-06-04 07:40:00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2025-06-04 07:40:00</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-06-04 11:54:08</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>12453</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>2</v>
+      </c>
+      <c r="M19" t="n">
+        <v>70</v>
+      </c>
+      <c r="N19" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>39885</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>2025-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="R19" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:19:00</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:34:00</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:34:00</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:34:00</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>4</v>
-      </c>
-      <c r="M19" t="n">
-        <v>76</v>
-      </c>
-      <c r="N19" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P19" t="n">
-        <v>39746</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>2025-05-05 00:00:00</t>
-        </is>
-      </c>
-      <c r="R19" s="1" t="n">
-        <v>-2.523611111111111</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -1901,41 +1909,41 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251782</v>
+        <v>251655</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D20" t="n">
-        <v>170.0422535211268</v>
+        <v>1617.211267605634</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-06-10 10:37:12</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>12073</v>
+        <v>114822</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1944,17 +1952,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N20" t="n">
-        <v>39754</v>
+        <v>39885</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1962,57 +1970,57 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39754</v>
+        <v>39885</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-5.442507824722222</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251164</v>
+        <v>251573</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D21" t="n">
-        <v>204.0816326530612</v>
+        <v>89.89855072463769</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-06 07:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-06-06 07:35:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-06-06 07:35:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-06-06 09:04:53</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>10000</v>
+        <v>6203</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2021,17 +2029,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2039,76 +2047,76 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-1.378401771331018</v>
       </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251456</v>
+        <v>251082</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>183.6530612244898</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>8999</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T1 ;T2 ;T8</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>39746</v>
+        <v>39885</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2116,405 +2124,18 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39746</v>
+        <v>39885</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-0.2916666666666667</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>251416</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>40</v>
-      </c>
-      <c r="D23" t="n">
-        <v>229.0204081632653</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:12:44</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:52:44</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:52:44</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:41:45</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>11222</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
         <v>2</v>
-      </c>
-      <c r="M23" t="n">
-        <v>70</v>
-      </c>
-      <c r="N23" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>2025-04-23 00:00:00</t>
-        </is>
-      </c>
-      <c r="R23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>251050</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>217</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:00:00</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:37:00</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:37:00</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:37:00</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>38</v>
-      </c>
-      <c r="M24" t="n">
-        <v>70</v>
-      </c>
-      <c r="N24" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P24" t="n">
-        <v>39747</v>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>2025-04-16 00:00:00</t>
-        </is>
-      </c>
-      <c r="R24" s="1" t="n">
-        <v>-1.442361111111111</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>251054</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>35</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:37:00</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:12:00</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:12:00</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:12:00</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>38</v>
-      </c>
-      <c r="M25" t="n">
-        <v>70</v>
-      </c>
-      <c r="N25" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P25" t="n">
-        <v>39747</v>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>2025-04-16 00:00:00</t>
-        </is>
-      </c>
-      <c r="R25" s="1" t="n">
-        <v>-1.466666666666667</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>251081</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>125</v>
-      </c>
-      <c r="D26" t="n">
-        <v>42.42253521126761</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:12:00</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2025-05-09 13:17:00</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>2025-05-09 13:17:00</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2025-05-09 13:59:25</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>3012</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>20</v>
-      </c>
-      <c r="M26" t="n">
-        <v>70</v>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P26" t="n">
-        <v>39750</v>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>2025-04-23 00:00:00</t>
-        </is>
-      </c>
-      <c r="R26" s="1" t="n">
-        <v>-16.58293231612268</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>251706</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>50.79365079365079</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:50:47</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>3200</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>foglio</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P27" t="n">
-        <v>39764</v>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>2025-05-14 00:00:00</t>
-        </is>
-      </c>
-      <c r="R27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/sequenza.xlsx
+++ b/PS-VRP/Dati_output/sequenza.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251219</v>
+        <v>251371</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -523,33 +523,33 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>107.5</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-06-05 12:00:00</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-06-05 12:36:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-06-05 12:36:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-06-05 14:23:30</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>6880</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,17 +558,19 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>76</v>
-      </c>
-      <c r="N2" t="n">
-        <v>39885</v>
+        <v>70</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -576,57 +578,57 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39885</v>
+        <v>39666</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-0.5996527777777778</v>
+        <v>-13.30486111111111</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251897</v>
+        <v>251395</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>305.0327868852459</v>
+        <v>35.34375</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-06-05 07:54:00</t>
+          <t>2025-05-07 07:38:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-05 07:54:00</t>
+          <t>2025-05-07 07:38:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-06-05 12:59:01</t>
+          <t>2025-05-07 08:13:20</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>18607</v>
+        <v>2262</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -635,19 +637,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
+      <c r="N3" t="n">
+        <v>39749</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -655,57 +655,57 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39891</v>
+        <v>39749</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-10.54099499089121</v>
+        <v>-0.3425998263888889</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251752</v>
+        <v>251391</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>91.640625</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:00:00</t>
+          <t>2025-05-07 08:13:20</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-05-07 08:30:20</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-05-07 08:30:20</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-05-07 10:01:59</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>5865</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -714,17 +714,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>39846</v>
+        <v>39749</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -732,57 +732,57 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39846</v>
+        <v>39749</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.5118055555555555</v>
+        <v>-0.4180447048611111</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251218</v>
+        <v>251455</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>96.90140845070422</v>
+        <v>82.765625</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-05-07 10:01:59</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-04 12:38:00</t>
+          <t>2025-05-07 10:18:59</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-04 12:38:00</t>
+          <t>2025-05-07 10:18:59</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-04 14:14:54</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>6880</v>
+        <v>5297</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,17 +791,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -809,57 +809,57 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0</v>
+        <v>-0.4873263888888889</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251895</v>
+        <v>251396</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>249.2112676056338</v>
+        <v>35.34375</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-04 14:14:54</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-04 14:52:54</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-04 14:52:54</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-05 11:02:06</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>17694</v>
+        <v>2262</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,19 +868,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
+      <c r="N6" t="n">
+        <v>39749</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -888,57 +886,57 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39891</v>
+        <v>39749</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-10.45980046947917</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251565</v>
+        <v>251548</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>176.7464788732394</v>
+        <v>206.90625</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-05 11:02:06</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-05 11:33:06</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-05 11:33:06</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-05 14:29:51</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>12549</v>
+        <v>13242</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -951,13 +949,13 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -965,57 +963,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.6040688575925925</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251362</v>
+        <v>250923</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>35.28169014084507</v>
+        <v>109.46875</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-05 14:29:51</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-06 07:01:51</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-06 07:01:51</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-06 07:37:08</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>2505</v>
+        <v>7006</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1028,13 +1026,13 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
         <v>76</v>
       </c>
       <c r="N8" t="n">
-        <v>39874</v>
+        <v>39749</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1042,57 +1040,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39874</v>
+        <v>39749</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.317458920185185</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="S8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251780</v>
+        <v>251477</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>342.2394366197183</v>
+        <v>468.734375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-06 07:37:08</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-06 08:07:08</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-06 08:07:08</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-06 13:49:22</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>24299</v>
+        <v>29999</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1101,19 +1099,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
         <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>70</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N9" t="n">
+        <v>39760</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1121,134 +1117,132 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39887</v>
+        <v>39760</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>0</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251070</v>
+        <v>251651</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>36.5</v>
+        <v>29</v>
       </c>
       <c r="D10" t="n">
+        <v>767.7049180327868</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:00:00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:29:00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:29:00</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-05-12 12:16:42</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>46830</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>76</v>
+      </c>
+      <c r="N10" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O10" t="n">
         <v>0</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:00:00</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:36:30</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:36:30</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:36:30</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="P10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>6</v>
-      </c>
-      <c r="M10" t="n">
-        <v>70</v>
-      </c>
-      <c r="N10" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P10" t="n">
-        <v>39885</v>
-      </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.3170138888888889</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251773</v>
+        <v>251547</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>32.5</v>
+        <v>34</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>13129</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1257,17 +1251,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>39874</v>
+        <v>39749</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1275,57 +1269,57 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39874</v>
+        <v>39749</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-25 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-0.3395833333333333</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251500</v>
+        <v>250759</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>36.5</v>
+        <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>179.9272727272727</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-05 08:45:30</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-06-05 08:45:30</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:45:25</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>9896</v>
+        <v>8398</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1334,17 +1328,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L12" t="n">
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N12" t="n">
-        <v>39885</v>
+        <v>39747</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1352,136 +1346,132 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39885</v>
+        <v>39747</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.4898800505092593</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251180</v>
+        <v>250894</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D13" t="n">
+        <v>623.4084507042254</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2025-05-08 13:07:11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-05-08 13:24:11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-05-08 13:24:11</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:47:36</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>44262</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>76</v>
+      </c>
+      <c r="N13" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O13" t="n">
         <v>0</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2025-06-04 07:00:00</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2025-06-04 07:30:00</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2025-06-04 07:30:00</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2025-06-04 07:30:00</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="P13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>2025-05-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="R13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
         <v>4</v>
-      </c>
-      <c r="M13" t="n">
-        <v>70</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P13" t="n">
-        <v>39887</v>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>2025-05-20 00:00:00</t>
-        </is>
-      </c>
-      <c r="R13" s="1" t="n">
-        <v>-15.3125</v>
-      </c>
-      <c r="S13" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>252282</v>
+        <v>251284</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>40.5</v>
       </c>
       <c r="D14" t="n">
-        <v>44.88524590163934</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-04 07:30:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-04 07:55:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-04 07:55:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-06-04 08:39:53</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2738</v>
+        <v>16340</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1490,17 +1480,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>39885</v>
+        <v>39747</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1508,15 +1498,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39885</v>
+        <v>39747</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -1524,7 +1514,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251984</v>
+        <v>251742</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1535,30 +1525,30 @@
         <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>338.327868852459</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-04 08:39:53</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-06-04 09:09:53</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-06-04 09:09:53</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-06-04 14:48:12</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>20638</v>
+        <v>8226</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1571,13 +1561,13 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39874</v>
+        <v>39749</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1585,23 +1575,23 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39874</v>
+        <v>39749</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>252084</v>
+        <v>251840</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1612,30 +1602,30 @@
         <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>641</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-06-04 14:48:12</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:13:12</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:13:12</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-06-06 09:54:12</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>39101</v>
+        <v>5714</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1648,13 +1638,13 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>39885</v>
+        <v>39758</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1662,57 +1652,57 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39885</v>
+        <v>39758</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-06-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-1.412647996354166</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251631</v>
+        <v>251229</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D17" t="n">
-        <v>146.056338028169</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-06-05 09:43:03</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>10370</v>
+        <v>18739</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1721,17 +1711,19 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>76</v>
-      </c>
-      <c r="N17" t="n">
-        <v>39885</v>
+        <v>70</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1739,23 +1731,23 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39885</v>
+        <v>39723</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.4049002347453703</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251237</v>
+        <v>251225</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1763,33 +1755,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>565.3521126760563</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-06-05 09:43:03</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-06-05 10:19:03</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-06-05 10:19:03</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-06-06 11:44:24</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>40140</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1798,17 +1790,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="N18" t="n">
-        <v>39885</v>
+        <v>39747</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1816,15 +1808,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39885</v>
+        <v>39747</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.489172535208333</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -1832,41 +1824,41 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>252112</v>
+        <v>251227</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>254.1428571428571</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-06-04 07:00:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-06-04 07:40:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-06-04 07:40:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-06-04 11:54:08</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>12453</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1875,17 +1867,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N19" t="n">
-        <v>39885</v>
+        <v>39746</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1893,15 +1885,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39885</v>
+        <v>39746</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>0</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -1909,41 +1901,41 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251655</v>
+        <v>251782</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.211267605634</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-06-05 07:40:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-06-05 07:40:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-06-10 10:37:12</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>114822</v>
+        <v>12073</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1952,17 +1944,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N20" t="n">
-        <v>39885</v>
+        <v>39754</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1970,57 +1962,57 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39885</v>
+        <v>39754</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-5.442507824722222</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251573</v>
+        <v>251164</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D21" t="n">
-        <v>89.89855072463769</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-06-06 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-06-06 07:35:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-06-06 07:35:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-06-06 09:04:53</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>6203</v>
+        <v>10000</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2029,113 +2021,500 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
+        <v>6</v>
+      </c>
+      <c r="M21" t="n">
+        <v>70</v>
+      </c>
+      <c r="N21" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>39749</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>2025-04-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="R21" s="1" t="n">
+        <v>-1.471584467118056</v>
+      </c>
+      <c r="S21" t="n">
         <v>4</v>
-      </c>
-      <c r="M21" t="n">
-        <v>100</v>
-      </c>
-      <c r="N21" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P21" t="n">
-        <v>39885</v>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>2025-05-26 00:00:00</t>
-        </is>
-      </c>
-      <c r="R21" s="1" t="n">
-        <v>-1.378401771331018</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251082</v>
+        <v>251456</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C22" t="n">
+        <v>50</v>
+      </c>
+      <c r="D22" t="n">
+        <v>183.6530612244898</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2025-05-08 11:19:04</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-05-08 12:09:04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2025-05-08 12:09:04</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:12:44</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>8999</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>3</v>
+      </c>
+      <c r="M22" t="n">
+        <v>70</v>
+      </c>
+      <c r="N22" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>39746</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>2025-05-09 00:00:00</t>
+        </is>
+      </c>
+      <c r="R22" s="1" t="n">
+        <v>-3.300510204085648</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>251416</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>40</v>
+      </c>
+      <c r="D23" t="n">
+        <v>229.0204081632653</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:12:44</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:52:44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:52:44</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:41:45</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>11222</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M23" t="n">
+        <v>70</v>
+      </c>
+      <c r="N23" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O23" t="n">
         <v>0</v>
       </c>
-      <c r="D22" t="n">
+      <c r="P23" t="n">
         <v>0</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:00:00</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:00:00</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:00:00</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:00:00</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>2025-04-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="R23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>251050</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>217</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:00:00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-05-09 10:37:00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-05-09 10:37:00</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-05-09 10:37:00</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>38</v>
+      </c>
+      <c r="M24" t="n">
+        <v>70</v>
+      </c>
+      <c r="N24" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>39747</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>2025-04-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="R24" s="1" t="n">
+        <v>-1.442361111111111</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>251054</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2025-05-09 10:37:00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:12:00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:12:00</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:12:00</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>38</v>
+      </c>
+      <c r="M25" t="n">
+        <v>70</v>
+      </c>
+      <c r="N25" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>39747</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>2025-04-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="R25" s="1" t="n">
+        <v>-1.466666666666667</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>251081</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>125</v>
+      </c>
+      <c r="D26" t="n">
+        <v>42.42253521126761</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:12:00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:17:00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:17:00</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:59:25</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>3012</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>20</v>
+      </c>
+      <c r="M26" t="n">
+        <v>70</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>39750</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>2025-04-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="R26" s="1" t="n">
+        <v>-16.58293231612268</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>251706</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>50.79365079365079</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:50:47</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>3200</v>
+      </c>
+      <c r="J27" t="inlineStr">
         <is>
           <t>foglio</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>T1 ;T2 ;T8</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
         <v>0</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M27" t="n">
         <v>0</v>
       </c>
-      <c r="N22" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O22" t="inlineStr">
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="P22" t="n">
-        <v>39885</v>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>2025-05-12 00:00:00</t>
-        </is>
-      </c>
-      <c r="R22" s="1" t="n">
-        <v>-0.2916666666666667</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2</v>
+      <c r="P27" t="n">
+        <v>39764</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>2025-05-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="R27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
